--- a/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -528,9 +536,6 @@
     <t>Production Electicity yearly</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>MW</t>
   </si>
   <si>
@@ -785,17 +790,21 @@
   <si>
     <t>http://refman.et-model.com/publications/1682</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -946,11 +955,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1596,8 +1600,8 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1606,44 +1610,44 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1658,13 +1662,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1676,21 +1680,21 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1728,7 +1732,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1739,7 +1743,7 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1759,11 +1763,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1789,10 +1793,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,38 +1819,38 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2087,80 +2091,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3975100</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2316,7 +2255,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2753,43 +2692,43 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1">
+    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>110</v>
@@ -2798,7 +2737,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2807,29 +2746,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="111" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="112"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="113"/>
       <c r="C10" s="114"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="113" t="s">
         <v>96</v>
@@ -2838,33 +2777,33 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="113"/>
       <c r="C12" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="113"/>
       <c r="C13" s="116" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="113"/>
       <c r="C15" s="114"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="113" t="s">
         <v>101</v>
@@ -2873,49 +2812,49 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="113"/>
       <c r="C17" s="118" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="113"/>
       <c r="C18" s="119" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="113"/>
       <c r="C19" s="120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="121"/>
       <c r="C20" s="122" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="121"/>
       <c r="C21" s="123" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="121"/>
       <c r="C22" s="124" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="121"/>
       <c r="C23" s="125" t="s">
         <v>109</v>
@@ -2924,41 +2863,36 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K68"/>
   <sheetViews>
-    <sheetView topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="4"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -2968,9 +2902,9 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="173" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="C2" s="174"/>
       <c r="D2" s="174"/>
@@ -2980,7 +2914,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="176"/>
       <c r="C3" s="177"/>
       <c r="D3" s="177"/>
@@ -2990,7 +2924,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="176"/>
       <c r="C4" s="177"/>
       <c r="D4" s="177"/>
@@ -3000,7 +2934,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="179"/>
       <c r="C5" s="180"/>
       <c r="D5" s="180"/>
@@ -3010,7 +2944,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -3020,7 +2954,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -3031,7 +2965,7 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="139"/>
       <c r="C8" s="24" t="s">
         <v>36</v>
@@ -3052,7 +2986,7 @@
       </c>
       <c r="J8" s="141"/>
     </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="37"/>
       <c r="C9" s="23"/>
       <c r="D9" s="45"/>
@@ -3063,7 +2997,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
         <v>112</v>
@@ -3076,7 +3010,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="48" t="s">
         <v>37</v>
@@ -3095,10 +3029,10 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="148" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
@@ -3114,7 +3048,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
         <v>39</v>
@@ -3134,7 +3068,7 @@
       <c r="J13" s="145"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="48" t="s">
         <v>40</v>
@@ -3154,7 +3088,7 @@
       <c r="J14" s="145"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
       <c r="C15" s="48" t="s">
         <v>42</v>
@@ -3174,7 +3108,7 @@
       <c r="J15" s="145"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="48" t="s">
         <v>11</v>
@@ -3194,7 +3128,7 @@
       <c r="J16" s="145"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="47" t="s">
         <v>45</v>
@@ -3214,7 +3148,7 @@
       <c r="J17" s="146"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>46</v>
@@ -3234,13 +3168,13 @@
       <c r="J18" s="146"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="53">
         <f>'Research data'!H6</f>
@@ -3256,13 +3190,13 @@
       </c>
       <c r="J19" s="145"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="53">
         <v>20.254629629629601</v>
@@ -3277,7 +3211,7 @@
       </c>
       <c r="J20" s="145"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
       <c r="C21" s="142"/>
       <c r="D21" s="143"/>
@@ -3288,10 +3222,10 @@
       <c r="I21" s="30"/>
       <c r="J21" s="145"/>
     </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="143"/>
       <c r="E22" s="136"/>
@@ -3301,7 +3235,7 @@
       <c r="I22" s="30"/>
       <c r="J22" s="145"/>
     </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
         <v>49</v>
@@ -3323,7 +3257,7 @@
       </c>
       <c r="J23" s="147"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
         <v>50</v>
@@ -3344,7 +3278,7 @@
       </c>
       <c r="J24" s="147"/>
     </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
+    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="48" t="s">
         <v>13</v>
@@ -3365,7 +3299,7 @@
       </c>
       <c r="J25" s="145"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="48" t="s">
         <v>51</v>
@@ -3386,7 +3320,7 @@
       </c>
       <c r="J26" s="145"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>52</v>
@@ -3408,7 +3342,7 @@
       </c>
       <c r="J27" s="145"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
         <v>53</v>
@@ -3430,7 +3364,7 @@
       </c>
       <c r="J28" s="145"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
         <v>54</v>
@@ -3451,7 +3385,7 @@
       </c>
       <c r="J29" s="145"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="48" t="s">
         <v>57</v>
@@ -3472,7 +3406,7 @@
       </c>
       <c r="J30" s="145"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="48" t="s">
         <v>44</v>
@@ -3491,7 +3425,7 @@
       </c>
       <c r="J31" s="145"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="32"/>
       <c r="C32" s="142"/>
       <c r="D32" s="143"/>
@@ -3502,7 +3436,7 @@
       <c r="I32" s="30"/>
       <c r="J32" s="145"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="23" t="s">
         <v>8</v>
@@ -3515,7 +3449,7 @@
       <c r="I33" s="30"/>
       <c r="J33" s="145"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
         <v>43</v>
@@ -3537,7 +3471,7 @@
       </c>
       <c r="J34" s="145"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
         <v>55</v>
@@ -3555,11 +3489,11 @@
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J35" s="145"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="48" t="s">
         <v>56</v>
@@ -3577,11 +3511,11 @@
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="160" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J36" s="145"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="32"/>
       <c r="C37" s="48" t="s">
         <v>41</v>
@@ -3600,7 +3534,7 @@
       </c>
       <c r="J37" s="145"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
         <v>58</v>
@@ -3619,7 +3553,7 @@
       </c>
       <c r="J38" s="145"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
         <v>14</v>
@@ -3638,7 +3572,7 @@
       </c>
       <c r="J39" s="145"/>
     </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
         <v>59</v>
@@ -3657,7 +3591,7 @@
       </c>
       <c r="J40" s="145"/>
     </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
         <v>61</v>
@@ -3676,7 +3610,7 @@
       </c>
       <c r="J41" s="145"/>
     </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
         <v>60</v>
@@ -3695,7 +3629,7 @@
       </c>
       <c r="J42" s="145"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
       <c r="C43" s="48" t="s">
         <v>62</v>
@@ -3714,7 +3648,7 @@
       </c>
       <c r="J43" s="145"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
       <c r="C44" s="48" t="s">
         <v>63</v>
@@ -3733,7 +3667,7 @@
       </c>
       <c r="J44" s="145"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="32"/>
       <c r="C45" s="48"/>
       <c r="D45" s="33"/>
@@ -3744,7 +3678,7 @@
       <c r="I45" s="30"/>
       <c r="J45" s="145"/>
     </row>
-    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="34"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -3755,7 +3689,7 @@
       <c r="I46" s="35"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -3765,7 +3699,7 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -3775,49 +3709,49 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -3827,7 +3761,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3837,7 +3771,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3847,7 +3781,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -3857,7 +3791,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3867,7 +3801,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -3877,7 +3811,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -3887,7 +3821,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3897,7 +3831,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3907,7 +3841,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3917,7 +3851,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -3927,7 +3861,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -3937,7 +3871,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -3947,7 +3881,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -3963,43 +3897,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3975100</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4014,33 +3911,33 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="54" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="54" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="54" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="54" customWidth="1"/>
-    <col min="7" max="7" width="2.5" style="54" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="54" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="2.375" style="81" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="81" customWidth="1"/>
-    <col min="13" max="13" width="2.875" style="81" customWidth="1"/>
-    <col min="14" max="14" width="8.5" style="81" customWidth="1"/>
-    <col min="15" max="15" width="2.25" style="54" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="81" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="81" customWidth="1"/>
+    <col min="13" max="13" width="2.85546875" style="81" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="2.28515625" style="54" customWidth="1"/>
     <col min="16" max="16" width="10" style="81" customWidth="1"/>
-    <col min="17" max="17" width="3.375" style="81" customWidth="1"/>
+    <col min="17" max="17" width="3.42578125" style="81" customWidth="1"/>
     <col min="18" max="18" width="10" style="81" customWidth="1"/>
-    <col min="19" max="19" width="2.875" style="54" customWidth="1"/>
-    <col min="20" max="20" width="73.875" style="54" customWidth="1"/>
-    <col min="21" max="16384" width="10.625" style="54"/>
+    <col min="19" max="19" width="2.85546875" style="54" customWidth="1"/>
+    <col min="20" max="20" width="73.85546875" style="54" customWidth="1"/>
+    <col min="21" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="16" thickBot="1"/>
-    <row r="2" spans="2:20">
+    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -4061,7 +3958,7 @@
       <c r="S2" s="56"/>
       <c r="T2" s="56"/>
     </row>
-    <row r="3" spans="2:20" s="38" customFormat="1">
+    <row r="3" spans="2:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="37"/>
       <c r="C3" s="130" t="s">
         <v>118</v>
@@ -4085,7 +3982,7 @@
       </c>
       <c r="M3" s="131"/>
       <c r="N3" s="131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O3" s="130"/>
       <c r="P3" s="131" t="s">
@@ -4097,10 +3994,10 @@
       </c>
       <c r="S3" s="130"/>
       <c r="T3" s="130" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="57"/>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -4121,7 +4018,7 @@
       <c r="S4" s="132"/>
       <c r="T4" s="17"/>
     </row>
-    <row r="5" spans="2:20" ht="16" thickBot="1">
+    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
         <v>112</v>
@@ -4144,7 +4041,7 @@
       <c r="S5" s="18"/>
       <c r="T5" s="85"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
+    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="57"/>
       <c r="C6" s="86" t="s">
         <v>33</v>
@@ -4170,7 +4067,7 @@
       <c r="O6" s="84"/>
       <c r="T6" s="85"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="57"/>
       <c r="C7" s="96"/>
       <c r="D7" s="96"/>
@@ -4187,7 +4084,7 @@
       <c r="O7" s="94"/>
       <c r="T7" s="133"/>
     </row>
-    <row r="8" spans="2:20" ht="16" thickBot="1">
+    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57"/>
       <c r="C8" s="46" t="s">
         <v>8</v>
@@ -4209,7 +4106,7 @@
       <c r="R8" s="97"/>
       <c r="T8" s="133"/>
     </row>
-    <row r="9" spans="2:20" ht="16" thickBot="1">
+    <row r="9" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="57"/>
       <c r="C9" s="92" t="s">
         <v>17</v>
@@ -4240,10 +4137,10 @@
         <v>0.28313100000000002</v>
       </c>
       <c r="T9" s="138" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="57"/>
       <c r="C10" s="98" t="s">
         <v>1</v>
@@ -4278,7 +4175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="16" thickBot="1">
+    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="57"/>
       <c r="C11" s="100" t="s">
         <v>6</v>
@@ -4313,7 +4210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="57"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -4333,7 +4230,7 @@
       <c r="R12" s="97"/>
       <c r="T12" s="85"/>
     </row>
-    <row r="13" spans="2:20" ht="16" thickBot="1">
+    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="57"/>
       <c r="C13" s="21" t="s">
         <v>119</v>
@@ -4355,10 +4252,10 @@
       <c r="R13" s="97"/>
       <c r="T13" s="149"/>
     </row>
-    <row r="14" spans="2:20" ht="16" thickBot="1">
+    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="57"/>
       <c r="C14" s="137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4381,13 +4278,13 @@
       <c r="Q14" s="97"/>
       <c r="R14" s="97"/>
       <c r="T14" s="159" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="16" thickBot="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="57"/>
       <c r="C15" s="137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
@@ -4412,13 +4309,13 @@
       <c r="Q15" s="97"/>
       <c r="R15" s="97"/>
       <c r="T15" s="149" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="57"/>
       <c r="C16" s="137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="46"/>
@@ -4441,13 +4338,13 @@
       <c r="Q16" s="94"/>
       <c r="R16" s="94"/>
       <c r="T16" s="159" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="16" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="57"/>
       <c r="C17" s="137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D17" s="46"/>
       <c r="E17" s="46"/>
@@ -4469,10 +4366,10 @@
       <c r="Q17" s="94"/>
       <c r="R17" s="94"/>
       <c r="T17" s="171" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="16" thickBot="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="57"/>
       <c r="C18" s="150" t="s">
         <v>71</v>
@@ -4498,10 +4395,10 @@
       <c r="Q18" s="94"/>
       <c r="R18" s="94"/>
       <c r="T18" s="159" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="16" thickBot="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="57"/>
       <c r="C19" s="137" t="s">
         <v>71</v>
@@ -4530,7 +4427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="16" thickBot="1">
+    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="57"/>
       <c r="C20" s="137" t="s">
         <v>71</v>
@@ -4555,13 +4452,13 @@
       <c r="Q20" s="94"/>
       <c r="R20" s="94"/>
       <c r="T20" s="159" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="16" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="57"/>
       <c r="C21" s="137" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="85"/>
       <c r="E21" s="85"/>
@@ -4586,7 +4483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:20" ht="16" thickBot="1">
+    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="57"/>
       <c r="C22" s="137" t="s">
         <v>120</v>
@@ -4632,11 +4529,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4651,21 +4543,21 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="59" customWidth="1"/>
-    <col min="3" max="3" width="30.25" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="59" customWidth="1"/>
-    <col min="6" max="8" width="12.125" style="59" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="60" customWidth="1"/>
-    <col min="10" max="10" width="105.5" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="59"/>
+    <col min="1" max="1" width="10.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="59" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -4676,7 +4568,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
       <c r="C3" s="65" t="s">
         <v>24</v>
@@ -4689,7 +4581,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="64"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -4700,7 +4592,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
         <v>34</v>
@@ -4715,19 +4607,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="70" t="s">
         <v>85</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -4738,14 +4630,14 @@
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:10" s="151" customFormat="1">
+    <row r="7" spans="2:10" s="151" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="154"/>
       <c r="C7" s="161"/>
       <c r="D7" s="162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="163" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="164" t="s">
         <v>80</v>
@@ -4755,16 +4647,16 @@
       </c>
       <c r="H7" s="164"/>
       <c r="I7" s="172" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J7" s="162" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="151" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="154"/>
       <c r="C8" s="166" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="162"/>
       <c r="E8" s="155"/>
@@ -4774,10 +4666,10 @@
       <c r="I8" s="167"/>
       <c r="J8" s="169"/>
     </row>
-    <row r="9" spans="2:10" s="151" customFormat="1">
+    <row r="9" spans="2:10" s="151" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="154"/>
       <c r="C9" s="166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="162"/>
       <c r="E9" s="155"/>
@@ -4787,7 +4679,7 @@
       <c r="I9" s="167"/>
       <c r="J9" s="169"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="64"/>
       <c r="C10" s="75"/>
       <c r="D10" s="67"/>
@@ -4798,7 +4690,7 @@
       <c r="I10" s="68"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="64"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72" t="s">
@@ -4815,13 +4707,13 @@
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J11" s="79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="64"/>
       <c r="C12" s="73" t="s">
         <v>1</v>
@@ -4834,7 +4726,7 @@
       <c r="I12" s="78"/>
       <c r="J12" s="72"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="64"/>
       <c r="C13" s="74" t="s">
         <v>6</v>
@@ -4847,7 +4739,7 @@
       <c r="I13" s="78"/>
       <c r="J13" s="72"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="64"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72" t="s">
@@ -4864,11 +4756,11 @@
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="64"/>
       <c r="C15" s="75" t="s">
         <v>91</v>
@@ -4881,7 +4773,7 @@
       <c r="I15" s="68"/>
       <c r="J15" s="72"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="64"/>
       <c r="C16" s="75"/>
       <c r="D16" s="72"/>
@@ -4892,7 +4784,7 @@
       <c r="I16" s="68"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="64"/>
       <c r="C17" s="72"/>
       <c r="D17" s="72" t="s">
@@ -4903,7 +4795,7 @@
         <v>2013</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
@@ -4911,7 +4803,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="64"/>
       <c r="C18" s="72" t="s">
         <v>90</v>
@@ -4924,7 +4816,7 @@
       <c r="I18" s="68"/>
       <c r="J18" s="72"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="64"/>
       <c r="C19" s="75" t="s">
         <v>93</v>
@@ -4937,7 +4829,7 @@
       <c r="I19" s="68"/>
       <c r="J19" s="72"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="64"/>
       <c r="C20" s="75" t="s">
         <v>94</v>
@@ -4950,7 +4842,7 @@
       <c r="I20" s="80"/>
       <c r="J20" s="72"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="64"/>
       <c r="C21" s="72"/>
       <c r="D21" s="67"/>
@@ -4961,7 +4853,7 @@
       <c r="I21" s="80"/>
       <c r="J21" s="72"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="64"/>
       <c r="C22" s="72"/>
       <c r="D22" s="59" t="s">
@@ -4980,7 +4872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="64"/>
       <c r="C23" s="75" t="s">
         <v>84</v>
@@ -4995,7 +4887,7 @@
       <c r="I23" s="80"/>
       <c r="J23" s="72"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="64"/>
       <c r="C24" s="75"/>
       <c r="D24" s="67"/>
@@ -5006,7 +4898,7 @@
       <c r="I24" s="80"/>
       <c r="J24" s="72"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="64"/>
       <c r="C25" s="72"/>
       <c r="D25" s="67" t="s">
@@ -5025,7 +4917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="64"/>
       <c r="C26" s="75" t="s">
         <v>84</v>
@@ -5049,11 +4941,6 @@
   <ignoredErrors>
     <ignoredError sqref="F11 F14:G14 F7:G7 G17" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5065,17 +4952,17 @@
       <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="151" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="151" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="151" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="151" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="151"/>
+    <col min="2" max="2" width="4.85546875" style="151" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="151" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="151" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="151"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="152"/>
       <c r="C2" s="153"/>
       <c r="D2" s="153"/>
@@ -5091,14 +4978,14 @@
       <c r="N2" s="153"/>
       <c r="O2" s="153"/>
     </row>
-    <row r="3" spans="2:15" s="38" customFormat="1">
+    <row r="3" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="139"/>
       <c r="C3" s="24" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5111,7 +4998,7 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="154"/>
       <c r="C4" s="155"/>
       <c r="D4" s="155"/>
@@ -5127,7 +5014,7 @@
       <c r="N4" s="155"/>
       <c r="O4" s="155"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="154"/>
       <c r="C5" s="155" t="s">
         <v>66</v>
@@ -5145,7 +5032,7 @@
       <c r="N5" s="155"/>
       <c r="O5" s="155"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="154"/>
       <c r="C6" s="155"/>
       <c r="D6" s="155"/>
@@ -5161,10 +5048,10 @@
       <c r="N6" s="155"/>
       <c r="O6" s="155"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="154"/>
       <c r="C7" s="155" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="155"/>
       <c r="E7" s="155"/>
@@ -5179,7 +5066,7 @@
       <c r="N7" s="155"/>
       <c r="O7" s="155"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="154"/>
       <c r="C8" s="155"/>
       <c r="D8" s="155"/>
@@ -5195,7 +5082,7 @@
       <c r="N8" s="155"/>
       <c r="O8" s="155"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="154"/>
       <c r="C9" s="155"/>
       <c r="D9" s="155"/>
@@ -5211,7 +5098,7 @@
       <c r="N9" s="155"/>
       <c r="O9" s="155"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="154"/>
       <c r="C10" s="155"/>
       <c r="D10" s="155"/>
@@ -5227,7 +5114,7 @@
       <c r="N10" s="155"/>
       <c r="O10" s="155"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="154"/>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -5243,7 +5130,7 @@
       <c r="N11" s="155"/>
       <c r="O11" s="155"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="154"/>
       <c r="C12" s="155"/>
       <c r="D12" s="155"/>
@@ -5259,7 +5146,7 @@
       <c r="N12" s="155"/>
       <c r="O12" s="155"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="154"/>
       <c r="C13" s="155"/>
       <c r="D13" s="155"/>
@@ -5275,7 +5162,7 @@
       <c r="N13" s="155"/>
       <c r="O13" s="155"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="154"/>
       <c r="C14" s="155"/>
       <c r="D14" s="155"/>
@@ -5291,7 +5178,7 @@
       <c r="N14" s="155"/>
       <c r="O14" s="155"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="154"/>
       <c r="C15" s="155"/>
       <c r="D15" s="155"/>
@@ -5307,7 +5194,7 @@
       <c r="N15" s="155"/>
       <c r="O15" s="155"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="154"/>
       <c r="C16" s="155"/>
       <c r="D16" s="155"/>
@@ -5323,7 +5210,7 @@
       <c r="N16" s="155"/>
       <c r="O16" s="155"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="154"/>
       <c r="C17" s="155"/>
       <c r="D17" s="155"/>
@@ -5339,7 +5226,7 @@
       <c r="N17" s="155"/>
       <c r="O17" s="155"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="154"/>
       <c r="C18" s="155"/>
       <c r="D18" s="155"/>
@@ -5355,7 +5242,7 @@
       <c r="N18" s="155"/>
       <c r="O18" s="155"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="154"/>
       <c r="C19" s="155"/>
       <c r="D19" s="155"/>
@@ -5371,7 +5258,7 @@
       <c r="N19" s="155"/>
       <c r="O19" s="155"/>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="154"/>
       <c r="C20" s="155"/>
       <c r="D20" s="155"/>
@@ -5387,7 +5274,7 @@
       <c r="N20" s="155"/>
       <c r="O20" s="155"/>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="154"/>
       <c r="C21" s="155"/>
       <c r="D21" s="155"/>
@@ -5403,14 +5290,14 @@
       <c r="N21" s="155"/>
       <c r="O21" s="155"/>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="154"/>
       <c r="C22" s="155"/>
       <c r="D22" s="155">
         <v>1400</v>
       </c>
       <c r="E22" s="155" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F22" s="155"/>
       <c r="G22" s="155"/>
@@ -5423,7 +5310,7 @@
       <c r="N22" s="155"/>
       <c r="O22" s="155"/>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="154"/>
       <c r="C23" s="155"/>
       <c r="D23" s="155"/>
@@ -5439,7 +5326,7 @@
       <c r="N23" s="155"/>
       <c r="O23" s="155"/>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="154"/>
       <c r="C24" s="155"/>
       <c r="D24" s="155"/>
@@ -5455,7 +5342,7 @@
       <c r="N24" s="155"/>
       <c r="O24" s="155"/>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="154"/>
       <c r="C25" s="155"/>
       <c r="D25" s="155"/>
@@ -5471,7 +5358,7 @@
       <c r="N25" s="155"/>
       <c r="O25" s="155"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="154"/>
       <c r="C26" s="155"/>
       <c r="D26" s="155"/>
@@ -5487,10 +5374,10 @@
       <c r="N26" s="155"/>
       <c r="O26" s="155"/>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="154"/>
       <c r="C27" s="155" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="155"/>
       <c r="E27" s="155"/>
@@ -5505,7 +5392,7 @@
       <c r="N27" s="155"/>
       <c r="O27" s="155"/>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="154"/>
       <c r="C28" s="155"/>
       <c r="D28" s="155"/>
@@ -5521,10 +5408,10 @@
       <c r="N28" s="155"/>
       <c r="O28" s="155"/>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="154"/>
       <c r="C29" s="155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
@@ -5539,7 +5426,7 @@
       <c r="N29" s="155"/>
       <c r="O29" s="155"/>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="154"/>
       <c r="C30" s="155"/>
       <c r="D30" s="155"/>
@@ -5555,7 +5442,7 @@
       <c r="N30" s="155"/>
       <c r="O30" s="155"/>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="154"/>
       <c r="C31" s="155"/>
       <c r="D31" s="155"/>
@@ -5571,7 +5458,7 @@
       <c r="N31" s="155"/>
       <c r="O31" s="155"/>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="154"/>
       <c r="C32" s="155"/>
       <c r="D32" s="155"/>
@@ -5587,7 +5474,7 @@
       <c r="N32" s="155"/>
       <c r="O32" s="155"/>
     </row>
-    <row r="33" spans="2:15">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="154"/>
       <c r="C33" s="155"/>
       <c r="D33" s="155"/>
@@ -5603,7 +5490,7 @@
       <c r="N33" s="155"/>
       <c r="O33" s="155"/>
     </row>
-    <row r="34" spans="2:15">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="154"/>
       <c r="C34" s="155" t="s">
         <v>1</v>
@@ -5612,7 +5499,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="155"/>
       <c r="H34" s="155"/>
@@ -5624,16 +5511,16 @@
       <c r="N34" s="155"/>
       <c r="O34" s="155"/>
     </row>
-    <row r="35" spans="2:15">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="154"/>
       <c r="C35" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="155">
         <v>40</v>
       </c>
       <c r="E35" s="155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="155"/>
       <c r="H35" s="155"/>
@@ -5645,7 +5532,7 @@
       <c r="N35" s="155"/>
       <c r="O35" s="155"/>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="154"/>
       <c r="C36" s="155"/>
       <c r="D36" s="155"/>
@@ -5661,7 +5548,7 @@
       <c r="N36" s="155"/>
       <c r="O36" s="155"/>
     </row>
-    <row r="37" spans="2:15">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="154"/>
       <c r="C37" s="155"/>
       <c r="D37" s="155"/>
@@ -5677,7 +5564,7 @@
       <c r="N37" s="155"/>
       <c r="O37" s="155"/>
     </row>
-    <row r="38" spans="2:15">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="154"/>
       <c r="C38" s="155"/>
       <c r="D38" s="155"/>
@@ -5693,7 +5580,7 @@
       <c r="N38" s="155"/>
       <c r="O38" s="155"/>
     </row>
-    <row r="39" spans="2:15">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="154"/>
       <c r="C39" s="155"/>
       <c r="D39" s="155"/>
@@ -5709,7 +5596,7 @@
       <c r="N39" s="155"/>
       <c r="O39" s="155"/>
     </row>
-    <row r="40" spans="2:15">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="154"/>
       <c r="C40" s="155"/>
       <c r="D40" s="155"/>
@@ -5725,7 +5612,7 @@
       <c r="N40" s="155"/>
       <c r="O40" s="155"/>
     </row>
-    <row r="41" spans="2:15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="154"/>
       <c r="C41" s="155"/>
       <c r="D41" s="155"/>
@@ -5741,7 +5628,7 @@
       <c r="N41" s="155"/>
       <c r="O41" s="155"/>
     </row>
-    <row r="42" spans="2:15">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B42" s="154"/>
       <c r="C42" s="155"/>
       <c r="D42" s="155"/>
@@ -5757,7 +5644,7 @@
       <c r="N42" s="155"/>
       <c r="O42" s="155"/>
     </row>
-    <row r="43" spans="2:15">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B43" s="154"/>
       <c r="C43" s="155"/>
       <c r="D43" s="155"/>
@@ -5773,7 +5660,7 @@
       <c r="N43" s="155"/>
       <c r="O43" s="155"/>
     </row>
-    <row r="44" spans="2:15">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="154"/>
       <c r="C44" s="155"/>
       <c r="D44" s="155"/>
@@ -5789,7 +5676,7 @@
       <c r="N44" s="155"/>
       <c r="O44" s="155"/>
     </row>
-    <row r="45" spans="2:15">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="154"/>
       <c r="C45" s="155"/>
       <c r="D45" s="155"/>
@@ -5805,7 +5692,7 @@
       <c r="N45" s="155"/>
       <c r="O45" s="155"/>
     </row>
-    <row r="46" spans="2:15">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="154"/>
       <c r="C46" s="155"/>
       <c r="D46" s="155"/>
@@ -5821,7 +5708,7 @@
       <c r="N46" s="155"/>
       <c r="O46" s="155"/>
     </row>
-    <row r="47" spans="2:15">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="154"/>
       <c r="C47" s="155" t="s">
         <v>26</v>
@@ -5839,10 +5726,10 @@
       <c r="N47" s="155"/>
       <c r="O47" s="155"/>
     </row>
-    <row r="48" spans="2:15">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B48" s="154"/>
       <c r="C48" s="155" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="155"/>
       <c r="E48" s="155"/>
@@ -5857,7 +5744,7 @@
       <c r="N48" s="155"/>
       <c r="O48" s="155"/>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B49" s="154"/>
       <c r="C49" s="155"/>
       <c r="D49" s="155"/>
@@ -5873,7 +5760,7 @@
       <c r="N49" s="155"/>
       <c r="O49" s="155"/>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="154"/>
       <c r="C50" s="155"/>
       <c r="D50" s="155"/>
@@ -5889,7 +5776,7 @@
       <c r="N50" s="155"/>
       <c r="O50" s="155"/>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="154"/>
       <c r="C51" s="155"/>
       <c r="D51" s="155"/>
@@ -5905,7 +5792,7 @@
       <c r="N51" s="155"/>
       <c r="O51" s="155"/>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="154"/>
       <c r="C52" s="155"/>
       <c r="D52" s="155"/>
@@ -5921,7 +5808,7 @@
       <c r="N52" s="155"/>
       <c r="O52" s="155"/>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="154"/>
       <c r="C53" s="155"/>
       <c r="D53" s="155"/>
@@ -5937,7 +5824,7 @@
       <c r="N53" s="155"/>
       <c r="O53" s="155"/>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="154"/>
       <c r="C54" s="155"/>
       <c r="D54" s="155"/>
@@ -5953,7 +5840,7 @@
       <c r="N54" s="155"/>
       <c r="O54" s="155"/>
     </row>
-    <row r="55" spans="2:15">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="154"/>
       <c r="C55" s="155"/>
       <c r="D55" s="155"/>
@@ -5969,16 +5856,16 @@
       <c r="N55" s="155"/>
       <c r="O55" s="155"/>
     </row>
-    <row r="56" spans="2:15">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B56" s="154"/>
       <c r="C56" s="155" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D56" s="158">
         <v>40</v>
       </c>
       <c r="E56" s="158" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="155"/>
       <c r="G56" s="155"/>
@@ -5991,7 +5878,7 @@
       <c r="N56" s="155"/>
       <c r="O56" s="155"/>
     </row>
-    <row r="57" spans="2:15">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B57" s="154"/>
       <c r="C57" s="155"/>
       <c r="D57" s="155"/>
@@ -6007,7 +5894,7 @@
       <c r="N57" s="155"/>
       <c r="O57" s="155"/>
     </row>
-    <row r="58" spans="2:15">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B58" s="154"/>
       <c r="C58" s="155"/>
       <c r="D58" s="155"/>
@@ -6023,7 +5910,7 @@
       <c r="N58" s="155"/>
       <c r="O58" s="155"/>
     </row>
-    <row r="59" spans="2:15">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B59" s="154"/>
       <c r="C59" s="155"/>
       <c r="D59" s="155"/>
@@ -6039,7 +5926,7 @@
       <c r="N59" s="155"/>
       <c r="O59" s="155"/>
     </row>
-    <row r="60" spans="2:15">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B60" s="154"/>
       <c r="C60" s="155"/>
       <c r="D60" s="155"/>
@@ -6055,10 +5942,10 @@
       <c r="N60" s="155"/>
       <c r="O60" s="155"/>
     </row>
-    <row r="61" spans="2:15">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B61" s="154"/>
       <c r="C61" s="155" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="155"/>
       <c r="E61" s="155"/>
@@ -6073,7 +5960,7 @@
       <c r="N61" s="155"/>
       <c r="O61" s="155"/>
     </row>
-    <row r="62" spans="2:15">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="154"/>
       <c r="C62" s="155"/>
       <c r="D62" s="155"/>
@@ -6089,7 +5976,7 @@
       <c r="N62" s="155"/>
       <c r="O62" s="155"/>
     </row>
-    <row r="63" spans="2:15">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="154"/>
       <c r="C63" s="155"/>
       <c r="D63" s="155"/>
@@ -6105,7 +5992,7 @@
       <c r="N63" s="155"/>
       <c r="O63" s="155"/>
     </row>
-    <row r="64" spans="2:15">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="154"/>
       <c r="C64" s="155"/>
       <c r="D64" s="155"/>
@@ -6121,7 +6008,7 @@
       <c r="N64" s="155"/>
       <c r="O64" s="155"/>
     </row>
-    <row r="65" spans="2:15">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="154"/>
       <c r="C65" s="155"/>
       <c r="D65" s="155"/>
@@ -6137,7 +6024,7 @@
       <c r="N65" s="155"/>
       <c r="O65" s="155"/>
     </row>
-    <row r="66" spans="2:15">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="154"/>
       <c r="C66" s="155"/>
       <c r="D66" s="155"/>
@@ -6153,7 +6040,7 @@
       <c r="N66" s="155"/>
       <c r="O66" s="155"/>
     </row>
-    <row r="67" spans="2:15">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="154"/>
       <c r="C67" s="155" t="s">
         <v>1</v>
@@ -6162,7 +6049,7 @@
         <v>4</v>
       </c>
       <c r="E67" s="155" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G67" s="155"/>
       <c r="H67" s="155"/>
@@ -6174,7 +6061,7 @@
       <c r="N67" s="155"/>
       <c r="O67" s="155"/>
     </row>
-    <row r="68" spans="2:15">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="154"/>
       <c r="C68" s="155"/>
       <c r="D68" s="155"/>
@@ -6190,7 +6077,7 @@
       <c r="N68" s="155"/>
       <c r="O68" s="155"/>
     </row>
-    <row r="69" spans="2:15">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B69" s="154"/>
       <c r="C69" s="155"/>
       <c r="D69" s="155"/>
@@ -6206,7 +6093,7 @@
       <c r="N69" s="155"/>
       <c r="O69" s="155"/>
     </row>
-    <row r="70" spans="2:15">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B70" s="154"/>
       <c r="C70" s="155"/>
       <c r="D70" s="155"/>
@@ -6222,7 +6109,7 @@
       <c r="N70" s="155"/>
       <c r="O70" s="155"/>
     </row>
-    <row r="71" spans="2:15">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B71" s="154"/>
       <c r="C71" s="155"/>
       <c r="D71" s="155"/>
@@ -6238,7 +6125,7 @@
       <c r="N71" s="155"/>
       <c r="O71" s="155"/>
     </row>
-    <row r="72" spans="2:15">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B72" s="154"/>
       <c r="C72" s="155"/>
       <c r="D72" s="155"/>
@@ -6254,7 +6141,7 @@
       <c r="N72" s="155"/>
       <c r="O72" s="155"/>
     </row>
-    <row r="73" spans="2:15" ht="16" thickBot="1">
+    <row r="73" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="156"/>
       <c r="C73" s="157"/>
       <c r="D73" s="157"/>
@@ -6273,10 +6160,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB3AE2-59D0-A148-928A-0619B76246CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="192">
   <si>
     <t>Source</t>
   </si>
@@ -271,9 +278,6 @@
   </si>
   <si>
     <t>FLH</t>
-  </si>
-  <si>
-    <t>GitHub Ticket</t>
   </si>
   <si>
     <t>Maasvlakte</t>
@@ -346,9 +350,6 @@
     <t xml:space="preserve">  Initial investment costs</t>
   </si>
   <si>
-    <t xml:space="preserve">         Initial investment costs</t>
-  </si>
-  <si>
     <t>https://github.com/quintel/etsource/issues/272#issuecomment-18286997</t>
   </si>
   <si>
@@ -573,31 +574,6 @@
     <t>Full load hours</t>
   </si>
   <si>
-    <r>
-      <t>Maasvlakte and  Eemshaven power coal plants are used for the calculation of land use. Dimensions are taken from</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -607,34 +583,9 @@
     <t>output.steam_hot_water</t>
   </si>
   <si>
-    <t>The documentation is based on the following assumptions:</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data from Energymatters report is used</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the calculations of ''energy_power_ultra_supercritical_coal'' plant</t>
-    </r>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -660,24 +611,6 @@
   </si>
   <si>
     <t>p.44</t>
-  </si>
-  <si>
-    <t>The calculations for the initial investment cost are described in detail in:</t>
-  </si>
-  <si>
-    <r>
-      <t>The calc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ulations for fixed and variable operating and maintenance costs are described in detail in:</t>
-    </r>
   </si>
   <si>
     <r>
@@ -776,9 +709,6 @@
     <t>2013</t>
   </si>
   <si>
-    <t>The  ''energy_chp_ultra_supercritical_coal'' plant  has slightly higher initiai investment and O&amp;M costs.</t>
-  </si>
-  <si>
     <t>ETM Library URL</t>
   </si>
   <si>
@@ -793,18 +723,172 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>MWe</t>
+  </si>
+  <si>
+    <t>Electrical output efficiency</t>
+  </si>
+  <si>
+    <t>Heat output efficiency</t>
+  </si>
+  <si>
+    <t>FLH as CHP</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Correction on Energymatters data</t>
+  </si>
+  <si>
+    <t>https://github.com/quintel/etdataset/issues/275</t>
+  </si>
+  <si>
+    <t>CHPs with steam cycle should have technical efficiencies instead of 'year-averaged' ones</t>
+  </si>
+  <si>
+    <t>The CHPs mentioned in #233 should just get technical efficiencies. Now that we use IEA statistics we have to let go of the concept of 'machine statistics and specs' and just look at the CHP as a simultaneous producer of power and heat. Any power produced when no heat is produced will come from a proper power plant.</t>
+  </si>
+  <si>
+    <t>The EnergyMatters specs were provided with a 'machine statistics' approach. The CHPs mentioned therefore have the wrong efficiencies.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Corrected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>El. efficiency</t>
+    </r>
+  </si>
+  <si>
+    <t>Agriculture: 20% / 85%</t>
+  </si>
+  <si>
+    <t>Corrected heat efficiency</t>
+  </si>
+  <si>
+    <t>Industry STAG: 42% / 40%</t>
+  </si>
+  <si>
+    <t>Small city heat: 20% / 75%</t>
+  </si>
+  <si>
+    <t>Large city heat STAG: 42% / 43%</t>
+  </si>
+  <si>
+    <t>p.5</t>
+  </si>
+  <si>
+    <t>Total O&amp;M cost</t>
+  </si>
+  <si>
+    <t>euro/yr</t>
+  </si>
+  <si>
+    <t>Fixed O&amp;M</t>
+  </si>
+  <si>
+    <t>Var O&amp;M</t>
+  </si>
+  <si>
+    <t>https://github.com/quintel/etsource/issues/272</t>
+  </si>
+  <si>
+    <t>EnergyMatters data requires some interpretation. We have settled on following the advice given in this comment from EnergyMatters specialist</t>
+  </si>
+  <si>
+    <t>https://github.com/quintel/etsource/issues/272#issuecomment-17880519</t>
+  </si>
+  <si>
+    <t>O&amp;M split fixed</t>
+  </si>
+  <si>
+    <t>Correspondence with EnergyMatters got the following reply from Peter Goudswaard:</t>
+  </si>
+  <si>
+    <t>O&amp;M split variable</t>
+  </si>
+  <si>
+    <t>De O&amp;M kosten van gasgestookte WKK zijn voor een groot deel variabel, maar dit verschilt wel per type. Je kunt uitgaan van:</t>
+  </si>
+  <si>
+    <t>Gasmotoren: 100% variabel</t>
+  </si>
+  <si>
+    <t>Gasturbine &amp; STEG:2/3 variabel; 1/3 vast</t>
+  </si>
+  <si>
+    <t>Voor biowkk’s hebben we dit in de tabel al opgesplitst</t>
+  </si>
+  <si>
+    <t>Voor kolencentrales en AVI’s is het grootste deel van de O&amp;M-kosten juist weer vast.</t>
+  </si>
+  <si>
+    <t>GitHub issue: https://github.com/quintel/etdataset/issues/275#issuecomment-27776298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Output electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Output steam hot water</t>
+  </si>
+  <si>
+    <t>kWe</t>
+  </si>
+  <si>
+    <t>New efficiencies are cited in this comment on GitHub: https://github.com/quintel/etdataset/issues/275#issuecomment-27776298</t>
+  </si>
+  <si>
+    <t>De rendementen van Coal en Waste blijven staan, want een hoger vermogen aan warmte is niet realistische vanwege de schaalgrootte</t>
+  </si>
+  <si>
+    <r>
+      <t>Maasvlakte and  Eemshaven power coal plants are used for the calculation of land use. Dimensions are taken from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>Also see: https://github.com/quintel/etsource/issues/272#issuecomment-18286997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Initial investment costs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -985,6 +1069,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1532,7 +1622,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1763,15 +1853,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1852,6 +1938,58 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="233">
@@ -2095,6 +2233,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2104,70 +2245,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect t="-1" b="2570"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4165600" y="1099318"/>
-          <a:ext cx="9410700" cy="3599682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1022722</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>946522</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>24608</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4553322" y="5207000"/>
-          <a:ext cx="10318378" cy="3555208"/>
+          <a:off x="4032622" y="14693900"/>
+          <a:ext cx="9124578" cy="4037808"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2180,24 +2290,30 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2218,24 +2334,30 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:srcRect b="14124"/>
         <a:stretch/>
       </xdr:blipFill>
@@ -2243,6 +2365,93 @@
         <a:xfrm>
           <a:off x="4559300" y="11861800"/>
           <a:ext cx="7785100" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>169522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6744CC1C-8235-BD41-887D-E97A40AA9916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect t="-16" b="15708"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="8046722"/>
+          <a:ext cx="9004300" cy="4327500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EC8169-6455-7749-842E-2A2E1BDE53D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="1041400"/>
+          <a:ext cx="9334500" cy="4152900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2688,13 +2897,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
@@ -2702,42 +2911,42 @@
     <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="41" customFormat="1">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>22</v>
@@ -2746,118 +2955,118 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="111" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" s="112"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="7"/>
       <c r="B10" s="113"/>
       <c r="C10" s="114"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="113" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="113"/>
       <c r="C12" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="113"/>
       <c r="C13" s="116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="113"/>
       <c r="C15" s="114"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="113" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="113"/>
       <c r="C17" s="118" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="113"/>
       <c r="C18" s="119" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="113"/>
       <c r="C19" s="120" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="121"/>
       <c r="C20" s="122" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="121"/>
       <c r="C21" s="123" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="121"/>
       <c r="C22" s="124" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="121"/>
       <c r="C23" s="125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2867,17 +3076,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
@@ -2892,7 +3101,7 @@
     <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -2902,49 +3111,49 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="173" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="171" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="173"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="174"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="176"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="181"/>
+    <row r="5" spans="2:11">
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="179"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
@@ -2954,7 +3163,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="27"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
@@ -2965,12 +3174,12 @@
       <c r="I7" s="26"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="139"/>
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
+      <c r="B8" s="137"/>
       <c r="C8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="138" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -2984,9 +3193,9 @@
       <c r="I8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="141"/>
-    </row>
-    <row r="9" spans="2:11" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J8" s="139"/>
+    </row>
+    <row r="9" spans="2:11" s="5" customFormat="1" ht="18">
       <c r="B9" s="37"/>
       <c r="C9" s="23"/>
       <c r="D9" s="45"/>
@@ -2997,10 +3206,10 @@
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="23"/>
@@ -3010,7 +3219,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="48" t="s">
         <v>37</v>
@@ -3018,8 +3227,9 @@
       <c r="D11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="49">
-        <v>0.3</v>
+      <c r="E11" s="53">
+        <f>'Research data'!G7/100</f>
+        <v>0.4</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -3029,16 +3239,17 @@
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="37"/>
-      <c r="C12" s="148" t="s">
-        <v>130</v>
+      <c r="C12" s="146" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="53">
-        <v>0.35</v>
+        <f>'Research data'!G8/100</f>
+        <v>0.15</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
@@ -3048,7 +3259,7 @@
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
         <v>39</v>
@@ -3065,10 +3276,10 @@
       <c r="I13" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="145"/>
+      <c r="J13" s="143"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="32"/>
       <c r="C14" s="48" t="s">
         <v>40</v>
@@ -3085,10 +3296,10 @@
       <c r="I14" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="145"/>
+      <c r="J14" s="143"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="32"/>
       <c r="C15" s="48" t="s">
         <v>42</v>
@@ -3105,10 +3316,10 @@
       <c r="I15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="145"/>
+      <c r="J15" s="143"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="32"/>
       <c r="C16" s="48" t="s">
         <v>11</v>
@@ -3125,10 +3336,10 @@
       <c r="I16" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="145"/>
+      <c r="J16" s="143"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="32"/>
       <c r="C17" s="47" t="s">
         <v>45</v>
@@ -3145,10 +3356,10 @@
       <c r="I17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="146"/>
+      <c r="J17" s="144"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>46</v>
@@ -3165,20 +3376,20 @@
       <c r="I18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="146"/>
+      <c r="J18" s="144"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="32"/>
       <c r="C19" s="48" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19" s="53">
-        <f>'Research data'!H6</f>
-        <v>17.36</v>
+        <f>'Research data'!G6</f>
+        <v>600</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="51" t="s">
@@ -3188,18 +3399,19 @@
       <c r="I19" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="145"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:11" ht="17" thickBot="1">
       <c r="B20" s="32"/>
       <c r="C20" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="53">
-        <v>20.254629629629601</v>
+        <f>E19*E12/E11</f>
+        <v>225</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="51" t="s">
@@ -3209,33 +3421,33 @@
       <c r="I20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="145"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J20" s="143"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="32"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="136"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="144"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="30"/>
       <c r="I21" s="30"/>
-      <c r="J21" s="145"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="143"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
       <c r="B22" s="32"/>
       <c r="C22" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="143"/>
-      <c r="E22" s="136"/>
+        <v>125</v>
+      </c>
+      <c r="D22" s="141"/>
+      <c r="E22" s="135"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="144"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="30"/>
       <c r="I22" s="30"/>
-      <c r="J22" s="145"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="143"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
         <v>49</v>
@@ -3244,8 +3456,8 @@
         <v>38</v>
       </c>
       <c r="E23" s="49">
-        <f>'Research data'!H14</f>
-        <v>29512000</v>
+        <f>'Research data'!G17</f>
+        <v>840000000</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="51" t="s">
@@ -3253,11 +3465,11 @@
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" s="147"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J23" s="145"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
         <v>50</v>
@@ -3276,9 +3488,9 @@
       <c r="I24" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="147"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="145"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="32"/>
       <c r="C25" s="48" t="s">
         <v>13</v>
@@ -3297,9 +3509,9 @@
       <c r="I25" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J25" s="145"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="143"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="32"/>
       <c r="C26" s="48" t="s">
         <v>51</v>
@@ -3318,9 +3530,9 @@
       <c r="I26" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="145"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="143"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>52</v>
@@ -3328,9 +3540,9 @@
       <c r="D27" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="135">
-        <f>'Research data'!H16</f>
-        <v>805504</v>
+      <c r="E27" s="134">
+        <f>'Research data'!G19</f>
+        <v>25600000</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="51" t="s">
@@ -3338,11 +3550,11 @@
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" s="145"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J27" s="143"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
         <v>53</v>
@@ -3351,8 +3563,8 @@
         <v>64</v>
       </c>
       <c r="E28" s="49">
-        <f>'Research data'!H18</f>
-        <v>38.19</v>
+        <f>'Research data'!G21</f>
+        <v>2844.44</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="51" t="s">
@@ -3360,11 +3572,11 @@
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J28" s="145"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J28" s="143"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
         <v>54</v>
@@ -3383,9 +3595,9 @@
       <c r="I29" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="145"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="143"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="32"/>
       <c r="C30" s="48" t="s">
         <v>57</v>
@@ -3394,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="53">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="51" t="s">
@@ -3404,9 +3616,9 @@
       <c r="I30" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J30" s="145"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="143"/>
+    </row>
+    <row r="31" spans="2:11" ht="17" thickBot="1">
       <c r="B31" s="32"/>
       <c r="C31" s="48" t="s">
         <v>44</v>
@@ -3423,33 +3635,33 @@
       <c r="I31" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="145"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J31" s="143"/>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" s="32"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="136"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
-      <c r="J32" s="145"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="143"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="32"/>
       <c r="C33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="143"/>
-      <c r="E33" s="136"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="30"/>
-      <c r="G33" s="144"/>
+      <c r="G33" s="142"/>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
-      <c r="J33" s="145"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J33" s="143"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
         <v>43</v>
@@ -3458,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="E34" s="49">
-        <f>'Research data'!H9</f>
+        <f>'Research data'!G12</f>
         <v>0.3</v>
       </c>
       <c r="F34" s="28"/>
@@ -3467,11 +3679,11 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="145"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="J34" s="143"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
         <v>55</v>
@@ -3480,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="49">
-        <f>'Research data'!H10</f>
+        <f>'Research data'!G13</f>
         <v>4</v>
       </c>
       <c r="F35" s="28"/>
@@ -3488,12 +3700,12 @@
         <v>30</v>
       </c>
       <c r="H35" s="28"/>
-      <c r="I35" s="160" t="s">
-        <v>146</v>
-      </c>
-      <c r="J35" s="145"/>
-    </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="158" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="143"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="32"/>
       <c r="C36" s="48" t="s">
         <v>56</v>
@@ -3502,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="49">
-        <f>'Research data'!H11</f>
+        <f>'Research data'!G14</f>
         <v>40</v>
       </c>
       <c r="F36" s="28"/>
@@ -3510,12 +3722,12 @@
         <v>29</v>
       </c>
       <c r="H36" s="28"/>
-      <c r="I36" s="160" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" s="145"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="158" t="s">
+        <v>139</v>
+      </c>
+      <c r="J36" s="143"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="32"/>
       <c r="C37" s="48" t="s">
         <v>41</v>
@@ -3532,9 +3744,9 @@
       <c r="I37" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J37" s="145"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J37" s="143"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
         <v>58</v>
@@ -3551,9 +3763,9 @@
       <c r="I38" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J38" s="145"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="143"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
         <v>14</v>
@@ -3570,9 +3782,9 @@
       <c r="I39" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J39" s="145"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="143"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
         <v>59</v>
@@ -3589,9 +3801,9 @@
       <c r="I40" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="145"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="143"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
         <v>61</v>
@@ -3608,9 +3820,9 @@
       <c r="I41" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="145"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="143"/>
+    </row>
+    <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
         <v>60</v>
@@ -3627,9 +3839,9 @@
       <c r="I42" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="145"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="143"/>
+    </row>
+    <row r="43" spans="2:10" ht="17" thickBot="1">
       <c r="B43" s="32"/>
       <c r="C43" s="48" t="s">
         <v>62</v>
@@ -3646,9 +3858,9 @@
       <c r="I43" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J43" s="145"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="143"/>
+    </row>
+    <row r="44" spans="2:10" ht="17" thickBot="1">
       <c r="B44" s="32"/>
       <c r="C44" s="48" t="s">
         <v>63</v>
@@ -3665,20 +3877,20 @@
       <c r="I44" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="145"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J44" s="143"/>
+    </row>
+    <row r="45" spans="2:10">
       <c r="B45" s="32"/>
       <c r="C45" s="48"/>
       <c r="D45" s="33"/>
-      <c r="E45" s="136"/>
+      <c r="E45" s="135"/>
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="145"/>
-    </row>
-    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="143"/>
+    </row>
+    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B46" s="34"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -3689,7 +3901,7 @@
       <c r="I46" s="35"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10">
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -3699,7 +3911,7 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -3709,49 +3921,49 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="B49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9">
       <c r="B50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -3761,7 +3973,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3771,7 +3983,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -3781,7 +3993,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
@@ -3791,7 +4003,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
@@ -3801,7 +4013,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
       <c r="D60" s="15"/>
@@ -3811,7 +4023,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
@@ -3821,7 +4033,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
@@ -3831,7 +4043,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9">
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
@@ -3841,7 +4053,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
@@ -3851,7 +4063,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9">
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
@@ -3861,7 +4073,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9">
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
       <c r="D66" s="15"/>
@@ -3871,7 +4083,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9">
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -3881,7 +4093,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9">
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -3901,17 +4113,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:T22"/>
+  <dimension ref="B1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
@@ -3919,25 +4131,24 @@
     <col min="4" max="4" width="16.5703125" style="54" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="54" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="81" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="81" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="81" customWidth="1"/>
-    <col min="13" max="13" width="2.85546875" style="81" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" style="81" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" style="54" customWidth="1"/>
-    <col min="16" max="16" width="10" style="81" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" style="81" customWidth="1"/>
-    <col min="18" max="18" width="10" style="81" customWidth="1"/>
-    <col min="19" max="19" width="2.85546875" style="54" customWidth="1"/>
-    <col min="20" max="20" width="73.85546875" style="54" customWidth="1"/>
-    <col min="21" max="16384" width="10.7109375" style="54"/>
+    <col min="7" max="7" width="12.42578125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="81" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="81" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="81" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="81" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="81" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" style="54" customWidth="1"/>
+    <col min="15" max="15" width="10" style="81" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="81" customWidth="1"/>
+    <col min="17" max="17" width="10" style="81" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="54" customWidth="1"/>
+    <col min="19" max="19" width="73.85546875" style="54" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:19" ht="17" thickBot="1"/>
+    <row r="2" spans="2:19">
       <c r="B2" s="55"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -3945,88 +4156,85 @@
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
       <c r="L2" s="82"/>
       <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="82"/>
       <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
+      <c r="R2" s="56"/>
       <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-    </row>
-    <row r="3" spans="2:20" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:19" s="38" customFormat="1">
       <c r="B3" s="37"/>
       <c r="C3" s="130" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="131" t="s">
+      <c r="G3" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131" t="s">
+      <c r="J3" s="131"/>
+      <c r="K3" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130" t="s">
+      <c r="L3" s="131"/>
+      <c r="M3" s="131" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="N3" s="130"/>
+      <c r="O3" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" s="57"/>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
       <c r="E4" s="83"/>
       <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="I4" s="132"/>
       <c r="J4" s="132"/>
       <c r="K4" s="132"/>
       <c r="L4" s="132"/>
       <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="132"/>
       <c r="P4" s="132"/>
       <c r="Q4" s="132"/>
       <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="2:19" ht="17" thickBot="1">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
       <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -4038,10 +4246,9 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="85"/>
-    </row>
-    <row r="6" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="85"/>
+    </row>
+    <row r="6" spans="2:19" ht="17" thickBot="1">
       <c r="B6" s="57"/>
       <c r="C6" s="86" t="s">
         <v>33</v>
@@ -4049,469 +4256,531 @@
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
       <c r="F6" s="126" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="134"/>
-      <c r="H6" s="88">
-        <f>ROUND(17.36,2)</f>
-        <v>17.36</v>
-      </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="90">
+        <v>111</v>
+      </c>
+      <c r="G6" s="88">
+        <f>I6</f>
         <v>600</v>
       </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90">
+        <f>Notes!E14</f>
+        <v>600</v>
+      </c>
+      <c r="J6" s="91"/>
       <c r="K6" s="91"/>
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="84"/>
-      <c r="T6" s="85"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="57"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="T7" s="133"/>
-    </row>
-    <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="T8" s="133"/>
-    </row>
-    <row r="9" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="84"/>
+      <c r="S6" s="189"/>
+    </row>
+    <row r="7" spans="2:19" s="181" customFormat="1" ht="17" thickBot="1">
+      <c r="B7" s="182"/>
+      <c r="C7" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="192"/>
+      <c r="F7" s="193" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="194">
+        <f>I7</f>
+        <v>40</v>
+      </c>
+      <c r="H7" s="195"/>
+      <c r="I7" s="194">
+        <f>Notes!E16</f>
+        <v>40</v>
+      </c>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="S7" s="189" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" s="181" customFormat="1" ht="17" thickBot="1">
+      <c r="B8" s="182"/>
+      <c r="C8" s="190" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="192"/>
+      <c r="F8" s="193" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="194">
+        <f>I8</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="195"/>
+      <c r="I8" s="194">
+        <f>Notes!E17</f>
+        <v>15</v>
+      </c>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="S8" s="189" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" s="57"/>
-      <c r="C9" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="87" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="99">
-        <f>ROUND(0.3,1)</f>
-        <v>0.3</v>
-      </c>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="95">
-        <f>568*594/1000000</f>
-        <v>0.33739200000000003</v>
-      </c>
-      <c r="R9" s="95">
-        <f>579*489/1000000</f>
-        <v>0.28313100000000002</v>
-      </c>
-      <c r="T9" s="138" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="84"/>
+      <c r="S9" s="189"/>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10" s="57"/>
-      <c r="C10" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="89"/>
-      <c r="H10" s="99">
-        <f>ROUND(4,0)</f>
-        <v>4</v>
-      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
       <c r="I10" s="94"/>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
-      <c r="L10" s="90">
-        <f>Notes!D67</f>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+    </row>
+    <row r="11" spans="2:19" ht="17" thickBot="1">
+      <c r="B11" s="57"/>
+      <c r="C11" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="S11" s="133"/>
+    </row>
+    <row r="12" spans="2:19" ht="17" thickBot="1">
+      <c r="B12" s="57"/>
+      <c r="C12" s="92" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="94"/>
-      <c r="N10" s="90">
-        <f>Notes!D34</f>
+      <c r="G12" s="99">
+        <f>ROUND(AVERAGE(O12,Q12),1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="95">
+        <f>568*594/1000000</f>
+        <v>0.33739200000000003</v>
+      </c>
+      <c r="Q12" s="95">
+        <f>579*489/1000000</f>
+        <v>0.28313100000000002</v>
+      </c>
+      <c r="S12" s="199" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="17" thickBot="1">
+      <c r="B13" s="57"/>
+      <c r="C13" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="198">
+        <f>K13</f>
         <v>4</v>
       </c>
-      <c r="O10" s="94"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="T10" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="100" t="s">
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="90">
+        <f>Notes!D113</f>
+        <v>4</v>
+      </c>
+      <c r="L13" s="94"/>
+      <c r="M13" s="90">
+        <f>Notes!D80</f>
+        <v>4</v>
+      </c>
+      <c r="N13" s="94"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="S13" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="17" thickBot="1">
+      <c r="B14" s="57"/>
+      <c r="C14" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="87" t="s">
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="89"/>
-      <c r="H11" s="101">
-        <f>ROUND(40,0)</f>
+      <c r="G14" s="101">
+        <f>K14</f>
         <v>40</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="90">
-        <f>Notes!D56</f>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="90">
+        <f>Notes!D102</f>
         <v>40</v>
       </c>
-      <c r="M11" s="94"/>
-      <c r="N11" s="90">
-        <f>Notes!D35</f>
+      <c r="L14" s="94"/>
+      <c r="M14" s="90">
+        <f>Notes!D81</f>
         <v>40</v>
       </c>
-      <c r="O11" s="94"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="T11" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="57"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="T12" s="85"/>
-    </row>
-    <row r="13" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="57"/>
-      <c r="C13" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
-      <c r="T13" s="149"/>
-    </row>
-    <row r="14" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="57"/>
-      <c r="C14" s="137" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="128"/>
-      <c r="H14" s="102">
-        <f>ROUND(H15*H6*1000,2)</f>
-        <v>29512000</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
       <c r="N14" s="94"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
-      <c r="T14" s="159" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="S14" s="50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="57"/>
-      <c r="C15" s="137" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="134"/>
-      <c r="H15" s="102">
-        <v>1700</v>
-      </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="109">
-        <f>Notes!D22</f>
-        <v>1400</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="97"/>
       <c r="P15" s="97"/>
       <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
-      <c r="T15" s="149" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="85"/>
+    </row>
+    <row r="16" spans="2:19" ht="17" thickBot="1">
       <c r="B16" s="57"/>
-      <c r="C16" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="128"/>
-      <c r="H16" s="105">
-        <f>ROUND(H17*1000*H6,2)</f>
-        <v>805504</v>
-      </c>
+      <c r="C16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="T16" s="159" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="S16" s="147"/>
+    </row>
+    <row r="17" spans="2:19" ht="17" thickBot="1">
       <c r="B17" s="57"/>
-      <c r="C17" s="137" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="105">
-        <v>46.4</v>
-      </c>
-      <c r="I17" s="20"/>
+      <c r="C17" s="136" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="198">
+        <f>ROUND(G18*G6*1000,0)</f>
+        <v>840000000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="94"/>
       <c r="K17" s="94"/>
       <c r="L17" s="94"/>
       <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="94"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="94"/>
-      <c r="T17" s="171" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="19"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="S17" s="157" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="17" thickBot="1">
       <c r="B18" s="57"/>
-      <c r="C18" s="150" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="87" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="102">
-        <f>ROUND(H20*H22/H21,2)</f>
-        <v>38.19</v>
-      </c>
-      <c r="I18" s="94"/>
+      <c r="C18" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="198">
+        <f>I18</f>
+        <v>1400</v>
+      </c>
+      <c r="H18" s="94"/>
+      <c r="I18" s="109">
+        <f>Notes!E15</f>
+        <v>1400</v>
+      </c>
       <c r="J18" s="94"/>
       <c r="K18" s="94"/>
       <c r="L18" s="94"/>
       <c r="M18" s="94"/>
       <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="T18" s="159" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="S18" s="147"/>
+    </row>
+    <row r="19" spans="2:19" ht="17" thickBot="1">
       <c r="B19" s="57"/>
-      <c r="C19" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="87" t="s">
+      <c r="C19" s="136" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="102">
-        <f>H18*H21</f>
-        <v>267330</v>
-      </c>
-      <c r="I19" s="94"/>
+      <c r="G19" s="201">
+        <f>I19</f>
+        <v>25600000</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="109">
+        <f>Notes!E50</f>
+        <v>25600000</v>
+      </c>
       <c r="J19" s="94"/>
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
       <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
+      <c r="N19" s="104"/>
       <c r="O19" s="94"/>
       <c r="P19" s="94"/>
       <c r="Q19" s="94"/>
-      <c r="R19" s="94"/>
-      <c r="T19" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="157"/>
+    </row>
+    <row r="20" spans="2:19" ht="17" thickBot="1">
       <c r="B20" s="57"/>
-      <c r="C20" s="137" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="126" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="102">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="C20" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="105">
+        <f>G19/(G6*1000)</f>
+        <v>42.666666666666664</v>
+      </c>
+      <c r="H20" s="20"/>
       <c r="I20" s="94"/>
       <c r="J20" s="94"/>
       <c r="K20" s="94"/>
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="94"/>
       <c r="P20" s="94"/>
       <c r="Q20" s="94"/>
-      <c r="R20" s="94"/>
-      <c r="T20" s="159" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="169"/>
+    </row>
+    <row r="21" spans="2:19" ht="17" thickBot="1">
       <c r="B21" s="57"/>
-      <c r="C21" s="137" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85" t="s">
+      <c r="C21" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="102">
+        <f>ROUND((G22/G24),2)</f>
+        <v>2844.44</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="S21" s="157"/>
+    </row>
+    <row r="22" spans="2:19" ht="17" thickBot="1">
+      <c r="B22" s="57"/>
+      <c r="C22" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="198">
+        <f>I22</f>
+        <v>12800000.000000002</v>
+      </c>
+      <c r="H22" s="94"/>
+      <c r="I22" s="90">
+        <f>Notes!E51</f>
+        <v>12800000.000000002</v>
+      </c>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="S22" s="50"/>
+    </row>
+    <row r="23" spans="2:19" ht="17" thickBot="1">
+      <c r="B23" s="57"/>
+      <c r="C23" s="136" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="102">
+        <f>ROUND((G21/G6),2)</f>
+        <v>4.74</v>
+      </c>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="S23" s="157"/>
+    </row>
+    <row r="24" spans="2:19" ht="17" thickBot="1">
+      <c r="B24" s="57"/>
+      <c r="C24" s="136" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="108">
-        <v>7000</v>
-      </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
-      <c r="T21" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="57"/>
-      <c r="C22" s="137" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="G22" s="114"/>
-      <c r="H22" s="108">
-        <f>H21*H6</f>
-        <v>121520</v>
-      </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
-      <c r="T22" s="85"/>
+      <c r="G24" s="197">
+        <f>I24</f>
+        <v>4500</v>
+      </c>
+      <c r="H24" s="58"/>
+      <c r="I24" s="90">
+        <f>Notes!E18</f>
+        <v>4500</v>
+      </c>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="S24" s="50"/>
+    </row>
+    <row r="25" spans="2:19" ht="17" thickBot="1">
+      <c r="B25" s="57"/>
+      <c r="C25" s="136" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="108">
+        <f>G24*G6</f>
+        <v>2700000</v>
+      </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="S25" s="85"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T21">
+  <conditionalFormatting sqref="S24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4522,10 +4791,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T11" r:id="rId1"/>
-    <hyperlink ref="T10" r:id="rId2"/>
-    <hyperlink ref="T21" r:id="rId3" location="issuecomment-18286997"/>
-    <hyperlink ref="T19" r:id="rId4" location="issuecomment-18286997"/>
+    <hyperlink ref="S14" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="S13" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4533,17 +4800,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J26"/>
+  <dimension ref="B1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="59" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
@@ -4556,8 +4823,8 @@
     <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
@@ -4568,7 +4835,7 @@
       <c r="I2" s="63"/>
       <c r="J2" s="62"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="64"/>
       <c r="C3" s="65" t="s">
         <v>24</v>
@@ -4581,7 +4848,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="67"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="64"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -4592,7 +4859,7 @@
       <c r="I4" s="68"/>
       <c r="J4" s="67"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
         <v>34</v>
@@ -4607,19 +4874,19 @@
         <v>35</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
@@ -4630,56 +4897,56 @@
       <c r="I6" s="66"/>
       <c r="J6" s="65"/>
     </row>
-    <row r="7" spans="2:10" s="151" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="154"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="162" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="163" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="165" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="164"/>
-      <c r="I7" s="172" t="s">
-        <v>157</v>
-      </c>
-      <c r="J7" s="162" t="s">
+    <row r="7" spans="2:10" s="149" customFormat="1" ht="34">
+      <c r="B7" s="152"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="160" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="161" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="163" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="162"/>
+      <c r="I7" s="170" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" s="151" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
-      <c r="C8" s="166" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="169"/>
-    </row>
-    <row r="9" spans="2:10" s="151" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="154"/>
-      <c r="C9" s="166" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="169"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="160" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" s="149" customFormat="1">
+      <c r="B8" s="152"/>
+      <c r="C8" s="164" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="160"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="167"/>
+    </row>
+    <row r="9" spans="2:10" s="149" customFormat="1">
+      <c r="B9" s="152"/>
+      <c r="C9" s="164" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="160"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="167"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="64"/>
       <c r="C10" s="75"/>
       <c r="D10" s="67"/>
@@ -4690,7 +4957,7 @@
       <c r="I10" s="68"/>
       <c r="J10" s="67"/>
     </row>
-    <row r="11" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="34">
       <c r="B11" s="64"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72" t="s">
@@ -4700,20 +4967,20 @@
         <v>25</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="170">
+        <v>79</v>
+      </c>
+      <c r="G11" s="168">
         <v>2010</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="78" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="64"/>
       <c r="C12" s="73" t="s">
         <v>1</v>
@@ -4726,7 +4993,7 @@
       <c r="I12" s="78"/>
       <c r="J12" s="72"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="64"/>
       <c r="C13" s="74" t="s">
         <v>6</v>
@@ -4739,7 +5006,7 @@
       <c r="I13" s="78"/>
       <c r="J13" s="72"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="64"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72" t="s">
@@ -4749,21 +5016,21 @@
         <v>10</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J14" s="79"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="64"/>
-      <c r="C15" s="75" t="s">
-        <v>91</v>
+      <c r="C15" s="202" t="s">
+        <v>191</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="67"/>
@@ -4773,9 +5040,11 @@
       <c r="I15" s="68"/>
       <c r="J15" s="72"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="B16" s="64"/>
-      <c r="C16" s="75"/>
+      <c r="C16" s="136" t="s">
+        <v>122</v>
+      </c>
       <c r="D16" s="72"/>
       <c r="E16" s="67"/>
       <c r="F16" s="67"/>
@@ -4784,42 +5053,36 @@
       <c r="I16" s="68"/>
       <c r="J16" s="72"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17" s="64"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72" t="s">
-        <v>81</v>
-      </c>
+      <c r="C17" s="148" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="72"/>
       <c r="E17" s="67"/>
-      <c r="F17" s="68">
-        <v>2013</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" s="68"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="68"/>
-      <c r="J17" s="79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="72"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="64"/>
-      <c r="C18" s="72" t="s">
-        <v>90</v>
+      <c r="C18" s="202" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
       <c r="I18" s="68"/>
       <c r="J18" s="72"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="64"/>
-      <c r="C19" s="75" t="s">
-        <v>93</v>
+      <c r="C19" s="192" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="67"/>
@@ -4829,163 +5092,238 @@
       <c r="I19" s="68"/>
       <c r="J19" s="72"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="64"/>
-      <c r="C20" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="80"/>
+      <c r="C20" s="190" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="72"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
       <c r="J20" s="72"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="64"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="80"/>
+      <c r="C21" s="190" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="72"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
       <c r="J21" s="72"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="64"/>
       <c r="C22" s="72"/>
-      <c r="D22" s="59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68">
+        <v>2013</v>
+      </c>
+      <c r="G22" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="79" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="64"/>
-      <c r="C23" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="80"/>
+      <c r="C23" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="72"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="72"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="64"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="80"/>
+      <c r="C24" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="72"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
       <c r="J24" s="72"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="B25" s="64"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>10</v>
-      </c>
+      <c r="C25" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="67"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="72"/>
       <c r="G25" s="72"/>
-      <c r="H25" s="72" t="s">
-        <v>86</v>
-      </c>
+      <c r="H25" s="72"/>
       <c r="I25" s="80"/>
-      <c r="J25" s="72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="64"/>
-      <c r="C26" s="75" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>83</v>
-      </c>
+      <c r="C26" s="203" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="67"/>
       <c r="E26" s="72"/>
       <c r="F26" s="72"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="80"/>
-      <c r="J26" s="72"/>
+      <c r="J26" s="180" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="64"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I27" s="80"/>
+      <c r="J27" s="72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="64"/>
+      <c r="C28" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="72"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="64"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="72"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="64"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="80"/>
+      <c r="J30" s="72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="64"/>
+      <c r="C31" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J17" r:id="rId1" location="issuecomment-18286997"/>
+    <hyperlink ref="J22" r:id="rId1" location="issuecomment-18286997" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="F11 F14:G14 F7:G7 G17" numberStoredAsText="1"/>
+    <ignoredError sqref="F11 F14:G14 F7:G7 G22" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:Q119"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5" style="151" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="151" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="151" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="151" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="151"/>
+    <col min="1" max="1" width="5" style="149" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="149" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="149" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="149" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="149"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="152"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-    </row>
-    <row r="3" spans="2:15" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="139"/>
+    <row r="1" spans="2:16" ht="17" thickBot="1"/>
+    <row r="2" spans="2:16">
+      <c r="B2" s="150"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+    </row>
+    <row r="3" spans="2:16" s="38" customFormat="1">
+      <c r="B3" s="137"/>
       <c r="C3" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -4998,1164 +5336,2037 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B5" s="154"/>
-      <c r="C5" s="155" t="s">
+    <row r="4" spans="2:16" s="181" customFormat="1">
+      <c r="B4" s="182"/>
+      <c r="C4" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="154"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="155"/>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B7" s="154"/>
-      <c r="C7" s="155" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="180"/>
+      <c r="I4" s="180"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="180"/>
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="183"/>
+    </row>
+    <row r="5" spans="2:16" s="181" customFormat="1">
+      <c r="B5" s="182"/>
+      <c r="C5" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="183"/>
+    </row>
+    <row r="6" spans="2:16" s="181" customFormat="1">
+      <c r="B6" s="182"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="180"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="180"/>
+      <c r="L6" s="180"/>
+      <c r="M6" s="180"/>
+      <c r="N6" s="180"/>
+      <c r="O6" s="180"/>
+      <c r="P6" s="183"/>
+    </row>
+    <row r="7" spans="2:16" s="181" customFormat="1">
+      <c r="B7" s="182"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="O7" s="180"/>
+      <c r="P7" s="183"/>
+    </row>
+    <row r="8" spans="2:16" s="181" customFormat="1">
+      <c r="B8" s="182"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="180"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="183"/>
+    </row>
+    <row r="9" spans="2:16" s="181" customFormat="1">
+      <c r="B9" s="182"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="180"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="183"/>
+    </row>
+    <row r="10" spans="2:16" s="181" customFormat="1">
+      <c r="B10" s="182"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
+      <c r="O10" s="180"/>
+      <c r="P10" s="183"/>
+    </row>
+    <row r="11" spans="2:16" s="181" customFormat="1">
+      <c r="B11" s="182"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="180"/>
+      <c r="M11" s="180"/>
+      <c r="N11" s="180"/>
+      <c r="O11" s="180"/>
+      <c r="P11" s="183"/>
+    </row>
+    <row r="12" spans="2:16" s="181" customFormat="1">
+      <c r="B12" s="182"/>
+      <c r="C12" s="180"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
+      <c r="O12" s="180"/>
+      <c r="P12" s="183"/>
+    </row>
+    <row r="13" spans="2:16" s="181" customFormat="1">
+      <c r="B13" s="182"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180">
+        <v>600000</v>
+      </c>
+      <c r="F13" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="180"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="183"/>
+    </row>
+    <row r="14" spans="2:16" s="181" customFormat="1">
+      <c r="B14" s="182"/>
+      <c r="C14" s="180"/>
+      <c r="E14" s="181">
+        <f>E13/1000</f>
+        <v>600</v>
+      </c>
+      <c r="F14" s="181" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="183"/>
+    </row>
+    <row r="15" spans="2:16" s="181" customFormat="1">
+      <c r="B15" s="182"/>
+      <c r="C15" s="180"/>
+      <c r="E15" s="180">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="180" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="180"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="180"/>
+      <c r="P15" s="183"/>
+    </row>
+    <row r="16" spans="2:16" s="181" customFormat="1">
+      <c r="B16" s="182"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="181" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="180">
+        <v>40</v>
+      </c>
+      <c r="F16" s="180" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="180"/>
+      <c r="P16" s="183"/>
+    </row>
+    <row r="17" spans="2:16" s="181" customFormat="1">
+      <c r="B17" s="182"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="181" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="180">
+        <v>15</v>
+      </c>
+      <c r="F17" s="180" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="183"/>
+    </row>
+    <row r="18" spans="2:16" s="181" customFormat="1">
+      <c r="B18" s="182"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="181" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="180">
+        <v>4500</v>
+      </c>
+      <c r="F18" s="180" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="183"/>
+    </row>
+    <row r="19" spans="2:16" s="181" customFormat="1">
+      <c r="B19" s="182"/>
+      <c r="C19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="180"/>
+      <c r="K19" s="180"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="180"/>
+      <c r="O19" s="180"/>
+      <c r="P19" s="183"/>
+    </row>
+    <row r="20" spans="2:16" s="181" customFormat="1">
+      <c r="B20" s="182"/>
+      <c r="C20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="180"/>
+      <c r="K20" s="180"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="180"/>
+      <c r="P20" s="183"/>
+    </row>
+    <row r="21" spans="2:16" s="181" customFormat="1">
+      <c r="B21" s="182"/>
+      <c r="C21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="183"/>
+    </row>
+    <row r="22" spans="2:16" s="181" customFormat="1">
+      <c r="B22" s="182"/>
+      <c r="C22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="180"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="180"/>
+      <c r="O22" s="180"/>
+      <c r="P22" s="183"/>
+    </row>
+    <row r="23" spans="2:16" s="181" customFormat="1">
+      <c r="B23" s="182"/>
+      <c r="C23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
+      <c r="K23" s="180"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="180"/>
+      <c r="O23" s="180"/>
+      <c r="P23" s="183"/>
+    </row>
+    <row r="24" spans="2:16" s="181" customFormat="1">
+      <c r="B24" s="182"/>
+      <c r="C24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
+      <c r="K24" s="180"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="180"/>
+      <c r="O24" s="180"/>
+      <c r="P24" s="183"/>
+    </row>
+    <row r="25" spans="2:16" s="181" customFormat="1">
+      <c r="B25" s="182"/>
+      <c r="C25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="183"/>
+    </row>
+    <row r="26" spans="2:16" s="181" customFormat="1">
+      <c r="B26" s="182"/>
+      <c r="C26" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
+      <c r="K26" s="180"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="180"/>
+      <c r="O26" s="180"/>
+      <c r="P26" s="183"/>
+    </row>
+    <row r="27" spans="2:16" s="181" customFormat="1">
+      <c r="B27" s="182"/>
+      <c r="C27" s="180" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="183"/>
+    </row>
+    <row r="28" spans="2:16" s="181" customFormat="1">
+      <c r="B28" s="182"/>
+      <c r="C28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="183"/>
+    </row>
+    <row r="29" spans="2:16" s="181" customFormat="1">
+      <c r="B29" s="182"/>
+      <c r="C29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="183"/>
+    </row>
+    <row r="30" spans="2:16" s="181" customFormat="1">
+      <c r="B30" s="182"/>
+      <c r="C30" s="180"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="183"/>
+    </row>
+    <row r="31" spans="2:16" s="181" customFormat="1">
+      <c r="B31" s="182"/>
+      <c r="C31" s="180"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="183"/>
+    </row>
+    <row r="32" spans="2:16" s="181" customFormat="1">
+      <c r="B32" s="182"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="180">
+        <v>40</v>
+      </c>
+      <c r="F32" s="180" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="184" t="s">
+        <v>162</v>
+      </c>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="183"/>
+    </row>
+    <row r="33" spans="2:16" s="181" customFormat="1">
+      <c r="B33" s="182"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="180">
+        <v>15</v>
+      </c>
+      <c r="F33" s="180" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="184" t="s">
+        <v>164</v>
+      </c>
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="183"/>
+    </row>
+    <row r="34" spans="2:16" s="181" customFormat="1">
+      <c r="B34" s="182"/>
+      <c r="C34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="G34" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="180"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="183"/>
+    </row>
+    <row r="35" spans="2:16" s="181" customFormat="1">
+      <c r="B35" s="182"/>
+      <c r="C35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="184" t="s">
+        <v>166</v>
+      </c>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="180"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="180"/>
+      <c r="O35" s="180"/>
+      <c r="P35" s="183"/>
+    </row>
+    <row r="36" spans="2:16" s="181" customFormat="1">
+      <c r="B36" s="182"/>
+      <c r="C36" s="180"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="180"/>
+      <c r="G36" s="180" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="180"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="180"/>
+      <c r="K36" s="180"/>
+      <c r="L36" s="180"/>
+      <c r="M36" s="180"/>
+      <c r="N36" s="180"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="183"/>
+    </row>
+    <row r="37" spans="2:16" s="181" customFormat="1">
+      <c r="B37" s="182"/>
+      <c r="C37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="180"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="180"/>
+      <c r="O37" s="180"/>
+      <c r="P37" s="183"/>
+    </row>
+    <row r="38" spans="2:16" s="181" customFormat="1">
+      <c r="B38" s="182"/>
+      <c r="C38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="180"/>
+      <c r="K38" s="180"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="180"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="183"/>
+    </row>
+    <row r="39" spans="2:16" s="181" customFormat="1">
+      <c r="B39" s="182"/>
+      <c r="C39" s="180"/>
+      <c r="E39" s="180"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="180"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="180"/>
+      <c r="J39" s="180"/>
+      <c r="K39" s="180"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="180"/>
+      <c r="O39" s="180"/>
+      <c r="P39" s="183"/>
+    </row>
+    <row r="40" spans="2:16" s="181" customFormat="1">
+      <c r="B40" s="182"/>
+      <c r="C40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
+      <c r="G40" s="180"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="180"/>
+      <c r="K40" s="180"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="180"/>
+      <c r="O40" s="180"/>
+      <c r="P40" s="183"/>
+    </row>
+    <row r="41" spans="2:16" s="181" customFormat="1">
+      <c r="B41" s="182"/>
+      <c r="C41" s="180" t="s">
+        <v>167</v>
+      </c>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="180"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
+      <c r="O41" s="180"/>
+      <c r="P41" s="183"/>
+    </row>
+    <row r="42" spans="2:16" s="181" customFormat="1">
+      <c r="B42" s="182"/>
+      <c r="C42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="180"/>
+      <c r="O42" s="180"/>
+      <c r="P42" s="183"/>
+    </row>
+    <row r="43" spans="2:16" s="181" customFormat="1">
+      <c r="B43" s="182"/>
+      <c r="C43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="180"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="180"/>
+      <c r="K43" s="180"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="180"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="183"/>
+    </row>
+    <row r="44" spans="2:16" s="181" customFormat="1">
+      <c r="B44" s="182"/>
+      <c r="C44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="180"/>
+      <c r="K44" s="180"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="180"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="183"/>
+    </row>
+    <row r="45" spans="2:16" s="181" customFormat="1">
+      <c r="B45" s="182"/>
+      <c r="C45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="180"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="180"/>
+      <c r="K45" s="180"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="180"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="183"/>
+    </row>
+    <row r="46" spans="2:16" s="181" customFormat="1">
+      <c r="B46" s="182"/>
+      <c r="C46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="180"/>
+      <c r="N46" s="180"/>
+      <c r="O46" s="180"/>
+      <c r="P46" s="183"/>
+    </row>
+    <row r="47" spans="2:16" s="181" customFormat="1">
+      <c r="B47" s="182"/>
+      <c r="C47" s="180"/>
+      <c r="E47" s="180"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="180"/>
+      <c r="H47" s="180"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="180"/>
+      <c r="K47" s="180"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="180"/>
+      <c r="N47" s="180"/>
+      <c r="O47" s="180"/>
+      <c r="P47" s="183"/>
+    </row>
+    <row r="48" spans="2:16" s="181" customFormat="1">
+      <c r="B48" s="182"/>
+      <c r="C48" s="180"/>
+      <c r="E48" s="180"/>
+      <c r="F48" s="180"/>
+      <c r="G48" s="180"/>
+      <c r="H48" s="180"/>
+      <c r="I48" s="180"/>
+      <c r="J48" s="180"/>
+      <c r="K48" s="180"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="180"/>
+      <c r="N48" s="180"/>
+      <c r="O48" s="180"/>
+      <c r="P48" s="183"/>
+    </row>
+    <row r="49" spans="2:16" s="181" customFormat="1">
+      <c r="B49" s="182"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="180" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="180">
+        <v>38400000</v>
+      </c>
+      <c r="F49" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="180"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="180"/>
+      <c r="J49" s="180"/>
+      <c r="K49" s="180"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="180"/>
+      <c r="N49" s="180"/>
+      <c r="O49" s="180"/>
+      <c r="P49" s="183"/>
+    </row>
+    <row r="50" spans="2:16" s="181" customFormat="1">
+      <c r="B50" s="182"/>
+      <c r="C50" s="180"/>
+      <c r="D50" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="200">
+        <f>E49*E64</f>
+        <v>25600000</v>
+      </c>
+      <c r="F50" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="180"/>
+      <c r="H50" s="180"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="180"/>
+      <c r="K50" s="180"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="180"/>
+      <c r="N50" s="180"/>
+      <c r="O50" s="180"/>
+      <c r="P50" s="183"/>
+    </row>
+    <row r="51" spans="2:16" s="181" customFormat="1">
+      <c r="B51" s="182"/>
+      <c r="C51" s="180"/>
+      <c r="D51" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="200">
+        <f>E49*E65</f>
+        <v>12800000.000000002</v>
+      </c>
+      <c r="F51" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="G51" s="180"/>
+      <c r="H51" s="180"/>
+      <c r="I51" s="180"/>
+      <c r="J51" s="180"/>
+      <c r="K51" s="180"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="180"/>
+      <c r="O51" s="180"/>
+      <c r="P51" s="183"/>
+    </row>
+    <row r="52" spans="2:16" s="181" customFormat="1">
+      <c r="B52" s="182"/>
+      <c r="C52" s="180"/>
+      <c r="E52" s="180"/>
+      <c r="F52" s="180"/>
+      <c r="G52" s="180"/>
+      <c r="H52" s="180"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="180"/>
+      <c r="K52" s="180"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="180"/>
+      <c r="O52" s="180"/>
+      <c r="P52" s="183"/>
+    </row>
+    <row r="53" spans="2:16" s="181" customFormat="1">
+      <c r="B53" s="182"/>
+      <c r="C53" s="180"/>
+      <c r="E53" s="180"/>
+      <c r="F53" s="180"/>
+      <c r="G53" s="180"/>
+      <c r="H53" s="180"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="180"/>
+      <c r="K53" s="180"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="180"/>
+      <c r="N53" s="180"/>
+      <c r="O53" s="180"/>
+      <c r="P53" s="183"/>
+    </row>
+    <row r="54" spans="2:16" s="181" customFormat="1">
+      <c r="B54" s="182"/>
+      <c r="C54" s="180"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="180"/>
+      <c r="G54" s="180"/>
+      <c r="H54" s="180"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="180"/>
+      <c r="K54" s="180"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="180"/>
+      <c r="N54" s="180"/>
+      <c r="O54" s="180"/>
+      <c r="P54" s="183"/>
+    </row>
+    <row r="55" spans="2:16" s="181" customFormat="1">
+      <c r="B55" s="182"/>
+      <c r="C55" s="180"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="180"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="180"/>
+      <c r="N55" s="180"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="183"/>
+    </row>
+    <row r="56" spans="2:16" s="181" customFormat="1">
+      <c r="B56" s="182"/>
+      <c r="C56" s="180"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="180"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="180"/>
+      <c r="N56" s="180"/>
+      <c r="O56" s="180"/>
+      <c r="P56" s="183"/>
+    </row>
+    <row r="57" spans="2:16" s="181" customFormat="1">
+      <c r="B57" s="182"/>
+      <c r="C57" s="180"/>
+      <c r="E57" s="180"/>
+      <c r="F57" s="180"/>
+      <c r="G57" s="180"/>
+      <c r="H57" s="180"/>
+      <c r="I57" s="180"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="180"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="180"/>
+      <c r="N57" s="180"/>
+      <c r="O57" s="180"/>
+      <c r="P57" s="183"/>
+    </row>
+    <row r="58" spans="2:16" s="181" customFormat="1">
+      <c r="B58" s="182"/>
+      <c r="C58" s="180"/>
+      <c r="E58" s="180"/>
+      <c r="F58" s="180"/>
+      <c r="G58" s="180"/>
+      <c r="H58" s="180"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="180"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="180"/>
+      <c r="N58" s="180"/>
+      <c r="O58" s="180"/>
+      <c r="P58" s="183"/>
+    </row>
+    <row r="59" spans="2:16" s="181" customFormat="1">
+      <c r="B59" s="182"/>
+      <c r="C59" s="180"/>
+      <c r="E59" s="180"/>
+      <c r="F59" s="180"/>
+      <c r="G59" s="180"/>
+      <c r="H59" s="180"/>
+      <c r="I59" s="180"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="180"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="180"/>
+      <c r="N59" s="180"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="183"/>
+    </row>
+    <row r="60" spans="2:16" s="181" customFormat="1">
+      <c r="B60" s="182"/>
+      <c r="C60" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="180"/>
+      <c r="F60" s="180"/>
+      <c r="G60" s="180"/>
+      <c r="H60" s="180"/>
+      <c r="I60" s="180"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="180"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="180"/>
+      <c r="N60" s="180"/>
+      <c r="O60" s="180"/>
+      <c r="P60" s="183"/>
+    </row>
+    <row r="61" spans="2:16" s="181" customFormat="1">
+      <c r="B61" s="182"/>
+      <c r="C61" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="H61" s="180"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="180"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="180"/>
+      <c r="N61" s="180"/>
+      <c r="O61" s="180"/>
+      <c r="P61" s="183"/>
+    </row>
+    <row r="62" spans="2:16" s="181" customFormat="1">
+      <c r="B62" s="182"/>
+      <c r="C62" s="180"/>
+      <c r="E62" s="180"/>
+      <c r="F62" s="180"/>
+      <c r="G62" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="H62" s="180"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="180"/>
+      <c r="L62" s="180"/>
+      <c r="M62" s="180"/>
+      <c r="N62" s="180"/>
+      <c r="O62" s="180"/>
+      <c r="P62" s="183"/>
+    </row>
+    <row r="63" spans="2:16" s="181" customFormat="1">
+      <c r="B63" s="182"/>
+      <c r="C63" s="180"/>
+      <c r="E63" s="180"/>
+      <c r="F63" s="180"/>
+      <c r="G63" s="180"/>
+      <c r="H63" s="180"/>
+      <c r="I63" s="180"/>
+      <c r="J63" s="180"/>
+      <c r="K63" s="180"/>
+      <c r="L63" s="180"/>
+      <c r="M63" s="180"/>
+      <c r="N63" s="180"/>
+      <c r="O63" s="180"/>
+      <c r="P63" s="183"/>
+    </row>
+    <row r="64" spans="2:16" s="181" customFormat="1">
+      <c r="B64" s="182"/>
+      <c r="C64" s="180"/>
+      <c r="D64" s="181" t="s">
+        <v>175</v>
+      </c>
+      <c r="E64" s="186">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F64" s="180"/>
+      <c r="G64" s="181" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="180"/>
+      <c r="I64" s="180"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="180"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="180"/>
+      <c r="N64" s="180"/>
+      <c r="O64" s="180"/>
+      <c r="P64" s="183"/>
+    </row>
+    <row r="65" spans="2:17" s="181" customFormat="1">
+      <c r="B65" s="182"/>
+      <c r="C65" s="180"/>
+      <c r="D65" s="181" t="s">
+        <v>177</v>
+      </c>
+      <c r="E65" s="186">
+        <f>1-E64</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F65" s="180"/>
+      <c r="G65" s="181" t="s">
+        <v>178</v>
+      </c>
+      <c r="H65" s="180"/>
+      <c r="I65" s="180"/>
+      <c r="J65" s="180"/>
+      <c r="K65" s="180"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="180"/>
+      <c r="N65" s="180"/>
+      <c r="O65" s="180"/>
+      <c r="P65" s="183"/>
+    </row>
+    <row r="66" spans="2:17" s="181" customFormat="1">
+      <c r="B66" s="182"/>
+      <c r="C66" s="180"/>
+      <c r="E66" s="180"/>
+      <c r="F66" s="180"/>
+      <c r="G66" s="187" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="180"/>
+      <c r="I66" s="180"/>
+      <c r="J66" s="180"/>
+      <c r="K66" s="180"/>
+      <c r="L66" s="180"/>
+      <c r="M66" s="180"/>
+      <c r="N66" s="180"/>
+      <c r="O66" s="180"/>
+      <c r="P66" s="183"/>
+      <c r="Q66" s="180"/>
+    </row>
+    <row r="67" spans="2:17" s="181" customFormat="1">
+      <c r="B67" s="182"/>
+      <c r="C67" s="180"/>
+      <c r="E67" s="180"/>
+      <c r="F67" s="180"/>
+      <c r="G67" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="H67" s="180"/>
+      <c r="I67" s="180"/>
+      <c r="J67" s="180"/>
+      <c r="K67" s="180"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="180"/>
+      <c r="N67" s="180"/>
+      <c r="O67" s="180"/>
+      <c r="P67" s="183"/>
+      <c r="Q67" s="180"/>
+    </row>
+    <row r="68" spans="2:17" s="181" customFormat="1">
+      <c r="B68" s="182"/>
+      <c r="C68" s="180"/>
+      <c r="E68" s="180"/>
+      <c r="F68" s="180"/>
+      <c r="G68" s="187" t="s">
+        <v>181</v>
+      </c>
+      <c r="H68" s="180"/>
+      <c r="I68" s="180"/>
+      <c r="J68" s="180"/>
+      <c r="K68" s="180"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="180"/>
+      <c r="N68" s="180"/>
+      <c r="O68" s="180"/>
+      <c r="P68" s="183"/>
+      <c r="Q68" s="180"/>
+    </row>
+    <row r="69" spans="2:17" s="181" customFormat="1">
+      <c r="B69" s="182"/>
+      <c r="C69" s="180"/>
+      <c r="E69" s="180"/>
+      <c r="F69" s="180"/>
+      <c r="G69" s="188" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="180"/>
+      <c r="I69" s="180"/>
+      <c r="J69" s="180"/>
+      <c r="K69" s="180"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="180"/>
+      <c r="N69" s="180"/>
+      <c r="O69" s="180"/>
+      <c r="P69" s="183"/>
+      <c r="Q69" s="180"/>
+    </row>
+    <row r="70" spans="2:17" s="181" customFormat="1">
+      <c r="B70" s="182"/>
+      <c r="C70" s="180"/>
+      <c r="E70" s="180"/>
+      <c r="F70" s="180"/>
+      <c r="G70" s="180" t="s">
+        <v>190</v>
+      </c>
+      <c r="H70" s="180"/>
+      <c r="I70" s="180"/>
+      <c r="J70" s="180"/>
+      <c r="K70" s="180"/>
+      <c r="L70" s="180"/>
+      <c r="M70" s="180"/>
+      <c r="N70" s="180"/>
+      <c r="O70" s="180"/>
+      <c r="P70" s="183"/>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="152"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="153"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="153"/>
+      <c r="M71" s="153"/>
+      <c r="N71" s="153"/>
+      <c r="O71" s="153"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="152"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
+      <c r="G72" s="153"/>
+      <c r="H72" s="153"/>
+      <c r="I72" s="153"/>
+      <c r="J72" s="153"/>
+      <c r="K72" s="153"/>
+      <c r="L72" s="153"/>
+      <c r="M72" s="153"/>
+      <c r="N72" s="153"/>
+      <c r="O72" s="153"/>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="152"/>
+      <c r="C73" s="153" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="153"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="153"/>
+      <c r="I73" s="153"/>
+      <c r="J73" s="153"/>
+      <c r="K73" s="153"/>
+      <c r="L73" s="153"/>
+      <c r="M73" s="153"/>
+      <c r="N73" s="153"/>
+      <c r="O73" s="153"/>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="152"/>
+      <c r="C74" s="153"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="153"/>
+      <c r="F74" s="153"/>
+      <c r="G74" s="153"/>
+      <c r="H74" s="153"/>
+      <c r="I74" s="153"/>
+      <c r="J74" s="153"/>
+      <c r="K74" s="153"/>
+      <c r="L74" s="153"/>
+      <c r="M74" s="153"/>
+      <c r="N74" s="153"/>
+      <c r="O74" s="153"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="152"/>
+      <c r="C75" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="153"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="153"/>
+      <c r="H75" s="153"/>
+      <c r="I75" s="153"/>
+      <c r="J75" s="153"/>
+      <c r="K75" s="153"/>
+      <c r="L75" s="153"/>
+      <c r="M75" s="153"/>
+      <c r="N75" s="153"/>
+      <c r="O75" s="153"/>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="152"/>
+      <c r="C76" s="153"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
+      <c r="G76" s="153"/>
+      <c r="H76" s="153"/>
+      <c r="I76" s="153"/>
+      <c r="J76" s="153"/>
+      <c r="K76" s="153"/>
+      <c r="L76" s="153"/>
+      <c r="M76" s="153"/>
+      <c r="N76" s="153"/>
+      <c r="O76" s="153"/>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="152"/>
+      <c r="C77" s="153"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="153"/>
+      <c r="G77" s="153"/>
+      <c r="H77" s="153"/>
+      <c r="I77" s="153"/>
+      <c r="J77" s="153"/>
+      <c r="K77" s="153"/>
+      <c r="L77" s="153"/>
+      <c r="M77" s="153"/>
+      <c r="N77" s="153"/>
+      <c r="O77" s="153"/>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="152"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="153"/>
+      <c r="G78" s="153"/>
+      <c r="H78" s="153"/>
+      <c r="I78" s="153"/>
+      <c r="J78" s="153"/>
+      <c r="K78" s="153"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="153"/>
+      <c r="N78" s="153"/>
+      <c r="O78" s="153"/>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="152"/>
+      <c r="C79" s="153"/>
+      <c r="D79" s="153"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="153"/>
+      <c r="G79" s="153"/>
+      <c r="H79" s="153"/>
+      <c r="I79" s="153"/>
+      <c r="J79" s="153"/>
+      <c r="K79" s="153"/>
+      <c r="L79" s="153"/>
+      <c r="M79" s="153"/>
+      <c r="N79" s="153"/>
+      <c r="O79" s="153"/>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="152"/>
+      <c r="C80" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="153">
+        <v>4</v>
+      </c>
+      <c r="E80" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="G80" s="153"/>
+      <c r="H80" s="153"/>
+      <c r="I80" s="153"/>
+      <c r="J80" s="153"/>
+      <c r="K80" s="153"/>
+      <c r="L80" s="153"/>
+      <c r="M80" s="153"/>
+      <c r="N80" s="153"/>
+      <c r="O80" s="153"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="152"/>
+      <c r="C81" s="153" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B8" s="154"/>
-      <c r="C8" s="155"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="155"/>
-      <c r="L8" s="155"/>
-      <c r="M8" s="155"/>
-      <c r="N8" s="155"/>
-      <c r="O8" s="155"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="155"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="155"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B12" s="154"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="155"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="155"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="154"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="155"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="155"/>
-      <c r="K14" s="155"/>
-      <c r="L14" s="155"/>
-      <c r="M14" s="155"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="155"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B15" s="154"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="155"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B16" s="154"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="155"/>
-      <c r="K16" s="155"/>
-      <c r="L16" s="155"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="155"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="154"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="155"/>
-      <c r="K17" s="155"/>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="155"/>
-      <c r="K19" s="155"/>
-      <c r="L19" s="155"/>
-      <c r="M19" s="155"/>
-      <c r="N19" s="155"/>
-      <c r="O19" s="155"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="155"/>
-      <c r="K20" s="155"/>
-      <c r="L20" s="155"/>
-      <c r="M20" s="155"/>
-      <c r="N20" s="155"/>
-      <c r="O20" s="155"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B21" s="154"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="155"/>
-      <c r="L21" s="155"/>
-      <c r="M21" s="155"/>
-      <c r="N21" s="155"/>
-      <c r="O21" s="155"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155">
-        <v>1400</v>
-      </c>
-      <c r="E22" s="155" t="s">
+      <c r="D81" s="153">
+        <v>40</v>
+      </c>
+      <c r="E81" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="153"/>
+      <c r="H81" s="153"/>
+      <c r="I81" s="153"/>
+      <c r="J81" s="153"/>
+      <c r="K81" s="153"/>
+      <c r="L81" s="153"/>
+      <c r="M81" s="153"/>
+      <c r="N81" s="153"/>
+      <c r="O81" s="153"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="152"/>
+      <c r="C82" s="153"/>
+      <c r="D82" s="153"/>
+      <c r="E82" s="153"/>
+      <c r="F82" s="153"/>
+      <c r="G82" s="153"/>
+      <c r="H82" s="153"/>
+      <c r="I82" s="153"/>
+      <c r="J82" s="153"/>
+      <c r="K82" s="153"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="153"/>
+      <c r="N82" s="153"/>
+      <c r="O82" s="153"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="152"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="153"/>
+      <c r="G83" s="153"/>
+      <c r="H83" s="153"/>
+      <c r="I83" s="153"/>
+      <c r="J83" s="153"/>
+      <c r="K83" s="153"/>
+      <c r="L83" s="153"/>
+      <c r="M83" s="153"/>
+      <c r="N83" s="153"/>
+      <c r="O83" s="153"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="152"/>
+      <c r="C84" s="153"/>
+      <c r="D84" s="153"/>
+      <c r="E84" s="153"/>
+      <c r="F84" s="153"/>
+      <c r="G84" s="153"/>
+      <c r="H84" s="153"/>
+      <c r="I84" s="153"/>
+      <c r="J84" s="153"/>
+      <c r="K84" s="153"/>
+      <c r="L84" s="153"/>
+      <c r="M84" s="153"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="153"/>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" s="152"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="153"/>
+      <c r="E85" s="153"/>
+      <c r="F85" s="153"/>
+      <c r="G85" s="153"/>
+      <c r="H85" s="153"/>
+      <c r="I85" s="153"/>
+      <c r="J85" s="153"/>
+      <c r="K85" s="153"/>
+      <c r="L85" s="153"/>
+      <c r="M85" s="153"/>
+      <c r="N85" s="153"/>
+      <c r="O85" s="153"/>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" s="152"/>
+      <c r="C86" s="153"/>
+      <c r="D86" s="153"/>
+      <c r="E86" s="153"/>
+      <c r="F86" s="153"/>
+      <c r="G86" s="153"/>
+      <c r="H86" s="153"/>
+      <c r="I86" s="153"/>
+      <c r="J86" s="153"/>
+      <c r="K86" s="153"/>
+      <c r="L86" s="153"/>
+      <c r="M86" s="153"/>
+      <c r="N86" s="153"/>
+      <c r="O86" s="153"/>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="152"/>
+      <c r="C87" s="153"/>
+      <c r="D87" s="153"/>
+      <c r="E87" s="153"/>
+      <c r="F87" s="153"/>
+      <c r="G87" s="153"/>
+      <c r="H87" s="153"/>
+      <c r="I87" s="153"/>
+      <c r="J87" s="153"/>
+      <c r="K87" s="153"/>
+      <c r="L87" s="153"/>
+      <c r="M87" s="153"/>
+      <c r="N87" s="153"/>
+      <c r="O87" s="153"/>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="152"/>
+      <c r="C88" s="153"/>
+      <c r="D88" s="153"/>
+      <c r="E88" s="153"/>
+      <c r="F88" s="153"/>
+      <c r="G88" s="153"/>
+      <c r="H88" s="153"/>
+      <c r="I88" s="153"/>
+      <c r="J88" s="153"/>
+      <c r="K88" s="153"/>
+      <c r="L88" s="153"/>
+      <c r="M88" s="153"/>
+      <c r="N88" s="153"/>
+      <c r="O88" s="153"/>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="152"/>
+      <c r="C89" s="153"/>
+      <c r="D89" s="153"/>
+      <c r="E89" s="153"/>
+      <c r="F89" s="153"/>
+      <c r="G89" s="153"/>
+      <c r="H89" s="153"/>
+      <c r="I89" s="153"/>
+      <c r="J89" s="153"/>
+      <c r="K89" s="153"/>
+      <c r="L89" s="153"/>
+      <c r="M89" s="153"/>
+      <c r="N89" s="153"/>
+      <c r="O89" s="153"/>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="152"/>
+      <c r="C90" s="153"/>
+      <c r="D90" s="153"/>
+      <c r="E90" s="153"/>
+      <c r="F90" s="153"/>
+      <c r="G90" s="153"/>
+      <c r="H90" s="153"/>
+      <c r="I90" s="153"/>
+      <c r="J90" s="153"/>
+      <c r="K90" s="153"/>
+      <c r="L90" s="153"/>
+      <c r="M90" s="153"/>
+      <c r="N90" s="153"/>
+      <c r="O90" s="153"/>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="152"/>
+      <c r="C91" s="153"/>
+      <c r="D91" s="153"/>
+      <c r="E91" s="153"/>
+      <c r="F91" s="153"/>
+      <c r="G91" s="153"/>
+      <c r="H91" s="153"/>
+      <c r="I91" s="153"/>
+      <c r="J91" s="153"/>
+      <c r="K91" s="153"/>
+      <c r="L91" s="153"/>
+      <c r="M91" s="153"/>
+      <c r="N91" s="153"/>
+      <c r="O91" s="153"/>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="152"/>
+      <c r="C92" s="153"/>
+      <c r="D92" s="153"/>
+      <c r="E92" s="153"/>
+      <c r="F92" s="153"/>
+      <c r="G92" s="153"/>
+      <c r="H92" s="153"/>
+      <c r="I92" s="153"/>
+      <c r="J92" s="153"/>
+      <c r="K92" s="153"/>
+      <c r="L92" s="153"/>
+      <c r="M92" s="153"/>
+      <c r="N92" s="153"/>
+      <c r="O92" s="153"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="152"/>
+      <c r="C93" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="153"/>
+      <c r="E93" s="153"/>
+      <c r="F93" s="153"/>
+      <c r="G93" s="153"/>
+      <c r="H93" s="153"/>
+      <c r="I93" s="153"/>
+      <c r="J93" s="153"/>
+      <c r="K93" s="153"/>
+      <c r="L93" s="153"/>
+      <c r="M93" s="153"/>
+      <c r="N93" s="153"/>
+      <c r="O93" s="153"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="152"/>
+      <c r="C94" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="155"/>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="155"/>
-      <c r="L24" s="155"/>
-      <c r="M24" s="155"/>
-      <c r="N24" s="155"/>
-      <c r="O24" s="155"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
-      <c r="L25" s="155"/>
-      <c r="M25" s="155"/>
-      <c r="N25" s="155"/>
-      <c r="O25" s="155"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
-      <c r="N26" s="155"/>
-      <c r="O26" s="155"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" s="154"/>
-      <c r="C27" s="155" t="s">
+      <c r="D94" s="153"/>
+      <c r="E94" s="153"/>
+      <c r="F94" s="153"/>
+      <c r="G94" s="153"/>
+      <c r="H94" s="153"/>
+      <c r="I94" s="153"/>
+      <c r="J94" s="153"/>
+      <c r="K94" s="153"/>
+      <c r="L94" s="153"/>
+      <c r="M94" s="153"/>
+      <c r="N94" s="153"/>
+      <c r="O94" s="153"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="152"/>
+      <c r="C95" s="153"/>
+      <c r="D95" s="153"/>
+      <c r="E95" s="153"/>
+      <c r="F95" s="153"/>
+      <c r="G95" s="153"/>
+      <c r="H95" s="153"/>
+      <c r="I95" s="153"/>
+      <c r="J95" s="153"/>
+      <c r="K95" s="153"/>
+      <c r="L95" s="153"/>
+      <c r="M95" s="153"/>
+      <c r="N95" s="153"/>
+      <c r="O95" s="153"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="152"/>
+      <c r="C96" s="153"/>
+      <c r="D96" s="153"/>
+      <c r="E96" s="153"/>
+      <c r="F96" s="153"/>
+      <c r="G96" s="153"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="153"/>
+      <c r="J96" s="153"/>
+      <c r="K96" s="153"/>
+      <c r="L96" s="153"/>
+      <c r="M96" s="153"/>
+      <c r="N96" s="153"/>
+      <c r="O96" s="153"/>
+    </row>
+    <row r="97" spans="2:15">
+      <c r="B97" s="152"/>
+      <c r="C97" s="153"/>
+      <c r="D97" s="153"/>
+      <c r="E97" s="153"/>
+      <c r="F97" s="153"/>
+      <c r="G97" s="153"/>
+      <c r="H97" s="153"/>
+      <c r="I97" s="153"/>
+      <c r="J97" s="153"/>
+      <c r="K97" s="153"/>
+      <c r="L97" s="153"/>
+      <c r="M97" s="153"/>
+      <c r="N97" s="153"/>
+      <c r="O97" s="153"/>
+    </row>
+    <row r="98" spans="2:15">
+      <c r="B98" s="152"/>
+      <c r="C98" s="153"/>
+      <c r="D98" s="153"/>
+      <c r="E98" s="153"/>
+      <c r="F98" s="153"/>
+      <c r="G98" s="153"/>
+      <c r="H98" s="153"/>
+      <c r="I98" s="153"/>
+      <c r="J98" s="153"/>
+      <c r="K98" s="153"/>
+      <c r="L98" s="153"/>
+      <c r="M98" s="153"/>
+      <c r="N98" s="153"/>
+      <c r="O98" s="153"/>
+    </row>
+    <row r="99" spans="2:15">
+      <c r="B99" s="152"/>
+      <c r="C99" s="153"/>
+      <c r="D99" s="153"/>
+      <c r="E99" s="153"/>
+      <c r="F99" s="153"/>
+      <c r="G99" s="153"/>
+      <c r="H99" s="153"/>
+      <c r="I99" s="153"/>
+      <c r="J99" s="153"/>
+      <c r="K99" s="153"/>
+      <c r="L99" s="153"/>
+      <c r="M99" s="153"/>
+      <c r="N99" s="153"/>
+      <c r="O99" s="153"/>
+    </row>
+    <row r="100" spans="2:15">
+      <c r="B100" s="152"/>
+      <c r="C100" s="153"/>
+      <c r="D100" s="153"/>
+      <c r="E100" s="153"/>
+      <c r="F100" s="153"/>
+      <c r="G100" s="153"/>
+      <c r="H100" s="153"/>
+      <c r="I100" s="153"/>
+      <c r="J100" s="153"/>
+      <c r="K100" s="153"/>
+      <c r="L100" s="153"/>
+      <c r="M100" s="153"/>
+      <c r="N100" s="153"/>
+      <c r="O100" s="153"/>
+    </row>
+    <row r="101" spans="2:15">
+      <c r="B101" s="152"/>
+      <c r="C101" s="153"/>
+      <c r="D101" s="153"/>
+      <c r="E101" s="153"/>
+      <c r="F101" s="153"/>
+      <c r="G101" s="153"/>
+      <c r="H101" s="153"/>
+      <c r="I101" s="153"/>
+      <c r="J101" s="153"/>
+      <c r="K101" s="153"/>
+      <c r="L101" s="153"/>
+      <c r="M101" s="153"/>
+      <c r="N101" s="153"/>
+      <c r="O101" s="153"/>
+    </row>
+    <row r="102" spans="2:15">
+      <c r="B102" s="152"/>
+      <c r="C102" s="153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="156">
+        <v>40</v>
+      </c>
+      <c r="E102" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="F102" s="153"/>
+      <c r="G102" s="153"/>
+      <c r="H102" s="153"/>
+      <c r="I102" s="153"/>
+      <c r="J102" s="153"/>
+      <c r="K102" s="153"/>
+      <c r="L102" s="153"/>
+      <c r="M102" s="153"/>
+      <c r="N102" s="153"/>
+      <c r="O102" s="153"/>
+    </row>
+    <row r="103" spans="2:15">
+      <c r="B103" s="152"/>
+      <c r="C103" s="153"/>
+      <c r="D103" s="153"/>
+      <c r="E103" s="153"/>
+      <c r="F103" s="153"/>
+      <c r="G103" s="153"/>
+      <c r="H103" s="153"/>
+      <c r="I103" s="153"/>
+      <c r="J103" s="153"/>
+      <c r="K103" s="153"/>
+      <c r="L103" s="153"/>
+      <c r="M103" s="153"/>
+      <c r="N103" s="153"/>
+      <c r="O103" s="153"/>
+    </row>
+    <row r="104" spans="2:15">
+      <c r="B104" s="152"/>
+      <c r="C104" s="153"/>
+      <c r="D104" s="153"/>
+      <c r="E104" s="153"/>
+      <c r="F104" s="153"/>
+      <c r="G104" s="153"/>
+      <c r="H104" s="153"/>
+      <c r="I104" s="153"/>
+      <c r="J104" s="153"/>
+      <c r="K104" s="153"/>
+      <c r="L104" s="153"/>
+      <c r="M104" s="153"/>
+      <c r="N104" s="153"/>
+      <c r="O104" s="153"/>
+    </row>
+    <row r="105" spans="2:15">
+      <c r="B105" s="152"/>
+      <c r="C105" s="153"/>
+      <c r="D105" s="153"/>
+      <c r="E105" s="153"/>
+      <c r="F105" s="153"/>
+      <c r="G105" s="153"/>
+      <c r="H105" s="153"/>
+      <c r="I105" s="153"/>
+      <c r="J105" s="153"/>
+      <c r="K105" s="153"/>
+      <c r="L105" s="153"/>
+      <c r="M105" s="153"/>
+      <c r="N105" s="153"/>
+      <c r="O105" s="153"/>
+    </row>
+    <row r="106" spans="2:15">
+      <c r="B106" s="152"/>
+      <c r="C106" s="153"/>
+      <c r="D106" s="153"/>
+      <c r="E106" s="153"/>
+      <c r="F106" s="153"/>
+      <c r="G106" s="153"/>
+      <c r="H106" s="153"/>
+      <c r="I106" s="153"/>
+      <c r="J106" s="153"/>
+      <c r="K106" s="153"/>
+      <c r="L106" s="153"/>
+      <c r="M106" s="153"/>
+      <c r="N106" s="153"/>
+      <c r="O106" s="153"/>
+    </row>
+    <row r="107" spans="2:15">
+      <c r="B107" s="152"/>
+      <c r="C107" s="153" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="155"/>
-      <c r="L28" s="155"/>
-      <c r="M28" s="155"/>
-      <c r="N28" s="155"/>
-      <c r="O28" s="155"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="154"/>
-      <c r="C29" s="155" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="155"/>
-      <c r="L29" s="155"/>
-      <c r="M29" s="155"/>
-      <c r="N29" s="155"/>
-      <c r="O29" s="155"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="155"/>
-      <c r="L30" s="155"/>
-      <c r="M30" s="155"/>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155"/>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B31" s="154"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="155"/>
-      <c r="L31" s="155"/>
-      <c r="M31" s="155"/>
-      <c r="N31" s="155"/>
-      <c r="O31" s="155"/>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="155"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="155"/>
-      <c r="K33" s="155"/>
-      <c r="L33" s="155"/>
-      <c r="M33" s="155"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="155"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="154"/>
-      <c r="C34" s="155" t="s">
+      <c r="D107" s="153"/>
+      <c r="E107" s="153"/>
+      <c r="F107" s="153"/>
+      <c r="G107" s="153"/>
+      <c r="H107" s="153"/>
+      <c r="I107" s="153"/>
+      <c r="J107" s="153"/>
+      <c r="K107" s="153"/>
+      <c r="L107" s="153"/>
+      <c r="M107" s="153"/>
+      <c r="N107" s="153"/>
+      <c r="O107" s="153"/>
+    </row>
+    <row r="108" spans="2:15">
+      <c r="B108" s="152"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="153"/>
+      <c r="F108" s="153"/>
+      <c r="G108" s="153"/>
+      <c r="H108" s="153"/>
+      <c r="I108" s="153"/>
+      <c r="J108" s="153"/>
+      <c r="K108" s="153"/>
+      <c r="L108" s="153"/>
+      <c r="M108" s="153"/>
+      <c r="N108" s="153"/>
+      <c r="O108" s="153"/>
+    </row>
+    <row r="109" spans="2:15">
+      <c r="B109" s="152"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="153"/>
+      <c r="E109" s="153"/>
+      <c r="F109" s="153"/>
+      <c r="G109" s="153"/>
+      <c r="H109" s="153"/>
+      <c r="I109" s="153"/>
+      <c r="J109" s="153"/>
+      <c r="K109" s="153"/>
+      <c r="L109" s="153"/>
+      <c r="M109" s="153"/>
+      <c r="N109" s="153"/>
+      <c r="O109" s="153"/>
+    </row>
+    <row r="110" spans="2:15">
+      <c r="B110" s="152"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="153"/>
+      <c r="E110" s="153"/>
+      <c r="F110" s="153"/>
+      <c r="G110" s="153"/>
+      <c r="H110" s="153"/>
+      <c r="I110" s="153"/>
+      <c r="J110" s="153"/>
+      <c r="K110" s="153"/>
+      <c r="L110" s="153"/>
+      <c r="M110" s="153"/>
+      <c r="N110" s="153"/>
+      <c r="O110" s="153"/>
+    </row>
+    <row r="111" spans="2:15">
+      <c r="B111" s="152"/>
+      <c r="C111" s="153"/>
+      <c r="D111" s="153"/>
+      <c r="E111" s="153"/>
+      <c r="F111" s="153"/>
+      <c r="G111" s="153"/>
+      <c r="H111" s="153"/>
+      <c r="I111" s="153"/>
+      <c r="J111" s="153"/>
+      <c r="K111" s="153"/>
+      <c r="L111" s="153"/>
+      <c r="M111" s="153"/>
+      <c r="N111" s="153"/>
+      <c r="O111" s="153"/>
+    </row>
+    <row r="112" spans="2:15">
+      <c r="B112" s="152"/>
+      <c r="C112" s="153"/>
+      <c r="D112" s="153"/>
+      <c r="E112" s="153"/>
+      <c r="F112" s="153"/>
+      <c r="G112" s="153"/>
+      <c r="H112" s="153"/>
+      <c r="I112" s="153"/>
+      <c r="J112" s="153"/>
+      <c r="K112" s="153"/>
+      <c r="L112" s="153"/>
+      <c r="M112" s="153"/>
+      <c r="N112" s="153"/>
+      <c r="O112" s="153"/>
+    </row>
+    <row r="113" spans="2:15">
+      <c r="B113" s="152"/>
+      <c r="C113" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="155">
+      <c r="D113" s="153">
         <v>4</v>
       </c>
-      <c r="E34" s="155" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="155"/>
-      <c r="H34" s="155"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="155"/>
-      <c r="L34" s="155"/>
-      <c r="M34" s="155"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="155"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="154"/>
-      <c r="C35" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="155">
-        <v>40</v>
-      </c>
-      <c r="E35" s="155" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="155"/>
-      <c r="K35" s="155"/>
-      <c r="L35" s="155"/>
-      <c r="M35" s="155"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="155"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B36" s="154"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-      <c r="L36" s="155"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="155"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="154"/>
-      <c r="C37" s="155"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="155"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="155"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="155"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="155"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="154"/>
-      <c r="C38" s="155"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="155"/>
-      <c r="G38" s="155"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="155"/>
-      <c r="L38" s="155"/>
-      <c r="M38" s="155"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="155"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="154"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="155"/>
-      <c r="K39" s="155"/>
-      <c r="L39" s="155"/>
-      <c r="M39" s="155"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="155"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" s="154"/>
-      <c r="C40" s="155"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="155"/>
-      <c r="G40" s="155"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
-      <c r="K40" s="155"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="155"/>
-      <c r="N40" s="155"/>
-      <c r="O40" s="155"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B41" s="154"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="155"/>
-      <c r="G41" s="155"/>
-      <c r="H41" s="155"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="155"/>
-      <c r="K41" s="155"/>
-      <c r="L41" s="155"/>
-      <c r="M41" s="155"/>
-      <c r="N41" s="155"/>
-      <c r="O41" s="155"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="154"/>
-      <c r="C42" s="155"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="155"/>
-      <c r="G42" s="155"/>
-      <c r="H42" s="155"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="155"/>
-      <c r="K42" s="155"/>
-      <c r="L42" s="155"/>
-      <c r="M42" s="155"/>
-      <c r="N42" s="155"/>
-      <c r="O42" s="155"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="154"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="155"/>
-      <c r="G43" s="155"/>
-      <c r="H43" s="155"/>
-      <c r="I43" s="155"/>
-      <c r="J43" s="155"/>
-      <c r="K43" s="155"/>
-      <c r="L43" s="155"/>
-      <c r="M43" s="155"/>
-      <c r="N43" s="155"/>
-      <c r="O43" s="155"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B44" s="154"/>
-      <c r="C44" s="155"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="155"/>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="155"/>
-      <c r="K44" s="155"/>
-      <c r="L44" s="155"/>
-      <c r="M44" s="155"/>
-      <c r="N44" s="155"/>
-      <c r="O44" s="155"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" s="154"/>
-      <c r="C45" s="155"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="155"/>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="155"/>
-      <c r="K45" s="155"/>
-      <c r="L45" s="155"/>
-      <c r="M45" s="155"/>
-      <c r="N45" s="155"/>
-      <c r="O45" s="155"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B46" s="154"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
-      <c r="J46" s="155"/>
-      <c r="K46" s="155"/>
-      <c r="L46" s="155"/>
-      <c r="M46" s="155"/>
-      <c r="N46" s="155"/>
-      <c r="O46" s="155"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B47" s="154"/>
-      <c r="C47" s="155" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="154"/>
-      <c r="C48" s="155" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="155"/>
-      <c r="L48" s="155"/>
-      <c r="M48" s="155"/>
-      <c r="N48" s="155"/>
-      <c r="O48" s="155"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="154"/>
-      <c r="C49" s="155"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="155"/>
-      <c r="G49" s="155"/>
-      <c r="H49" s="155"/>
-      <c r="I49" s="155"/>
-      <c r="J49" s="155"/>
-      <c r="K49" s="155"/>
-      <c r="L49" s="155"/>
-      <c r="M49" s="155"/>
-      <c r="N49" s="155"/>
-      <c r="O49" s="155"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="154"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="155"/>
-      <c r="L50" s="155"/>
-      <c r="M50" s="155"/>
-      <c r="N50" s="155"/>
-      <c r="O50" s="155"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="154"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="155"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="155"/>
-      <c r="L51" s="155"/>
-      <c r="M51" s="155"/>
-      <c r="N51" s="155"/>
-      <c r="O51" s="155"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="154"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="155"/>
-      <c r="L52" s="155"/>
-      <c r="M52" s="155"/>
-      <c r="N52" s="155"/>
-      <c r="O52" s="155"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="154"/>
-      <c r="C53" s="155"/>
-      <c r="D53" s="155"/>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="155"/>
-      <c r="L53" s="155"/>
-      <c r="M53" s="155"/>
-      <c r="N53" s="155"/>
-      <c r="O53" s="155"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="154"/>
-      <c r="C54" s="155"/>
-      <c r="D54" s="155"/>
-      <c r="E54" s="155"/>
-      <c r="F54" s="155"/>
-      <c r="G54" s="155"/>
-      <c r="H54" s="155"/>
-      <c r="I54" s="155"/>
-      <c r="J54" s="155"/>
-      <c r="K54" s="155"/>
-      <c r="L54" s="155"/>
-      <c r="M54" s="155"/>
-      <c r="N54" s="155"/>
-      <c r="O54" s="155"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="154"/>
-      <c r="C55" s="155"/>
-      <c r="D55" s="155"/>
-      <c r="E55" s="155"/>
-      <c r="F55" s="155"/>
-      <c r="G55" s="155"/>
-      <c r="H55" s="155"/>
-      <c r="I55" s="155"/>
-      <c r="J55" s="155"/>
-      <c r="K55" s="155"/>
-      <c r="L55" s="155"/>
-      <c r="M55" s="155"/>
-      <c r="N55" s="155"/>
-      <c r="O55" s="155"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="154"/>
-      <c r="C56" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="158">
-        <v>40</v>
-      </c>
-      <c r="E56" s="158" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="155"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="155"/>
-      <c r="I56" s="155"/>
-      <c r="J56" s="155"/>
-      <c r="K56" s="155"/>
-      <c r="L56" s="155"/>
-      <c r="M56" s="155"/>
-      <c r="N56" s="155"/>
-      <c r="O56" s="155"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="154"/>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="155"/>
-      <c r="L57" s="155"/>
-      <c r="M57" s="155"/>
-      <c r="N57" s="155"/>
-      <c r="O57" s="155"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="154"/>
-      <c r="C58" s="155"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="155"/>
-      <c r="L58" s="155"/>
-      <c r="M58" s="155"/>
-      <c r="N58" s="155"/>
-      <c r="O58" s="155"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="154"/>
-      <c r="C59" s="155"/>
-      <c r="D59" s="155"/>
-      <c r="E59" s="155"/>
-      <c r="F59" s="155"/>
-      <c r="G59" s="155"/>
-      <c r="H59" s="155"/>
-      <c r="I59" s="155"/>
-      <c r="J59" s="155"/>
-      <c r="K59" s="155"/>
-      <c r="L59" s="155"/>
-      <c r="M59" s="155"/>
-      <c r="N59" s="155"/>
-      <c r="O59" s="155"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="154"/>
-      <c r="C60" s="155"/>
-      <c r="D60" s="155"/>
-      <c r="E60" s="155"/>
-      <c r="F60" s="155"/>
-      <c r="G60" s="155"/>
-      <c r="H60" s="155"/>
-      <c r="I60" s="155"/>
-      <c r="J60" s="155"/>
-      <c r="K60" s="155"/>
-      <c r="L60" s="155"/>
-      <c r="M60" s="155"/>
-      <c r="N60" s="155"/>
-      <c r="O60" s="155"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="154"/>
-      <c r="C61" s="155" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="155"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
-      <c r="N61" s="155"/>
-      <c r="O61" s="155"/>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="154"/>
-      <c r="C62" s="155"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="155"/>
-      <c r="F62" s="155"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="155"/>
-      <c r="K62" s="155"/>
-      <c r="L62" s="155"/>
-      <c r="M62" s="155"/>
-      <c r="N62" s="155"/>
-      <c r="O62" s="155"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="154"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
-      <c r="E63" s="155"/>
-      <c r="F63" s="155"/>
-      <c r="G63" s="155"/>
-      <c r="H63" s="155"/>
-      <c r="I63" s="155"/>
-      <c r="J63" s="155"/>
-      <c r="K63" s="155"/>
-      <c r="L63" s="155"/>
-      <c r="M63" s="155"/>
-      <c r="N63" s="155"/>
-      <c r="O63" s="155"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="154"/>
-      <c r="C64" s="155"/>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155"/>
-      <c r="F64" s="155"/>
-      <c r="G64" s="155"/>
-      <c r="H64" s="155"/>
-      <c r="I64" s="155"/>
-      <c r="J64" s="155"/>
-      <c r="K64" s="155"/>
-      <c r="L64" s="155"/>
-      <c r="M64" s="155"/>
-      <c r="N64" s="155"/>
-      <c r="O64" s="155"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="154"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="155"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="155"/>
-      <c r="K65" s="155"/>
-      <c r="L65" s="155"/>
-      <c r="M65" s="155"/>
-      <c r="N65" s="155"/>
-      <c r="O65" s="155"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="154"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="155"/>
-      <c r="H66" s="155"/>
-      <c r="I66" s="155"/>
-      <c r="J66" s="155"/>
-      <c r="K66" s="155"/>
-      <c r="L66" s="155"/>
-      <c r="M66" s="155"/>
-      <c r="N66" s="155"/>
-      <c r="O66" s="155"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="154"/>
-      <c r="C67" s="155" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="155">
-        <v>4</v>
-      </c>
-      <c r="E67" s="155" t="s">
-        <v>139</v>
-      </c>
-      <c r="G67" s="155"/>
-      <c r="H67" s="155"/>
-      <c r="I67" s="155"/>
-      <c r="J67" s="155"/>
-      <c r="K67" s="155"/>
-      <c r="L67" s="155"/>
-      <c r="M67" s="155"/>
-      <c r="N67" s="155"/>
-      <c r="O67" s="155"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="154"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="155"/>
-      <c r="H68" s="155"/>
-      <c r="I68" s="155"/>
-      <c r="J68" s="155"/>
-      <c r="K68" s="155"/>
-      <c r="L68" s="155"/>
-      <c r="M68" s="155"/>
-      <c r="N68" s="155"/>
-      <c r="O68" s="155"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="154"/>
-      <c r="C69" s="155"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="155"/>
-      <c r="F69" s="155"/>
-      <c r="G69" s="155"/>
-      <c r="H69" s="155"/>
-      <c r="I69" s="155"/>
-      <c r="J69" s="155"/>
-      <c r="K69" s="155"/>
-      <c r="L69" s="155"/>
-      <c r="M69" s="155"/>
-      <c r="N69" s="155"/>
-      <c r="O69" s="155"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="154"/>
-      <c r="C70" s="155"/>
-      <c r="D70" s="155"/>
-      <c r="E70" s="155"/>
-      <c r="F70" s="155"/>
-      <c r="G70" s="155"/>
-      <c r="H70" s="155"/>
-      <c r="I70" s="155"/>
-      <c r="J70" s="155"/>
-      <c r="K70" s="155"/>
-      <c r="L70" s="155"/>
-      <c r="M70" s="155"/>
-      <c r="N70" s="155"/>
-      <c r="O70" s="155"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="154"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="155"/>
-      <c r="E71" s="155"/>
-      <c r="F71" s="155"/>
-      <c r="G71" s="155"/>
-      <c r="H71" s="155"/>
-      <c r="I71" s="155"/>
-      <c r="J71" s="155"/>
-      <c r="K71" s="155"/>
-      <c r="L71" s="155"/>
-      <c r="M71" s="155"/>
-      <c r="N71" s="155"/>
-      <c r="O71" s="155"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="154"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="155"/>
-      <c r="H72" s="155"/>
-      <c r="I72" s="155"/>
-      <c r="J72" s="155"/>
-      <c r="K72" s="155"/>
-      <c r="L72" s="155"/>
-      <c r="M72" s="155"/>
-      <c r="N72" s="155"/>
-      <c r="O72" s="155"/>
-    </row>
-    <row r="73" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="156"/>
-      <c r="C73" s="157"/>
-      <c r="D73" s="157"/>
-      <c r="E73" s="157"/>
-      <c r="F73" s="157"/>
-      <c r="G73" s="157"/>
-      <c r="H73" s="157"/>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="157"/>
-      <c r="N73" s="157"/>
-      <c r="O73" s="157"/>
+      <c r="E113" s="153" t="s">
+        <v>134</v>
+      </c>
+      <c r="G113" s="153"/>
+      <c r="H113" s="153"/>
+      <c r="I113" s="153"/>
+      <c r="J113" s="153"/>
+      <c r="K113" s="153"/>
+      <c r="L113" s="153"/>
+      <c r="M113" s="153"/>
+      <c r="N113" s="153"/>
+      <c r="O113" s="153"/>
+    </row>
+    <row r="114" spans="2:15">
+      <c r="B114" s="152"/>
+      <c r="C114" s="153"/>
+      <c r="D114" s="153"/>
+      <c r="E114" s="153"/>
+      <c r="F114" s="153"/>
+      <c r="G114" s="153"/>
+      <c r="H114" s="153"/>
+      <c r="I114" s="153"/>
+      <c r="J114" s="153"/>
+      <c r="K114" s="153"/>
+      <c r="L114" s="153"/>
+      <c r="M114" s="153"/>
+      <c r="N114" s="153"/>
+      <c r="O114" s="153"/>
+    </row>
+    <row r="115" spans="2:15">
+      <c r="B115" s="152"/>
+      <c r="C115" s="153"/>
+      <c r="D115" s="153"/>
+      <c r="E115" s="153"/>
+      <c r="F115" s="153"/>
+      <c r="G115" s="153"/>
+      <c r="H115" s="153"/>
+      <c r="I115" s="153"/>
+      <c r="J115" s="153"/>
+      <c r="K115" s="153"/>
+      <c r="L115" s="153"/>
+      <c r="M115" s="153"/>
+      <c r="N115" s="153"/>
+      <c r="O115" s="153"/>
+    </row>
+    <row r="116" spans="2:15">
+      <c r="B116" s="152"/>
+      <c r="C116" s="153"/>
+      <c r="D116" s="153"/>
+      <c r="E116" s="153"/>
+      <c r="F116" s="153"/>
+      <c r="G116" s="153"/>
+      <c r="H116" s="153"/>
+      <c r="I116" s="153"/>
+      <c r="J116" s="153"/>
+      <c r="K116" s="153"/>
+      <c r="L116" s="153"/>
+      <c r="M116" s="153"/>
+      <c r="N116" s="153"/>
+      <c r="O116" s="153"/>
+    </row>
+    <row r="117" spans="2:15">
+      <c r="B117" s="152"/>
+      <c r="C117" s="153"/>
+      <c r="D117" s="153"/>
+      <c r="E117" s="153"/>
+      <c r="F117" s="153"/>
+      <c r="G117" s="153"/>
+      <c r="H117" s="153"/>
+      <c r="I117" s="153"/>
+      <c r="J117" s="153"/>
+      <c r="K117" s="153"/>
+      <c r="L117" s="153"/>
+      <c r="M117" s="153"/>
+      <c r="N117" s="153"/>
+      <c r="O117" s="153"/>
+    </row>
+    <row r="118" spans="2:15">
+      <c r="B118" s="152"/>
+      <c r="C118" s="153"/>
+      <c r="D118" s="153"/>
+      <c r="E118" s="153"/>
+      <c r="F118" s="153"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="153"/>
+      <c r="I118" s="153"/>
+      <c r="J118" s="153"/>
+      <c r="K118" s="153"/>
+      <c r="L118" s="153"/>
+      <c r="M118" s="153"/>
+      <c r="N118" s="153"/>
+      <c r="O118" s="153"/>
+    </row>
+    <row r="119" spans="2:15" ht="17" thickBot="1">
+      <c r="B119" s="154"/>
+      <c r="C119" s="155"/>
+      <c r="D119" s="155"/>
+      <c r="E119" s="155"/>
+      <c r="F119" s="155"/>
+      <c r="G119" s="155"/>
+      <c r="H119" s="155"/>
+      <c r="I119" s="155"/>
+      <c r="J119" s="155"/>
+      <c r="K119" s="155"/>
+      <c r="L119" s="155"/>
+      <c r="M119" s="155"/>
+      <c r="N119" s="155"/>
+      <c r="O119" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEB3AE2-59D0-A148-928A-0619B76246CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE3CA0-AD65-294C-9ADF-9D507064BAD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="190">
   <si>
     <t>Source</t>
   </si>
@@ -91,9 +91,6 @@
     <t>NL</t>
   </si>
   <si>
-    <t>households_supplied_per_unit</t>
-  </si>
-  <si>
     <t>yes=1, no=0</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
   </si>
   <si>
     <t>availability</t>
-  </si>
-  <si>
-    <t>capacity_credit</t>
   </si>
   <si>
     <t>free_co2_factor</t>
@@ -888,12 +882,19 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1017,6 +1018,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1024,6 +1026,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,6 +1034,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,6 +1042,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1045,17 +1050,20 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1069,6 +1077,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1386,241 +1395,241 @@
   </borders>
   <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1628,368 +1637,368 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="233">
@@ -2903,12 +2912,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="30"/>
+    <col min="1" max="1" width="4.83203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="41" customFormat="1">
@@ -2919,7 +2928,7 @@
     <row r="2" spans="1:3" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="42"/>
     </row>
@@ -2931,28 +2940,28 @@
     <row r="4" spans="1:3">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2968,7 +2977,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="111" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="112"/>
     </row>
@@ -2980,31 +2989,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="113" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="113"/>
       <c r="C12" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="113"/>
       <c r="C13" s="116" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3015,58 +3024,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="113" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="117" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="113"/>
       <c r="C17" s="118" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="113"/>
       <c r="C18" s="119" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="113"/>
       <c r="C19" s="120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="121"/>
       <c r="C20" s="122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="121"/>
       <c r="C21" s="123" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="121"/>
       <c r="C22" s="124" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="121"/>
       <c r="C23" s="125" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3080,25 +3089,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K68"/>
+  <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="4"/>
+    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3112,42 +3121,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="171" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
+      <c r="B2" s="195" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="176"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="200"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="176"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="177"/>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="179"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="203"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
@@ -3177,17 +3186,17 @@
     <row r="8" spans="2:11" s="5" customFormat="1" ht="18">
       <c r="B8" s="137"/>
       <c r="C8" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="138" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24" t="s">
@@ -3209,7 +3218,7 @@
     <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="23"/>
@@ -3222,7 +3231,7 @@
     <row r="11" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>5</v>
@@ -3235,14 +3244,14 @@
       <c r="G11" s="28"/>
       <c r="H11" s="44"/>
       <c r="I11" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="146" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
@@ -3255,14 +3264,14 @@
       <c r="G12" s="28"/>
       <c r="H12" s="44"/>
       <c r="I12" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="32"/>
       <c r="C13" s="48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>5</v>
@@ -3274,7 +3283,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="143"/>
       <c r="K13" s="3"/>
@@ -3288,261 +3297,264 @@
         <v>5</v>
       </c>
       <c r="E14" s="49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J14" s="143"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1">
+    <row r="15" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B15" s="32"/>
-      <c r="C15" s="48" t="s">
-        <v>42</v>
+      <c r="C15" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="49">
-        <v>0</v>
+      <c r="E15" s="31">
+        <v>0.1</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="143"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1">
+        <v>65</v>
+      </c>
+      <c r="J15" s="144"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
       <c r="B16" s="32"/>
       <c r="C16" s="48" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="49">
-        <v>1</v>
+      <c r="E16" s="31">
+        <v>0.7</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="143"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+        <v>65</v>
+      </c>
+      <c r="J16" s="144"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="32"/>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="48" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="31">
-        <v>0.1</v>
+        <v>117</v>
+      </c>
+      <c r="E17" s="53">
+        <f>'Research data'!G6</f>
+        <v>600</v>
       </c>
       <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="51" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" s="28"/>
       <c r="I17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="144"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="2:11" s="2" customFormat="1" ht="17" thickBot="1">
+        <v>65</v>
+      </c>
+      <c r="J17" s="143"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="32"/>
       <c r="C18" s="48" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="31">
-        <v>0.7</v>
+        <v>117</v>
+      </c>
+      <c r="E18" s="53">
+        <f>E17*E12/E11</f>
+        <v>225</v>
       </c>
       <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="H18" s="28"/>
       <c r="I18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="143"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="32"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="143"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
+      <c r="B20" s="32"/>
+      <c r="C20" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="141"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="143"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="32"/>
+      <c r="C21" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="49">
+        <f>'Research data'!G17</f>
+        <v>840000000</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="145"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
+      <c r="B22" s="32"/>
+      <c r="C22" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="49">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="144"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1">
-      <c r="B19" s="32"/>
-      <c r="C19" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="53">
-        <f>'Research data'!G6</f>
-        <v>600</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="143"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="53">
-        <f>E19*E12/E11</f>
-        <v>225</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="143"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="32"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="143"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="141"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="143"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1">
+      <c r="H22" s="28"/>
+      <c r="I22" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="145"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="32"/>
       <c r="C23" s="48" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="49">
-        <f>'Research data'!G17</f>
-        <v>840000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="28"/>
       <c r="G23" s="51" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H23" s="28"/>
-      <c r="I23" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23" s="145"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1">
+      <c r="I23" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23" s="143"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="32"/>
       <c r="C24" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="49">
         <v>0</v>
       </c>
       <c r="F24" s="28"/>
       <c r="G24" s="51" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="145"/>
-    </row>
-    <row r="25" spans="2:11" ht="17" thickBot="1">
+        <v>65</v>
+      </c>
+      <c r="J24" s="143"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="32"/>
       <c r="C25" s="48" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="49">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="E25" s="134">
+        <f>'Research data'!G19</f>
+        <v>25600000</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="51" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="31" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J25" s="143"/>
     </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="32"/>
       <c r="C26" s="48" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E26" s="49">
-        <v>0</v>
+        <f>'Research data'!G21</f>
+        <v>2844.44</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="51" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="31" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J26" s="143"/>
     </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="32"/>
       <c r="C27" s="48" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="134">
-        <f>'Research data'!G19</f>
-        <v>25600000</v>
+        <v>62</v>
+      </c>
+      <c r="E27" s="49">
+        <v>0</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="51" t="s">
@@ -3550,158 +3562,156 @@
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="31" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J27" s="143"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="32"/>
       <c r="C28" s="48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="49">
-        <f>'Research data'!G21</f>
-        <v>2844.44</v>
+        <v>3</v>
+      </c>
+      <c r="E28" s="53">
+        <v>0.1</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="51" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="31" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="J28" s="143"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="32"/>
       <c r="C29" s="48" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="E29" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="28"/>
-      <c r="G29" s="51" t="s">
-        <v>72</v>
-      </c>
+      <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J29" s="143"/>
     </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1">
+    <row r="30" spans="2:10">
       <c r="B30" s="32"/>
-      <c r="C30" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="31" t="s">
-        <v>67</v>
-      </c>
+      <c r="C30" s="140"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
       <c r="J30" s="143"/>
     </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="32"/>
-      <c r="C31" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="49">
-        <v>1</v>
-      </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="31" t="s">
-        <v>67</v>
-      </c>
+      <c r="C31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="141"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="143"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="32"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
+      <c r="C32" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="49">
+        <f>'Research data'!G12</f>
+        <v>0.3</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="52" t="s">
+        <v>74</v>
+      </c>
       <c r="J32" s="143"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="32"/>
-      <c r="C33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
+      <c r="C33" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="49">
+        <f>'Research data'!G13</f>
+        <v>4</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="158" t="s">
+        <v>137</v>
+      </c>
       <c r="J33" s="143"/>
     </row>
     <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="32"/>
       <c r="C34" s="48" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" s="49">
-        <f>'Research data'!G12</f>
-        <v>0.3</v>
+        <f>'Research data'!G14</f>
+        <v>40</v>
       </c>
       <c r="F34" s="28"/>
-      <c r="G34" s="28" t="s">
-        <v>17</v>
+      <c r="G34" s="51" t="s">
+        <v>28</v>
       </c>
       <c r="H34" s="28"/>
-      <c r="I34" s="52" t="s">
-        <v>76</v>
+      <c r="I34" s="158" t="s">
+        <v>137</v>
       </c>
       <c r="J34" s="143"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="32"/>
       <c r="C35" s="48" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" s="49">
-        <f>'Research data'!G13</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F35" s="28"/>
-      <c r="G35" s="51" t="s">
-        <v>30</v>
-      </c>
+      <c r="G35" s="28"/>
       <c r="H35" s="28"/>
-      <c r="I35" s="158" t="s">
-        <v>139</v>
+      <c r="I35" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="J35" s="143"/>
     </row>
@@ -3711,26 +3721,23 @@
         <v>56</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E36" s="49">
-        <f>'Research data'!G14</f>
-        <v>40</v>
+        <v>26820</v>
       </c>
       <c r="F36" s="28"/>
-      <c r="G36" s="51" t="s">
-        <v>29</v>
-      </c>
+      <c r="G36" s="28"/>
       <c r="H36" s="28"/>
-      <c r="I36" s="158" t="s">
-        <v>139</v>
+      <c r="I36" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="J36" s="143"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="32"/>
       <c r="C37" s="48" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>5</v>
@@ -3742,180 +3749,156 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J37" s="143"/>
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="32"/>
       <c r="C38" s="48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="49">
-        <v>26820</v>
+        <v>193680</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J38" s="143"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="32"/>
       <c r="C39" s="48" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="49">
-        <v>0</v>
+        <v>32040</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J39" s="143"/>
     </row>
     <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="32"/>
       <c r="C40" s="48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="49">
-        <v>193680</v>
+        <v>21600</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J40" s="143"/>
     </row>
     <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="32"/>
       <c r="C41" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="49">
-        <v>32040</v>
+        <v>1</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J41" s="143"/>
     </row>
     <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="32"/>
       <c r="C42" s="48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" s="33" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="49">
-        <v>21600</v>
+        <v>0</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J42" s="143"/>
     </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
+    <row r="43" spans="2:10">
       <c r="B43" s="32"/>
-      <c r="C43" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="49">
-        <v>1</v>
-      </c>
+      <c r="C43" s="48"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="135"/>
       <c r="F43" s="28"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28"/>
-      <c r="I43" s="31" t="s">
-        <v>67</v>
-      </c>
+      <c r="I43" s="30"/>
       <c r="J43" s="143"/>
     </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
-      <c r="B44" s="32"/>
-      <c r="C44" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="49">
-        <v>0</v>
-      </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" s="143"/>
+    <row r="44" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="32"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="143"/>
-    </row>
-    <row r="46" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="6"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="B47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
     </row>
     <row r="48" spans="2:10">
       <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
@@ -3951,6 +3934,9 @@
     </row>
     <row r="53" spans="2:9">
       <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
@@ -3958,6 +3944,9 @@
     </row>
     <row r="54" spans="2:9">
       <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
@@ -4082,26 +4071,6 @@
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4123,28 +4092,28 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="54" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="54" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="81" customWidth="1"/>
-    <col min="10" max="10" width="2.42578125" style="81" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="81" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" style="81" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="81" customWidth="1"/>
-    <col min="14" max="14" width="2.28515625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="54" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="81" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="81" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="2.83203125" style="81" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="81" customWidth="1"/>
+    <col min="14" max="14" width="2.33203125" style="54" customWidth="1"/>
     <col min="15" max="15" width="10" style="81" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="81" customWidth="1"/>
+    <col min="16" max="16" width="3.5" style="81" customWidth="1"/>
     <col min="17" max="17" width="10" style="81" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="54" customWidth="1"/>
-    <col min="19" max="19" width="73.85546875" style="54" customWidth="1"/>
-    <col min="20" max="16384" width="10.7109375" style="54"/>
+    <col min="18" max="18" width="2.83203125" style="54" customWidth="1"/>
+    <col min="19" max="19" width="73.83203125" style="54" customWidth="1"/>
+    <col min="20" max="16384" width="10.6640625" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
@@ -4171,39 +4140,39 @@
     <row r="3" spans="2:19" s="38" customFormat="1">
       <c r="B3" s="37"/>
       <c r="C3" s="130" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="130" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="130" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="131" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="131"/>
       <c r="K3" s="131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L3" s="131"/>
       <c r="M3" s="131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N3" s="130"/>
       <c r="O3" s="131" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P3" s="131"/>
       <c r="Q3" s="131" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R3" s="130"/>
       <c r="S3" s="130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -4229,7 +4198,7 @@
     <row r="5" spans="2:19" ht="17" thickBot="1">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -4251,12 +4220,12 @@
     <row r="6" spans="2:19" ht="17" thickBot="1">
       <c r="B6" s="57"/>
       <c r="C6" s="86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
       <c r="F6" s="126" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G6" s="88">
         <f>I6</f>
@@ -4272,70 +4241,70 @@
       <c r="L6" s="91"/>
       <c r="M6" s="91"/>
       <c r="N6" s="84"/>
-      <c r="S6" s="189"/>
-    </row>
-    <row r="7" spans="2:19" s="181" customFormat="1" ht="17" thickBot="1">
-      <c r="B7" s="182"/>
-      <c r="C7" s="190" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="191" t="s">
+      <c r="S6" s="180"/>
+    </row>
+    <row r="7" spans="2:19" s="172" customFormat="1" ht="17" thickBot="1">
+      <c r="B7" s="173"/>
+      <c r="C7" s="181" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="192"/>
-      <c r="F7" s="193" t="s">
+      <c r="E7" s="183"/>
+      <c r="F7" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="194">
+      <c r="G7" s="185">
         <f>I7</f>
         <v>40</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="194">
+      <c r="H7" s="186"/>
+      <c r="I7" s="185">
         <f>Notes!E16</f>
         <v>40</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="S7" s="189" t="s">
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="S7" s="180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" s="172" customFormat="1" ht="17" thickBot="1">
+      <c r="B8" s="173"/>
+      <c r="C8" s="181" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" s="181" customFormat="1" ht="17" thickBot="1">
-      <c r="B8" s="182"/>
-      <c r="C8" s="190" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="191" t="s">
+      <c r="D8" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="192"/>
-      <c r="F8" s="193" t="s">
+      <c r="E8" s="183"/>
+      <c r="F8" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="194">
+      <c r="G8" s="185">
         <f>I8</f>
         <v>15</v>
       </c>
-      <c r="H8" s="195"/>
-      <c r="I8" s="194">
+      <c r="H8" s="186"/>
+      <c r="I8" s="185">
         <f>Notes!E17</f>
         <v>15</v>
       </c>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="S8" s="189" t="s">
-        <v>183</v>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="S8" s="180" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:19">
@@ -4352,7 +4321,7 @@
       <c r="L9" s="91"/>
       <c r="M9" s="91"/>
       <c r="N9" s="84"/>
-      <c r="S9" s="189"/>
+      <c r="S9" s="180"/>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="57"/>
@@ -4393,7 +4362,7 @@
     <row r="12" spans="2:19" ht="17" thickBot="1">
       <c r="B12" s="57"/>
       <c r="C12" s="92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="92"/>
       <c r="E12" s="92"/>
@@ -4419,8 +4388,8 @@
         <f>579*489/1000000</f>
         <v>0.28313100000000002</v>
       </c>
-      <c r="S12" s="199" t="s">
-        <v>189</v>
+      <c r="S12" s="190" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
@@ -4433,7 +4402,7 @@
       <c r="F13" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="198">
+      <c r="G13" s="189">
         <f>K13</f>
         <v>4</v>
       </c>
@@ -4454,7 +4423,7 @@
       <c r="P13" s="84"/>
       <c r="Q13" s="84"/>
       <c r="S13" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="17" thickBot="1">
@@ -4488,7 +4457,7 @@
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
       <c r="S14" s="50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:19">
@@ -4513,7 +4482,7 @@
     <row r="16" spans="2:19" ht="17" thickBot="1">
       <c r="B16" s="57"/>
       <c r="C16" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4534,14 +4503,14 @@
     <row r="17" spans="2:19" ht="17" thickBot="1">
       <c r="B17" s="57"/>
       <c r="C17" s="136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="198">
+        <v>37</v>
+      </c>
+      <c r="G17" s="189">
         <f>ROUND(G18*G6*1000,0)</f>
         <v>840000000</v>
       </c>
@@ -4556,20 +4525,20 @@
       <c r="P17" s="97"/>
       <c r="Q17" s="97"/>
       <c r="S17" s="157" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
       <c r="B18" s="57"/>
       <c r="C18" s="136" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="103"/>
       <c r="F18" s="126" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="198">
+        <v>110</v>
+      </c>
+      <c r="G18" s="189">
         <f>I18</f>
         <v>1400</v>
       </c>
@@ -4591,14 +4560,14 @@
     <row r="19" spans="2:19" ht="17" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="201">
+        <v>63</v>
+      </c>
+      <c r="G19" s="192">
         <f>I19</f>
         <v>25600000</v>
       </c>
@@ -4620,12 +4589,12 @@
     <row r="20" spans="2:19" ht="17" thickBot="1">
       <c r="B20" s="57"/>
       <c r="C20" s="136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="128" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" s="105">
         <f>G19/(G6*1000)</f>
@@ -4646,12 +4615,12 @@
     <row r="21" spans="2:19" ht="17" thickBot="1">
       <c r="B21" s="57"/>
       <c r="C21" s="148" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D21" s="107"/>
       <c r="E21" s="107"/>
       <c r="F21" s="87" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G21" s="102">
         <f>ROUND((G22/G24),2)</f>
@@ -4672,14 +4641,14 @@
     <row r="22" spans="2:19" ht="17" thickBot="1">
       <c r="B22" s="57"/>
       <c r="C22" s="136" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
       <c r="F22" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="198">
+        <v>63</v>
+      </c>
+      <c r="G22" s="189">
         <f>I22</f>
         <v>12800000.000000002</v>
       </c>
@@ -4701,12 +4670,12 @@
     <row r="23" spans="2:19" ht="17" thickBot="1">
       <c r="B23" s="57"/>
       <c r="C23" s="136" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="106"/>
       <c r="E23" s="106"/>
       <c r="F23" s="126" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G23" s="102">
         <f>ROUND((G21/G6),2)</f>
@@ -4727,14 +4696,14 @@
     <row r="24" spans="2:19" ht="17" thickBot="1">
       <c r="B24" s="57"/>
       <c r="C24" s="136" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="85"/>
       <c r="F24" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24" s="197">
+        <v>71</v>
+      </c>
+      <c r="G24" s="188">
         <f>I24</f>
         <v>4500</v>
       </c>
@@ -4756,12 +4725,12 @@
     <row r="25" spans="2:19" ht="17" thickBot="1">
       <c r="B25" s="57"/>
       <c r="C25" s="136" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" s="85"/>
       <c r="E25" s="85"/>
       <c r="F25" s="129" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" s="108">
         <f>G24*G6</f>
@@ -4810,17 +4779,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="59" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" style="59" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="60" customWidth="1"/>
-    <col min="10" max="10" width="105.42578125" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="59"/>
+    <col min="1" max="1" width="10.1640625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="59" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="60" customWidth="1"/>
+    <col min="10" max="10" width="105.5" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -4838,7 +4807,7 @@
     <row r="3" spans="2:10">
       <c r="B3" s="64"/>
       <c r="C3" s="65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="65"/>
@@ -4862,28 +4831,28 @@
     <row r="5" spans="2:10">
       <c r="B5" s="69"/>
       <c r="C5" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="70" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -4901,29 +4870,29 @@
       <c r="B7" s="152"/>
       <c r="C7" s="159"/>
       <c r="D7" s="160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" s="161" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="162" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="163" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H7" s="162"/>
       <c r="I7" s="170" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J7" s="160" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="149" customFormat="1">
       <c r="B8" s="152"/>
       <c r="C8" s="164" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="160"/>
       <c r="E8" s="153"/>
@@ -4936,7 +4905,7 @@
     <row r="9" spans="2:10" s="149" customFormat="1">
       <c r="B9" s="152"/>
       <c r="C9" s="164" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D9" s="160"/>
       <c r="E9" s="153"/>
@@ -4961,23 +4930,23 @@
       <c r="B11" s="64"/>
       <c r="C11" s="72"/>
       <c r="D11" s="72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G11" s="168">
         <v>2010</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -5010,27 +4979,27 @@
       <c r="B14" s="64"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J14" s="79"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="64"/>
-      <c r="C15" s="202" t="s">
-        <v>191</v>
+      <c r="C15" s="193" t="s">
+        <v>189</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="67"/>
@@ -5043,7 +5012,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="64"/>
       <c r="C16" s="136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="67"/>
@@ -5056,7 +5025,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="64"/>
       <c r="C17" s="148" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="67"/>
@@ -5068,8 +5037,8 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="64"/>
-      <c r="C18" s="202" t="s">
-        <v>73</v>
+      <c r="C18" s="193" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="67"/>
@@ -5081,8 +5050,8 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="64"/>
-      <c r="C19" s="192" t="s">
-        <v>33</v>
+      <c r="C19" s="183" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="67"/>
@@ -5094,8 +5063,8 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="64"/>
-      <c r="C20" s="190" t="s">
-        <v>184</v>
+      <c r="C20" s="181" t="s">
+        <v>182</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="67"/>
@@ -5107,8 +5076,8 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="64"/>
-      <c r="C21" s="190" t="s">
-        <v>185</v>
+      <c r="C21" s="181" t="s">
+        <v>183</v>
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="67"/>
@@ -5122,25 +5091,25 @@
       <c r="B22" s="64"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E22" s="67"/>
       <c r="F22" s="68">
         <v>2013</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="64"/>
       <c r="C23" s="72" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="67"/>
@@ -5153,7 +5122,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="64"/>
       <c r="C24" s="75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="67"/>
@@ -5166,7 +5135,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="64"/>
       <c r="C25" s="75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="72"/>
@@ -5178,8 +5147,8 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="64"/>
-      <c r="C26" s="203" t="s">
-        <v>73</v>
+      <c r="C26" s="194" t="s">
+        <v>71</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="72"/>
@@ -5187,15 +5156,15 @@
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="80"/>
-      <c r="J26" s="180" t="s">
-        <v>157</v>
+      <c r="J26" s="171" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="64"/>
       <c r="C27" s="72"/>
       <c r="D27" s="59" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="72" t="s">
         <v>10</v>
@@ -5203,20 +5172,20 @@
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="80"/>
       <c r="J27" s="72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="64"/>
       <c r="C28" s="75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
@@ -5240,7 +5209,7 @@
       <c r="B30" s="64"/>
       <c r="C30" s="72"/>
       <c r="D30" s="67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="72" t="s">
         <v>10</v>
@@ -5248,20 +5217,20 @@
       <c r="F30" s="72"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30" s="80"/>
       <c r="J30" s="72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="64"/>
       <c r="C31" s="75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E31" s="72"/>
       <c r="F31" s="72"/>
@@ -5290,13 +5259,13 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="149" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="149" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="149" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="149" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="149"/>
+    <col min="2" max="2" width="4.83203125" style="149" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="149" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="149" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
@@ -5319,11 +5288,11 @@
     <row r="3" spans="2:16" s="38" customFormat="1">
       <c r="B3" s="137"/>
       <c r="C3" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5336,1222 +5305,1222 @@
       <c r="N3" s="24"/>
       <c r="O3" s="24"/>
     </row>
-    <row r="4" spans="2:16" s="181" customFormat="1">
-      <c r="B4" s="182"/>
-      <c r="C4" s="180" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
-      <c r="O4" s="180"/>
-      <c r="P4" s="183"/>
-    </row>
-    <row r="5" spans="2:16" s="181" customFormat="1">
-      <c r="B5" s="182"/>
-      <c r="C5" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
-      <c r="O5" s="180"/>
-      <c r="P5" s="183"/>
-    </row>
-    <row r="6" spans="2:16" s="181" customFormat="1">
-      <c r="B6" s="182"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
-      <c r="K6" s="180"/>
-      <c r="L6" s="180"/>
-      <c r="M6" s="180"/>
-      <c r="N6" s="180"/>
-      <c r="O6" s="180"/>
-      <c r="P6" s="183"/>
-    </row>
-    <row r="7" spans="2:16" s="181" customFormat="1">
-      <c r="B7" s="182"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="180"/>
-      <c r="J7" s="180"/>
-      <c r="K7" s="180"/>
-      <c r="L7" s="180"/>
-      <c r="M7" s="180"/>
-      <c r="N7" s="180"/>
-      <c r="O7" s="180"/>
-      <c r="P7" s="183"/>
-    </row>
-    <row r="8" spans="2:16" s="181" customFormat="1">
-      <c r="B8" s="182"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="180"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="180"/>
-      <c r="L8" s="180"/>
-      <c r="M8" s="180"/>
-      <c r="N8" s="180"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="183"/>
-    </row>
-    <row r="9" spans="2:16" s="181" customFormat="1">
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
-      <c r="J9" s="180"/>
-      <c r="K9" s="180"/>
-      <c r="L9" s="180"/>
-      <c r="M9" s="180"/>
-      <c r="N9" s="180"/>
-      <c r="O9" s="180"/>
-      <c r="P9" s="183"/>
-    </row>
-    <row r="10" spans="2:16" s="181" customFormat="1">
-      <c r="B10" s="182"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="180"/>
-      <c r="N10" s="180"/>
-      <c r="O10" s="180"/>
-      <c r="P10" s="183"/>
-    </row>
-    <row r="11" spans="2:16" s="181" customFormat="1">
-      <c r="B11" s="182"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="180"/>
-      <c r="N11" s="180"/>
-      <c r="O11" s="180"/>
-      <c r="P11" s="183"/>
-    </row>
-    <row r="12" spans="2:16" s="181" customFormat="1">
-      <c r="B12" s="182"/>
-      <c r="C12" s="180"/>
-      <c r="D12" s="180"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="180"/>
-      <c r="N12" s="180"/>
-      <c r="O12" s="180"/>
-      <c r="P12" s="183"/>
-    </row>
-    <row r="13" spans="2:16" s="181" customFormat="1">
-      <c r="B13" s="182"/>
-      <c r="C13" s="180"/>
-      <c r="D13" s="180"/>
-      <c r="E13" s="180">
+    <row r="4" spans="2:16" s="172" customFormat="1">
+      <c r="B4" s="173"/>
+      <c r="C4" s="171" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="171"/>
+      <c r="O4" s="171"/>
+      <c r="P4" s="174"/>
+    </row>
+    <row r="5" spans="2:16" s="172" customFormat="1">
+      <c r="B5" s="173"/>
+      <c r="C5" s="171" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
+      <c r="H5" s="171"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="171"/>
+      <c r="K5" s="171"/>
+      <c r="L5" s="171"/>
+      <c r="M5" s="171"/>
+      <c r="N5" s="171"/>
+      <c r="O5" s="171"/>
+      <c r="P5" s="174"/>
+    </row>
+    <row r="6" spans="2:16" s="172" customFormat="1">
+      <c r="B6" s="173"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="171"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="171"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
+      <c r="K6" s="171"/>
+      <c r="L6" s="171"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="174"/>
+    </row>
+    <row r="7" spans="2:16" s="172" customFormat="1">
+      <c r="B7" s="173"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="174"/>
+    </row>
+    <row r="8" spans="2:16" s="172" customFormat="1">
+      <c r="B8" s="173"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="171"/>
+      <c r="K8" s="171"/>
+      <c r="L8" s="171"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="171"/>
+      <c r="O8" s="171"/>
+      <c r="P8" s="174"/>
+    </row>
+    <row r="9" spans="2:16" s="172" customFormat="1">
+      <c r="B9" s="173"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="174"/>
+    </row>
+    <row r="10" spans="2:16" s="172" customFormat="1">
+      <c r="B10" s="173"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="171"/>
+      <c r="O10" s="171"/>
+      <c r="P10" s="174"/>
+    </row>
+    <row r="11" spans="2:16" s="172" customFormat="1">
+      <c r="B11" s="173"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
+      <c r="M11" s="171"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="174"/>
+    </row>
+    <row r="12" spans="2:16" s="172" customFormat="1">
+      <c r="B12" s="173"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="171"/>
+      <c r="P12" s="174"/>
+    </row>
+    <row r="13" spans="2:16" s="172" customFormat="1">
+      <c r="B13" s="173"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171">
         <v>600000</v>
       </c>
-      <c r="F13" s="180" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="183"/>
-    </row>
-    <row r="14" spans="2:16" s="181" customFormat="1">
-      <c r="B14" s="182"/>
-      <c r="C14" s="180"/>
-      <c r="E14" s="181">
+      <c r="F13" s="171" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="174"/>
+    </row>
+    <row r="14" spans="2:16" s="172" customFormat="1">
+      <c r="B14" s="173"/>
+      <c r="C14" s="171"/>
+      <c r="E14" s="172">
         <f>E13/1000</f>
         <v>600</v>
       </c>
-      <c r="F14" s="181" t="s">
+      <c r="F14" s="172" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
+      <c r="M14" s="171"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="171"/>
+      <c r="P14" s="174"/>
+    </row>
+    <row r="15" spans="2:16" s="172" customFormat="1">
+      <c r="B15" s="173"/>
+      <c r="C15" s="171"/>
+      <c r="E15" s="171">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="171" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
+      <c r="M15" s="171"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="171"/>
+      <c r="P15" s="174"/>
+    </row>
+    <row r="16" spans="2:16" s="172" customFormat="1">
+      <c r="B16" s="173"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="172" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="171">
+        <v>40</v>
+      </c>
+      <c r="F16" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
+      <c r="M16" s="171"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="174"/>
+    </row>
+    <row r="17" spans="2:16" s="172" customFormat="1">
+      <c r="B17" s="173"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="172" t="s">
         <v>151</v>
       </c>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="180"/>
-      <c r="O14" s="180"/>
-      <c r="P14" s="183"/>
-    </row>
-    <row r="15" spans="2:16" s="181" customFormat="1">
-      <c r="B15" s="182"/>
-      <c r="C15" s="180"/>
-      <c r="E15" s="180">
-        <v>1400</v>
-      </c>
-      <c r="F15" s="180" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="180"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="183"/>
-    </row>
-    <row r="16" spans="2:16" s="181" customFormat="1">
-      <c r="B16" s="182"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="181" t="s">
+      <c r="E17" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" s="171" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="174"/>
+    </row>
+    <row r="18" spans="2:16" s="172" customFormat="1">
+      <c r="B18" s="173"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="180">
+      <c r="E18" s="171">
+        <v>4500</v>
+      </c>
+      <c r="F18" s="171" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
+      <c r="M18" s="171"/>
+      <c r="N18" s="171"/>
+      <c r="O18" s="171"/>
+      <c r="P18" s="174"/>
+    </row>
+    <row r="19" spans="2:16" s="172" customFormat="1">
+      <c r="B19" s="173"/>
+      <c r="C19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
+      <c r="P19" s="174"/>
+    </row>
+    <row r="20" spans="2:16" s="172" customFormat="1">
+      <c r="B20" s="173"/>
+      <c r="C20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="174"/>
+    </row>
+    <row r="21" spans="2:16" s="172" customFormat="1">
+      <c r="B21" s="173"/>
+      <c r="C21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="174"/>
+    </row>
+    <row r="22" spans="2:16" s="172" customFormat="1">
+      <c r="B22" s="173"/>
+      <c r="C22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="171"/>
+      <c r="P22" s="174"/>
+    </row>
+    <row r="23" spans="2:16" s="172" customFormat="1">
+      <c r="B23" s="173"/>
+      <c r="C23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
+      <c r="M23" s="171"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="171"/>
+      <c r="P23" s="174"/>
+    </row>
+    <row r="24" spans="2:16" s="172" customFormat="1">
+      <c r="B24" s="173"/>
+      <c r="C24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="171"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="171"/>
+      <c r="P24" s="174"/>
+    </row>
+    <row r="25" spans="2:16" s="172" customFormat="1">
+      <c r="B25" s="173"/>
+      <c r="C25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="174"/>
+    </row>
+    <row r="26" spans="2:16" s="172" customFormat="1">
+      <c r="B26" s="173"/>
+      <c r="C26" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
+      <c r="M26" s="171"/>
+      <c r="N26" s="171"/>
+      <c r="O26" s="171"/>
+      <c r="P26" s="174"/>
+    </row>
+    <row r="27" spans="2:16" s="172" customFormat="1">
+      <c r="B27" s="173"/>
+      <c r="C27" s="171" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
+      <c r="M27" s="171"/>
+      <c r="N27" s="171"/>
+      <c r="O27" s="171"/>
+      <c r="P27" s="174"/>
+    </row>
+    <row r="28" spans="2:16" s="172" customFormat="1">
+      <c r="B28" s="173"/>
+      <c r="C28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="174"/>
+    </row>
+    <row r="29" spans="2:16" s="172" customFormat="1">
+      <c r="B29" s="173"/>
+      <c r="C29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
+      <c r="M29" s="171"/>
+      <c r="N29" s="171"/>
+      <c r="O29" s="171"/>
+      <c r="P29" s="174"/>
+    </row>
+    <row r="30" spans="2:16" s="172" customFormat="1">
+      <c r="B30" s="173"/>
+      <c r="C30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
+      <c r="M30" s="171"/>
+      <c r="N30" s="171"/>
+      <c r="O30" s="171"/>
+      <c r="P30" s="174"/>
+    </row>
+    <row r="31" spans="2:16" s="172" customFormat="1">
+      <c r="B31" s="173"/>
+      <c r="C31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
+      <c r="M31" s="171"/>
+      <c r="N31" s="171"/>
+      <c r="O31" s="171"/>
+      <c r="P31" s="174"/>
+    </row>
+    <row r="32" spans="2:16" s="172" customFormat="1">
+      <c r="B32" s="173"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="171">
         <v>40</v>
       </c>
-      <c r="F16" s="180" t="s">
+      <c r="F32" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="180"/>
-      <c r="O16" s="180"/>
-      <c r="P16" s="183"/>
-    </row>
-    <row r="17" spans="2:16" s="181" customFormat="1">
-      <c r="B17" s="182"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="181" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="180">
+      <c r="G32" s="175" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
+      <c r="M32" s="171"/>
+      <c r="N32" s="171"/>
+      <c r="O32" s="171"/>
+      <c r="P32" s="174"/>
+    </row>
+    <row r="33" spans="2:16" s="172" customFormat="1">
+      <c r="B33" s="173"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="171">
         <v>15</v>
       </c>
-      <c r="F17" s="180" t="s">
+      <c r="F33" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="180"/>
-      <c r="J17" s="180"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="180"/>
-      <c r="O17" s="180"/>
-      <c r="P17" s="183"/>
-    </row>
-    <row r="18" spans="2:16" s="181" customFormat="1">
-      <c r="B18" s="182"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="181" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" s="180">
-        <v>4500</v>
-      </c>
-      <c r="F18" s="180" t="s">
-        <v>155</v>
-      </c>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="180"/>
-      <c r="J18" s="180"/>
-      <c r="K18" s="180"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="183"/>
-    </row>
-    <row r="19" spans="2:16" s="181" customFormat="1">
-      <c r="B19" s="182"/>
-      <c r="C19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="180"/>
-      <c r="J19" s="180"/>
-      <c r="K19" s="180"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="180"/>
-      <c r="O19" s="180"/>
-      <c r="P19" s="183"/>
-    </row>
-    <row r="20" spans="2:16" s="181" customFormat="1">
-      <c r="B20" s="182"/>
-      <c r="C20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
-      <c r="J20" s="180"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="180"/>
-      <c r="P20" s="183"/>
-    </row>
-    <row r="21" spans="2:16" s="181" customFormat="1">
-      <c r="B21" s="182"/>
-      <c r="C21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="180"/>
-      <c r="J21" s="180"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="180"/>
-      <c r="O21" s="180"/>
-      <c r="P21" s="183"/>
-    </row>
-    <row r="22" spans="2:16" s="181" customFormat="1">
-      <c r="B22" s="182"/>
-      <c r="C22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="180"/>
-      <c r="J22" s="180"/>
-      <c r="K22" s="180"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="180"/>
-      <c r="O22" s="180"/>
-      <c r="P22" s="183"/>
-    </row>
-    <row r="23" spans="2:16" s="181" customFormat="1">
-      <c r="B23" s="182"/>
-      <c r="C23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="180"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="180"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="180"/>
-      <c r="O23" s="180"/>
-      <c r="P23" s="183"/>
-    </row>
-    <row r="24" spans="2:16" s="181" customFormat="1">
-      <c r="B24" s="182"/>
-      <c r="C24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="180"/>
-      <c r="K24" s="180"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="180"/>
-      <c r="O24" s="180"/>
-      <c r="P24" s="183"/>
-    </row>
-    <row r="25" spans="2:16" s="181" customFormat="1">
-      <c r="B25" s="182"/>
-      <c r="C25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="183"/>
-    </row>
-    <row r="26" spans="2:16" s="181" customFormat="1">
-      <c r="B26" s="182"/>
-      <c r="C26" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="180"/>
-      <c r="K26" s="180"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="180"/>
-      <c r="O26" s="180"/>
-      <c r="P26" s="183"/>
-    </row>
-    <row r="27" spans="2:16" s="181" customFormat="1">
-      <c r="B27" s="182"/>
-      <c r="C27" s="180" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180" t="s">
-        <v>158</v>
-      </c>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="183"/>
-    </row>
-    <row r="28" spans="2:16" s="181" customFormat="1">
-      <c r="B28" s="182"/>
-      <c r="C28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180" t="s">
-        <v>159</v>
-      </c>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="183"/>
-    </row>
-    <row r="29" spans="2:16" s="181" customFormat="1">
-      <c r="B29" s="182"/>
-      <c r="C29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180" t="s">
-        <v>160</v>
-      </c>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="183"/>
-    </row>
-    <row r="30" spans="2:16" s="181" customFormat="1">
-      <c r="B30" s="182"/>
-      <c r="C30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="183"/>
-    </row>
-    <row r="31" spans="2:16" s="181" customFormat="1">
-      <c r="B31" s="182"/>
-      <c r="C31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="183"/>
-    </row>
-    <row r="32" spans="2:16" s="181" customFormat="1">
-      <c r="B32" s="182"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="180">
-        <v>40</v>
-      </c>
-      <c r="F32" s="180" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="184" t="s">
+      <c r="G33" s="175" t="s">
         <v>162</v>
       </c>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="183"/>
-    </row>
-    <row r="33" spans="2:16" s="181" customFormat="1">
-      <c r="B33" s="182"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180" t="s">
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
+      <c r="M33" s="171"/>
+      <c r="N33" s="171"/>
+      <c r="O33" s="171"/>
+      <c r="P33" s="174"/>
+    </row>
+    <row r="34" spans="2:16" s="172" customFormat="1">
+      <c r="B34" s="173"/>
+      <c r="C34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="G34" s="175" t="s">
         <v>163</v>
       </c>
-      <c r="E33" s="180">
-        <v>15</v>
-      </c>
-      <c r="F33" s="180" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="184" t="s">
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
+      <c r="M34" s="171"/>
+      <c r="N34" s="171"/>
+      <c r="O34" s="171"/>
+      <c r="P34" s="174"/>
+    </row>
+    <row r="35" spans="2:16" s="172" customFormat="1">
+      <c r="B35" s="173"/>
+      <c r="C35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="175" t="s">
         <v>164</v>
       </c>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="183"/>
-    </row>
-    <row r="34" spans="2:16" s="181" customFormat="1">
-      <c r="B34" s="182"/>
-      <c r="C34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="G34" s="184" t="s">
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
+      <c r="M35" s="171"/>
+      <c r="N35" s="171"/>
+      <c r="O35" s="171"/>
+      <c r="P35" s="174"/>
+    </row>
+    <row r="36" spans="2:16" s="172" customFormat="1">
+      <c r="B36" s="173"/>
+      <c r="C36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="171"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="171"/>
+      <c r="N36" s="171"/>
+      <c r="O36" s="171"/>
+      <c r="P36" s="174"/>
+    </row>
+    <row r="37" spans="2:16" s="172" customFormat="1">
+      <c r="B37" s="173"/>
+      <c r="C37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
+      <c r="M37" s="171"/>
+      <c r="N37" s="171"/>
+      <c r="O37" s="171"/>
+      <c r="P37" s="174"/>
+    </row>
+    <row r="38" spans="2:16" s="172" customFormat="1">
+      <c r="B38" s="173"/>
+      <c r="C38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
+      <c r="M38" s="171"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="171"/>
+      <c r="P38" s="174"/>
+    </row>
+    <row r="39" spans="2:16" s="172" customFormat="1">
+      <c r="B39" s="173"/>
+      <c r="C39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="174"/>
+    </row>
+    <row r="40" spans="2:16" s="172" customFormat="1">
+      <c r="B40" s="173"/>
+      <c r="C40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="171"/>
+      <c r="L40" s="171"/>
+      <c r="M40" s="171"/>
+      <c r="N40" s="171"/>
+      <c r="O40" s="171"/>
+      <c r="P40" s="174"/>
+    </row>
+    <row r="41" spans="2:16" s="172" customFormat="1">
+      <c r="B41" s="173"/>
+      <c r="C41" s="171" t="s">
         <v>165</v>
       </c>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="183"/>
-    </row>
-    <row r="35" spans="2:16" s="181" customFormat="1">
-      <c r="B35" s="182"/>
-      <c r="C35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="184" t="s">
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="171"/>
+      <c r="M41" s="171"/>
+      <c r="N41" s="171"/>
+      <c r="O41" s="171"/>
+      <c r="P41" s="174"/>
+    </row>
+    <row r="42" spans="2:16" s="172" customFormat="1">
+      <c r="B42" s="173"/>
+      <c r="C42" s="171"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="171"/>
+      <c r="L42" s="171"/>
+      <c r="M42" s="171"/>
+      <c r="N42" s="171"/>
+      <c r="O42" s="171"/>
+      <c r="P42" s="174"/>
+    </row>
+    <row r="43" spans="2:16" s="172" customFormat="1">
+      <c r="B43" s="173"/>
+      <c r="C43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="171"/>
+      <c r="M43" s="171"/>
+      <c r="N43" s="171"/>
+      <c r="O43" s="171"/>
+      <c r="P43" s="174"/>
+    </row>
+    <row r="44" spans="2:16" s="172" customFormat="1">
+      <c r="B44" s="173"/>
+      <c r="C44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="171"/>
+      <c r="M44" s="171"/>
+      <c r="N44" s="171"/>
+      <c r="O44" s="171"/>
+      <c r="P44" s="174"/>
+    </row>
+    <row r="45" spans="2:16" s="172" customFormat="1">
+      <c r="B45" s="173"/>
+      <c r="C45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
+      <c r="M45" s="171"/>
+      <c r="N45" s="171"/>
+      <c r="O45" s="171"/>
+      <c r="P45" s="174"/>
+    </row>
+    <row r="46" spans="2:16" s="172" customFormat="1">
+      <c r="B46" s="173"/>
+      <c r="C46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="171"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="174"/>
+    </row>
+    <row r="47" spans="2:16" s="172" customFormat="1">
+      <c r="B47" s="173"/>
+      <c r="C47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="171"/>
+      <c r="M47" s="171"/>
+      <c r="N47" s="171"/>
+      <c r="O47" s="171"/>
+      <c r="P47" s="174"/>
+    </row>
+    <row r="48" spans="2:16" s="172" customFormat="1">
+      <c r="B48" s="173"/>
+      <c r="C48" s="171"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
+      <c r="L48" s="171"/>
+      <c r="M48" s="171"/>
+      <c r="N48" s="171"/>
+      <c r="O48" s="171"/>
+      <c r="P48" s="174"/>
+    </row>
+    <row r="49" spans="2:16" s="172" customFormat="1">
+      <c r="B49" s="173"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="171" t="s">
         <v>166</v>
       </c>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="183"/>
-    </row>
-    <row r="36" spans="2:16" s="181" customFormat="1">
-      <c r="B36" s="182"/>
-      <c r="C36" s="180"/>
-      <c r="E36" s="180"/>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180" t="s">
-        <v>188</v>
-      </c>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="183"/>
-    </row>
-    <row r="37" spans="2:16" s="181" customFormat="1">
-      <c r="B37" s="182"/>
-      <c r="C37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="180"/>
-      <c r="K37" s="180"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="180"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="183"/>
-    </row>
-    <row r="38" spans="2:16" s="181" customFormat="1">
-      <c r="B38" s="182"/>
-      <c r="C38" s="180"/>
-      <c r="E38" s="180"/>
-      <c r="F38" s="180"/>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="180"/>
-      <c r="J38" s="180"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="180"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="183"/>
-    </row>
-    <row r="39" spans="2:16" s="181" customFormat="1">
-      <c r="B39" s="182"/>
-      <c r="C39" s="180"/>
-      <c r="E39" s="180"/>
-      <c r="F39" s="180"/>
-      <c r="G39" s="180"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="180"/>
-      <c r="J39" s="180"/>
-      <c r="K39" s="180"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="180"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="183"/>
-    </row>
-    <row r="40" spans="2:16" s="181" customFormat="1">
-      <c r="B40" s="182"/>
-      <c r="C40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
-      <c r="G40" s="180"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="180"/>
-      <c r="J40" s="180"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="180"/>
-      <c r="P40" s="183"/>
-    </row>
-    <row r="41" spans="2:16" s="181" customFormat="1">
-      <c r="B41" s="182"/>
-      <c r="C41" s="180" t="s">
+      <c r="E49" s="171">
+        <v>38400000</v>
+      </c>
+      <c r="F49" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="180"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="180"/>
-      <c r="J41" s="180"/>
-      <c r="K41" s="180"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="180"/>
-      <c r="O41" s="180"/>
-      <c r="P41" s="183"/>
-    </row>
-    <row r="42" spans="2:16" s="181" customFormat="1">
-      <c r="B42" s="182"/>
-      <c r="C42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="180"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="180"/>
-      <c r="J42" s="180"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="180"/>
-      <c r="N42" s="180"/>
-      <c r="O42" s="180"/>
-      <c r="P42" s="183"/>
-    </row>
-    <row r="43" spans="2:16" s="181" customFormat="1">
-      <c r="B43" s="182"/>
-      <c r="C43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="180"/>
-      <c r="J43" s="180"/>
-      <c r="K43" s="180"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="180"/>
-      <c r="O43" s="180"/>
-      <c r="P43" s="183"/>
-    </row>
-    <row r="44" spans="2:16" s="181" customFormat="1">
-      <c r="B44" s="182"/>
-      <c r="C44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="180"/>
-      <c r="J44" s="180"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="180"/>
-      <c r="N44" s="180"/>
-      <c r="O44" s="180"/>
-      <c r="P44" s="183"/>
-    </row>
-    <row r="45" spans="2:16" s="181" customFormat="1">
-      <c r="B45" s="182"/>
-      <c r="C45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="180"/>
-      <c r="K45" s="180"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
-      <c r="N45" s="180"/>
-      <c r="O45" s="180"/>
-      <c r="P45" s="183"/>
-    </row>
-    <row r="46" spans="2:16" s="181" customFormat="1">
-      <c r="B46" s="182"/>
-      <c r="C46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="180"/>
-      <c r="H46" s="180"/>
-      <c r="I46" s="180"/>
-      <c r="J46" s="180"/>
-      <c r="K46" s="180"/>
-      <c r="L46" s="180"/>
-      <c r="M46" s="180"/>
-      <c r="N46" s="180"/>
-      <c r="O46" s="180"/>
-      <c r="P46" s="183"/>
-    </row>
-    <row r="47" spans="2:16" s="181" customFormat="1">
-      <c r="B47" s="182"/>
-      <c r="C47" s="180"/>
-      <c r="E47" s="180"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="180"/>
-      <c r="H47" s="180"/>
-      <c r="I47" s="180"/>
-      <c r="J47" s="180"/>
-      <c r="K47" s="180"/>
-      <c r="L47" s="180"/>
-      <c r="M47" s="180"/>
-      <c r="N47" s="180"/>
-      <c r="O47" s="180"/>
-      <c r="P47" s="183"/>
-    </row>
-    <row r="48" spans="2:16" s="181" customFormat="1">
-      <c r="B48" s="182"/>
-      <c r="C48" s="180"/>
-      <c r="E48" s="180"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
-      <c r="H48" s="180"/>
-      <c r="I48" s="180"/>
-      <c r="J48" s="180"/>
-      <c r="K48" s="180"/>
-      <c r="L48" s="180"/>
-      <c r="M48" s="180"/>
-      <c r="N48" s="180"/>
-      <c r="O48" s="180"/>
-      <c r="P48" s="183"/>
-    </row>
-    <row r="49" spans="2:16" s="181" customFormat="1">
-      <c r="B49" s="182"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="180" t="s">
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="171"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="171"/>
+      <c r="O49" s="171"/>
+      <c r="P49" s="174"/>
+    </row>
+    <row r="50" spans="2:16" s="172" customFormat="1">
+      <c r="B50" s="173"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="171" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="180">
-        <v>38400000</v>
-      </c>
-      <c r="F49" s="180" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="180"/>
-      <c r="H49" s="180"/>
-      <c r="I49" s="180"/>
-      <c r="J49" s="180"/>
-      <c r="K49" s="180"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="180"/>
-      <c r="O49" s="180"/>
-      <c r="P49" s="183"/>
-    </row>
-    <row r="50" spans="2:16" s="181" customFormat="1">
-      <c r="B50" s="182"/>
-      <c r="C50" s="180"/>
-      <c r="D50" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="E50" s="200">
+      <c r="E50" s="191">
         <f>E49*E64</f>
         <v>25600000</v>
       </c>
-      <c r="F50" s="180" t="s">
+      <c r="F50" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="171"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="171"/>
+      <c r="L50" s="171"/>
+      <c r="M50" s="171"/>
+      <c r="N50" s="171"/>
+      <c r="O50" s="171"/>
+      <c r="P50" s="174"/>
+    </row>
+    <row r="51" spans="2:16" s="172" customFormat="1">
+      <c r="B51" s="173"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="172" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="180"/>
-      <c r="H50" s="180"/>
-      <c r="I50" s="180"/>
-      <c r="J50" s="180"/>
-      <c r="K50" s="180"/>
-      <c r="L50" s="180"/>
-      <c r="M50" s="180"/>
-      <c r="N50" s="180"/>
-      <c r="O50" s="180"/>
-      <c r="P50" s="183"/>
-    </row>
-    <row r="51" spans="2:16" s="181" customFormat="1">
-      <c r="B51" s="182"/>
-      <c r="C51" s="180"/>
-      <c r="D51" s="181" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="200">
+      <c r="E51" s="191">
         <f>E49*E65</f>
         <v>12800000.000000002</v>
       </c>
-      <c r="F51" s="180" t="s">
-        <v>169</v>
-      </c>
-      <c r="G51" s="180"/>
-      <c r="H51" s="180"/>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="180"/>
-      <c r="O51" s="180"/>
-      <c r="P51" s="183"/>
-    </row>
-    <row r="52" spans="2:16" s="181" customFormat="1">
-      <c r="B52" s="182"/>
-      <c r="C52" s="180"/>
-      <c r="E52" s="180"/>
-      <c r="F52" s="180"/>
-      <c r="G52" s="180"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="180"/>
-      <c r="J52" s="180"/>
-      <c r="K52" s="180"/>
-      <c r="L52" s="180"/>
-      <c r="M52" s="180"/>
-      <c r="N52" s="180"/>
-      <c r="O52" s="180"/>
-      <c r="P52" s="183"/>
-    </row>
-    <row r="53" spans="2:16" s="181" customFormat="1">
-      <c r="B53" s="182"/>
-      <c r="C53" s="180"/>
-      <c r="E53" s="180"/>
-      <c r="F53" s="180"/>
-      <c r="G53" s="180"/>
-      <c r="H53" s="180"/>
-      <c r="I53" s="180"/>
-      <c r="J53" s="180"/>
-      <c r="K53" s="180"/>
-      <c r="L53" s="180"/>
-      <c r="M53" s="180"/>
-      <c r="N53" s="180"/>
-      <c r="O53" s="180"/>
-      <c r="P53" s="183"/>
-    </row>
-    <row r="54" spans="2:16" s="181" customFormat="1">
-      <c r="B54" s="182"/>
-      <c r="C54" s="180"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="180"/>
-      <c r="J54" s="180"/>
-      <c r="K54" s="180"/>
-      <c r="L54" s="180"/>
-      <c r="M54" s="180"/>
-      <c r="N54" s="180"/>
-      <c r="O54" s="180"/>
-      <c r="P54" s="183"/>
-    </row>
-    <row r="55" spans="2:16" s="181" customFormat="1">
-      <c r="B55" s="182"/>
-      <c r="C55" s="180"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="180"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="180"/>
-      <c r="J55" s="180"/>
-      <c r="K55" s="180"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="180"/>
-      <c r="O55" s="180"/>
-      <c r="P55" s="183"/>
-    </row>
-    <row r="56" spans="2:16" s="181" customFormat="1">
-      <c r="B56" s="182"/>
-      <c r="C56" s="180"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="180"/>
-      <c r="G56" s="180"/>
-      <c r="H56" s="180"/>
-      <c r="I56" s="180"/>
-      <c r="J56" s="180"/>
-      <c r="K56" s="180"/>
-      <c r="L56" s="180"/>
-      <c r="M56" s="180"/>
-      <c r="N56" s="180"/>
-      <c r="O56" s="180"/>
-      <c r="P56" s="183"/>
-    </row>
-    <row r="57" spans="2:16" s="181" customFormat="1">
-      <c r="B57" s="182"/>
-      <c r="C57" s="180"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="180"/>
-      <c r="J57" s="180"/>
-      <c r="K57" s="180"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
-      <c r="N57" s="180"/>
-      <c r="O57" s="180"/>
-      <c r="P57" s="183"/>
-    </row>
-    <row r="58" spans="2:16" s="181" customFormat="1">
-      <c r="B58" s="182"/>
-      <c r="C58" s="180"/>
-      <c r="E58" s="180"/>
-      <c r="F58" s="180"/>
-      <c r="G58" s="180"/>
-      <c r="H58" s="180"/>
-      <c r="I58" s="180"/>
-      <c r="J58" s="180"/>
-      <c r="K58" s="180"/>
-      <c r="L58" s="180"/>
-      <c r="M58" s="180"/>
-      <c r="N58" s="180"/>
-      <c r="O58" s="180"/>
-      <c r="P58" s="183"/>
-    </row>
-    <row r="59" spans="2:16" s="181" customFormat="1">
-      <c r="B59" s="182"/>
-      <c r="C59" s="180"/>
-      <c r="E59" s="180"/>
-      <c r="F59" s="180"/>
-      <c r="G59" s="180"/>
-      <c r="H59" s="180"/>
-      <c r="I59" s="180"/>
-      <c r="J59" s="180"/>
-      <c r="K59" s="180"/>
-      <c r="L59" s="180"/>
-      <c r="M59" s="180"/>
-      <c r="N59" s="180"/>
-      <c r="O59" s="180"/>
-      <c r="P59" s="183"/>
-    </row>
-    <row r="60" spans="2:16" s="181" customFormat="1">
-      <c r="B60" s="182"/>
-      <c r="C60" s="180" t="s">
-        <v>156</v>
-      </c>
-      <c r="E60" s="180"/>
-      <c r="F60" s="180"/>
-      <c r="G60" s="180"/>
-      <c r="H60" s="180"/>
-      <c r="I60" s="180"/>
-      <c r="J60" s="180"/>
-      <c r="K60" s="180"/>
-      <c r="L60" s="180"/>
-      <c r="M60" s="180"/>
-      <c r="N60" s="180"/>
-      <c r="O60" s="180"/>
-      <c r="P60" s="183"/>
-    </row>
-    <row r="61" spans="2:16" s="181" customFormat="1">
-      <c r="B61" s="182"/>
-      <c r="C61" s="180" t="s">
+      <c r="F51" s="171" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
+      <c r="M51" s="171"/>
+      <c r="N51" s="171"/>
+      <c r="O51" s="171"/>
+      <c r="P51" s="174"/>
+    </row>
+    <row r="52" spans="2:16" s="172" customFormat="1">
+      <c r="B52" s="173"/>
+      <c r="C52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
+      <c r="L52" s="171"/>
+      <c r="M52" s="171"/>
+      <c r="N52" s="171"/>
+      <c r="O52" s="171"/>
+      <c r="P52" s="174"/>
+    </row>
+    <row r="53" spans="2:16" s="172" customFormat="1">
+      <c r="B53" s="173"/>
+      <c r="C53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="171"/>
+      <c r="O53" s="171"/>
+      <c r="P53" s="174"/>
+    </row>
+    <row r="54" spans="2:16" s="172" customFormat="1">
+      <c r="B54" s="173"/>
+      <c r="C54" s="171"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="171"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="171"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="171"/>
+      <c r="L54" s="171"/>
+      <c r="M54" s="171"/>
+      <c r="N54" s="171"/>
+      <c r="O54" s="171"/>
+      <c r="P54" s="174"/>
+    </row>
+    <row r="55" spans="2:16" s="172" customFormat="1">
+      <c r="B55" s="173"/>
+      <c r="C55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="171"/>
+      <c r="M55" s="171"/>
+      <c r="N55" s="171"/>
+      <c r="O55" s="171"/>
+      <c r="P55" s="174"/>
+    </row>
+    <row r="56" spans="2:16" s="172" customFormat="1">
+      <c r="B56" s="173"/>
+      <c r="C56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="171"/>
+      <c r="K56" s="171"/>
+      <c r="L56" s="171"/>
+      <c r="M56" s="171"/>
+      <c r="N56" s="171"/>
+      <c r="O56" s="171"/>
+      <c r="P56" s="174"/>
+    </row>
+    <row r="57" spans="2:16" s="172" customFormat="1">
+      <c r="B57" s="173"/>
+      <c r="C57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="171"/>
+      <c r="K57" s="171"/>
+      <c r="L57" s="171"/>
+      <c r="M57" s="171"/>
+      <c r="N57" s="171"/>
+      <c r="O57" s="171"/>
+      <c r="P57" s="174"/>
+    </row>
+    <row r="58" spans="2:16" s="172" customFormat="1">
+      <c r="B58" s="173"/>
+      <c r="C58" s="171"/>
+      <c r="E58" s="171"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="171"/>
+      <c r="L58" s="171"/>
+      <c r="M58" s="171"/>
+      <c r="N58" s="171"/>
+      <c r="O58" s="171"/>
+      <c r="P58" s="174"/>
+    </row>
+    <row r="59" spans="2:16" s="172" customFormat="1">
+      <c r="B59" s="173"/>
+      <c r="C59" s="171"/>
+      <c r="E59" s="171"/>
+      <c r="F59" s="171"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="171"/>
+      <c r="L59" s="171"/>
+      <c r="M59" s="171"/>
+      <c r="N59" s="171"/>
+      <c r="O59" s="171"/>
+      <c r="P59" s="174"/>
+    </row>
+    <row r="60" spans="2:16" s="172" customFormat="1">
+      <c r="B60" s="173"/>
+      <c r="C60" s="171" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="171"/>
+      <c r="F60" s="171"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="171"/>
+      <c r="O60" s="171"/>
+      <c r="P60" s="174"/>
+    </row>
+    <row r="61" spans="2:16" s="172" customFormat="1">
+      <c r="B61" s="173"/>
+      <c r="C61" s="171" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="171"/>
+      <c r="F61" s="171"/>
+      <c r="G61" s="171" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="171"/>
+      <c r="L61" s="171"/>
+      <c r="M61" s="171"/>
+      <c r="N61" s="171"/>
+      <c r="O61" s="171"/>
+      <c r="P61" s="174"/>
+    </row>
+    <row r="62" spans="2:16" s="172" customFormat="1">
+      <c r="B62" s="173"/>
+      <c r="C62" s="171"/>
+      <c r="E62" s="171"/>
+      <c r="F62" s="171"/>
+      <c r="G62" s="171" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="180"/>
-      <c r="F61" s="180"/>
-      <c r="G61" s="180" t="s">
+      <c r="H62" s="171"/>
+      <c r="I62" s="171"/>
+      <c r="J62" s="171"/>
+      <c r="K62" s="171"/>
+      <c r="L62" s="171"/>
+      <c r="M62" s="171"/>
+      <c r="N62" s="171"/>
+      <c r="O62" s="171"/>
+      <c r="P62" s="174"/>
+    </row>
+    <row r="63" spans="2:16" s="172" customFormat="1">
+      <c r="B63" s="173"/>
+      <c r="C63" s="171"/>
+      <c r="E63" s="171"/>
+      <c r="F63" s="171"/>
+      <c r="G63" s="171"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="171"/>
+      <c r="J63" s="171"/>
+      <c r="K63" s="171"/>
+      <c r="L63" s="171"/>
+      <c r="M63" s="171"/>
+      <c r="N63" s="171"/>
+      <c r="O63" s="171"/>
+      <c r="P63" s="174"/>
+    </row>
+    <row r="64" spans="2:16" s="172" customFormat="1">
+      <c r="B64" s="173"/>
+      <c r="C64" s="171"/>
+      <c r="D64" s="172" t="s">
         <v>173</v>
       </c>
-      <c r="H61" s="180"/>
-      <c r="I61" s="180"/>
-      <c r="J61" s="180"/>
-      <c r="K61" s="180"/>
-      <c r="L61" s="180"/>
-      <c r="M61" s="180"/>
-      <c r="N61" s="180"/>
-      <c r="O61" s="180"/>
-      <c r="P61" s="183"/>
-    </row>
-    <row r="62" spans="2:16" s="181" customFormat="1">
-      <c r="B62" s="182"/>
-      <c r="C62" s="180"/>
-      <c r="E62" s="180"/>
-      <c r="F62" s="180"/>
-      <c r="G62" s="180" t="s">
-        <v>174</v>
-      </c>
-      <c r="H62" s="180"/>
-      <c r="I62" s="180"/>
-      <c r="J62" s="180"/>
-      <c r="K62" s="180"/>
-      <c r="L62" s="180"/>
-      <c r="M62" s="180"/>
-      <c r="N62" s="180"/>
-      <c r="O62" s="180"/>
-      <c r="P62" s="183"/>
-    </row>
-    <row r="63" spans="2:16" s="181" customFormat="1">
-      <c r="B63" s="182"/>
-      <c r="C63" s="180"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="180"/>
-      <c r="G63" s="180"/>
-      <c r="H63" s="180"/>
-      <c r="I63" s="180"/>
-      <c r="J63" s="180"/>
-      <c r="K63" s="180"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="180"/>
-      <c r="O63" s="180"/>
-      <c r="P63" s="183"/>
-    </row>
-    <row r="64" spans="2:16" s="181" customFormat="1">
-      <c r="B64" s="182"/>
-      <c r="C64" s="180"/>
-      <c r="D64" s="181" t="s">
-        <v>175</v>
-      </c>
-      <c r="E64" s="186">
+      <c r="E64" s="177">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F64" s="180"/>
-      <c r="G64" s="181" t="s">
-        <v>176</v>
-      </c>
-      <c r="H64" s="180"/>
-      <c r="I64" s="180"/>
-      <c r="J64" s="180"/>
-      <c r="K64" s="180"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="180"/>
-      <c r="O64" s="180"/>
-      <c r="P64" s="183"/>
-    </row>
-    <row r="65" spans="2:17" s="181" customFormat="1">
-      <c r="B65" s="182"/>
-      <c r="C65" s="180"/>
-      <c r="D65" s="181" t="s">
-        <v>177</v>
-      </c>
-      <c r="E65" s="186">
+      <c r="F64" s="171"/>
+      <c r="G64" s="172" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="171"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="171"/>
+      <c r="N64" s="171"/>
+      <c r="O64" s="171"/>
+      <c r="P64" s="174"/>
+    </row>
+    <row r="65" spans="2:17" s="172" customFormat="1">
+      <c r="B65" s="173"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="177">
         <f>1-E64</f>
         <v>0.33333333333333337</v>
       </c>
-      <c r="F65" s="180"/>
-      <c r="G65" s="181" t="s">
+      <c r="F65" s="171"/>
+      <c r="G65" s="172" t="s">
+        <v>176</v>
+      </c>
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="171"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="171"/>
+      <c r="P65" s="174"/>
+    </row>
+    <row r="66" spans="2:17" s="172" customFormat="1">
+      <c r="B66" s="173"/>
+      <c r="C66" s="171"/>
+      <c r="E66" s="171"/>
+      <c r="F66" s="171"/>
+      <c r="G66" s="178" t="s">
+        <v>177</v>
+      </c>
+      <c r="H66" s="171"/>
+      <c r="I66" s="171"/>
+      <c r="J66" s="171"/>
+      <c r="K66" s="171"/>
+      <c r="L66" s="171"/>
+      <c r="M66" s="171"/>
+      <c r="N66" s="171"/>
+      <c r="O66" s="171"/>
+      <c r="P66" s="174"/>
+      <c r="Q66" s="171"/>
+    </row>
+    <row r="67" spans="2:17" s="172" customFormat="1">
+      <c r="B67" s="173"/>
+      <c r="C67" s="171"/>
+      <c r="E67" s="171"/>
+      <c r="F67" s="171"/>
+      <c r="G67" s="178" t="s">
         <v>178</v>
       </c>
-      <c r="H65" s="180"/>
-      <c r="I65" s="180"/>
-      <c r="J65" s="180"/>
-      <c r="K65" s="180"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="180"/>
-      <c r="O65" s="180"/>
-      <c r="P65" s="183"/>
-    </row>
-    <row r="66" spans="2:17" s="181" customFormat="1">
-      <c r="B66" s="182"/>
-      <c r="C66" s="180"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="187" t="s">
+      <c r="H67" s="171"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="171"/>
+      <c r="K67" s="171"/>
+      <c r="L67" s="171"/>
+      <c r="M67" s="171"/>
+      <c r="N67" s="171"/>
+      <c r="O67" s="171"/>
+      <c r="P67" s="174"/>
+      <c r="Q67" s="171"/>
+    </row>
+    <row r="68" spans="2:17" s="172" customFormat="1">
+      <c r="B68" s="173"/>
+      <c r="C68" s="171"/>
+      <c r="E68" s="171"/>
+      <c r="F68" s="171"/>
+      <c r="G68" s="178" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="180"/>
-      <c r="I66" s="180"/>
-      <c r="J66" s="180"/>
-      <c r="K66" s="180"/>
-      <c r="L66" s="180"/>
-      <c r="M66" s="180"/>
-      <c r="N66" s="180"/>
-      <c r="O66" s="180"/>
-      <c r="P66" s="183"/>
-      <c r="Q66" s="180"/>
-    </row>
-    <row r="67" spans="2:17" s="181" customFormat="1">
-      <c r="B67" s="182"/>
-      <c r="C67" s="180"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="180"/>
-      <c r="G67" s="187" t="s">
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="171"/>
+      <c r="L68" s="171"/>
+      <c r="M68" s="171"/>
+      <c r="N68" s="171"/>
+      <c r="O68" s="171"/>
+      <c r="P68" s="174"/>
+      <c r="Q68" s="171"/>
+    </row>
+    <row r="69" spans="2:17" s="172" customFormat="1">
+      <c r="B69" s="173"/>
+      <c r="C69" s="171"/>
+      <c r="E69" s="171"/>
+      <c r="F69" s="171"/>
+      <c r="G69" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="H67" s="180"/>
-      <c r="I67" s="180"/>
-      <c r="J67" s="180"/>
-      <c r="K67" s="180"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="180"/>
-      <c r="N67" s="180"/>
-      <c r="O67" s="180"/>
-      <c r="P67" s="183"/>
-      <c r="Q67" s="180"/>
-    </row>
-    <row r="68" spans="2:17" s="181" customFormat="1">
-      <c r="B68" s="182"/>
-      <c r="C68" s="180"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="180"/>
-      <c r="G68" s="187" t="s">
-        <v>181</v>
-      </c>
-      <c r="H68" s="180"/>
-      <c r="I68" s="180"/>
-      <c r="J68" s="180"/>
-      <c r="K68" s="180"/>
-      <c r="L68" s="180"/>
-      <c r="M68" s="180"/>
-      <c r="N68" s="180"/>
-      <c r="O68" s="180"/>
-      <c r="P68" s="183"/>
-      <c r="Q68" s="180"/>
-    </row>
-    <row r="69" spans="2:17" s="181" customFormat="1">
-      <c r="B69" s="182"/>
-      <c r="C69" s="180"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="188" t="s">
-        <v>182</v>
-      </c>
-      <c r="H69" s="180"/>
-      <c r="I69" s="180"/>
-      <c r="J69" s="180"/>
-      <c r="K69" s="180"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="180"/>
-      <c r="O69" s="180"/>
-      <c r="P69" s="183"/>
-      <c r="Q69" s="180"/>
-    </row>
-    <row r="70" spans="2:17" s="181" customFormat="1">
-      <c r="B70" s="182"/>
-      <c r="C70" s="180"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="180"/>
-      <c r="G70" s="180" t="s">
-        <v>190</v>
-      </c>
-      <c r="H70" s="180"/>
-      <c r="I70" s="180"/>
-      <c r="J70" s="180"/>
-      <c r="K70" s="180"/>
-      <c r="L70" s="180"/>
-      <c r="M70" s="180"/>
-      <c r="N70" s="180"/>
-      <c r="O70" s="180"/>
-      <c r="P70" s="183"/>
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="171"/>
+      <c r="K69" s="171"/>
+      <c r="L69" s="171"/>
+      <c r="M69" s="171"/>
+      <c r="N69" s="171"/>
+      <c r="O69" s="171"/>
+      <c r="P69" s="174"/>
+      <c r="Q69" s="171"/>
+    </row>
+    <row r="70" spans="2:17" s="172" customFormat="1">
+      <c r="B70" s="173"/>
+      <c r="C70" s="171"/>
+      <c r="E70" s="171"/>
+      <c r="F70" s="171"/>
+      <c r="G70" s="171" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="171"/>
+      <c r="I70" s="171"/>
+      <c r="J70" s="171"/>
+      <c r="K70" s="171"/>
+      <c r="L70" s="171"/>
+      <c r="M70" s="171"/>
+      <c r="N70" s="171"/>
+      <c r="O70" s="171"/>
+      <c r="P70" s="174"/>
     </row>
     <row r="71" spans="2:17">
       <c r="B71" s="152"/>
@@ -6588,7 +6557,7 @@
     <row r="73" spans="2:17">
       <c r="B73" s="152"/>
       <c r="C73" s="153" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D73" s="153"/>
       <c r="E73" s="153"/>
@@ -6622,7 +6591,7 @@
     <row r="75" spans="2:17">
       <c r="B75" s="152"/>
       <c r="C75" s="153" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D75" s="153"/>
       <c r="E75" s="153"/>
@@ -6710,7 +6679,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="153" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G80" s="153"/>
       <c r="H80" s="153"/>
@@ -6725,13 +6694,13 @@
     <row r="81" spans="2:15">
       <c r="B81" s="152"/>
       <c r="C81" s="153" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D81" s="153">
         <v>40</v>
       </c>
       <c r="E81" s="153" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G81" s="153"/>
       <c r="H81" s="153"/>
@@ -6922,7 +6891,7 @@
     <row r="93" spans="2:15">
       <c r="B93" s="152"/>
       <c r="C93" s="153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" s="153"/>
       <c r="E93" s="153"/>
@@ -6940,7 +6909,7 @@
     <row r="94" spans="2:15">
       <c r="B94" s="152"/>
       <c r="C94" s="153" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D94" s="153"/>
       <c r="E94" s="153"/>
@@ -7070,13 +7039,13 @@
     <row r="102" spans="2:15">
       <c r="B102" s="152"/>
       <c r="C102" s="153" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D102" s="156">
         <v>40</v>
       </c>
       <c r="E102" s="156" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F102" s="153"/>
       <c r="G102" s="153"/>
@@ -7156,7 +7125,7 @@
     <row r="107" spans="2:15">
       <c r="B107" s="152"/>
       <c r="C107" s="153" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D107" s="153"/>
       <c r="E107" s="153"/>
@@ -7260,7 +7229,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="153" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G113" s="153"/>
       <c r="H113" s="153"/>

--- a/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE3CA0-AD65-294C-9ADF-9D507064BAD0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E223B3B1-C283-1B44-98C1-5F326C632F51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>input.coal</t>
   </si>
   <si>
-    <t>input.torrified_biomass_pellets</t>
-  </si>
-  <si>
     <t>euro/FLH</t>
   </si>
   <si>
@@ -871,6 +868,9 @@
   </si>
   <si>
     <t xml:space="preserve">       Initial investment costs</t>
+  </si>
+  <si>
+    <t>input.torrefied_biomass_pellets</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1631,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2000,6 +2000,7 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2943,16 +2944,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2977,7 +2978,7 @@
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="111" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="112"/>
     </row>
@@ -2989,31 +2990,31 @@
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="113" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="113"/>
       <c r="C12" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="113"/>
       <c r="C13" s="116" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7"/>
       <c r="B14" s="113"/>
       <c r="C14" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3024,58 +3025,58 @@
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
       <c r="B16" s="113" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="117" t="s">
         <v>97</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="113"/>
       <c r="C17" s="118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
       <c r="B18" s="113"/>
       <c r="C18" s="119" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="113"/>
       <c r="C19" s="120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="121"/>
       <c r="C20" s="122" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="121"/>
       <c r="C21" s="123" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7"/>
       <c r="B22" s="121"/>
       <c r="C22" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" s="121"/>
       <c r="C23" s="125" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3091,8 +3092,8 @@
   </sheetPr>
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3122,7 +3123,7 @@
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="195" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="196"/>
       <c r="D2" s="196"/>
@@ -3218,7 +3219,7 @@
     <row r="10" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="37"/>
       <c r="C10" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="23"/>
@@ -3244,14 +3245,14 @@
       <c r="G11" s="28"/>
       <c r="H11" s="44"/>
       <c r="I11" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="2:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>5</v>
@@ -3264,7 +3265,7 @@
       <c r="G12" s="28"/>
       <c r="H12" s="44"/>
       <c r="I12" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="22"/>
     </row>
@@ -3283,7 +3284,7 @@
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
       <c r="I13" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="143"/>
       <c r="K13" s="3"/>
@@ -3303,7 +3304,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
       <c r="I14" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="143"/>
       <c r="K14" s="3"/>
@@ -3323,7 +3324,7 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
       <c r="I15" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="144"/>
       <c r="K15" s="1"/>
@@ -3343,7 +3344,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="144"/>
       <c r="K16" s="1"/>
@@ -3354,7 +3355,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="53">
         <f>'Research data'!G6</f>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" s="143"/>
     </row>
@@ -3376,7 +3377,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="53">
         <f>E17*E12/E11</f>
@@ -3384,11 +3385,11 @@
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="143"/>
     </row>
@@ -3406,7 +3407,7 @@
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="32"/>
       <c r="C20" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="141"/>
       <c r="E20" s="135"/>
@@ -3434,7 +3435,7 @@
       </c>
       <c r="H21" s="28"/>
       <c r="I21" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J21" s="145"/>
     </row>
@@ -3451,11 +3452,11 @@
       </c>
       <c r="F22" s="28"/>
       <c r="G22" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="145"/>
     </row>
@@ -3476,7 +3477,7 @@
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="143"/>
     </row>
@@ -3497,7 +3498,7 @@
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="143"/>
     </row>
@@ -3507,7 +3508,7 @@
         <v>50</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="134">
         <f>'Research data'!G19</f>
@@ -3515,11 +3516,11 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J25" s="143"/>
     </row>
@@ -3529,7 +3530,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="49">
         <f>'Research data'!G21</f>
@@ -3537,11 +3538,11 @@
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="28"/>
       <c r="I26" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J26" s="143"/>
     </row>
@@ -3551,18 +3552,18 @@
         <v>52</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="49">
         <v>0</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="143"/>
     </row>
@@ -3583,7 +3584,7 @@
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="143"/>
     </row>
@@ -3602,7 +3603,7 @@
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
       <c r="I29" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="143"/>
     </row>
@@ -3648,7 +3649,7 @@
       </c>
       <c r="H32" s="28"/>
       <c r="I32" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J32" s="143"/>
     </row>
@@ -3670,7 +3671,7 @@
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33" s="143"/>
     </row>
@@ -3692,7 +3693,7 @@
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="158" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34" s="143"/>
     </row>
@@ -3711,7 +3712,7 @@
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
       <c r="I35" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J35" s="143"/>
     </row>
@@ -3730,7 +3731,7 @@
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
       <c r="I36" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="143"/>
     </row>
@@ -3749,7 +3750,7 @@
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="143"/>
     </row>
@@ -3768,7 +3769,7 @@
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J38" s="143"/>
     </row>
@@ -3787,7 +3788,7 @@
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
       <c r="I39" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J39" s="143"/>
     </row>
@@ -3806,7 +3807,7 @@
       <c r="G40" s="28"/>
       <c r="H40" s="28"/>
       <c r="I40" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J40" s="143"/>
     </row>
@@ -3825,14 +3826,14 @@
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J41" s="143"/>
     </row>
     <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="32"/>
-      <c r="C42" s="48" t="s">
-        <v>61</v>
+      <c r="C42" s="204" t="s">
+        <v>189</v>
       </c>
       <c r="D42" s="33" t="s">
         <v>5</v>
@@ -3844,7 +3845,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
       <c r="I42" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J42" s="143"/>
     </row>
@@ -4140,7 +4141,7 @@
     <row r="3" spans="2:19" s="38" customFormat="1">
       <c r="B3" s="37"/>
       <c r="C3" s="130" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
@@ -4148,11 +4149,11 @@
         <v>15</v>
       </c>
       <c r="G3" s="130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="130"/>
       <c r="I3" s="131" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="131"/>
       <c r="K3" s="131" t="s">
@@ -4160,19 +4161,19 @@
       </c>
       <c r="L3" s="131"/>
       <c r="M3" s="131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N3" s="130"/>
       <c r="O3" s="131" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P3" s="131"/>
       <c r="Q3" s="131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R3" s="130"/>
       <c r="S3" s="130" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -4198,7 +4199,7 @@
     <row r="5" spans="2:19" ht="17" thickBot="1">
       <c r="B5" s="57"/>
       <c r="C5" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
@@ -4225,7 +4226,7 @@
       <c r="D6" s="86"/>
       <c r="E6" s="86"/>
       <c r="F6" s="126" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" s="88">
         <f>I6</f>
@@ -4246,7 +4247,7 @@
     <row r="7" spans="2:19" s="172" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="173"/>
       <c r="C7" s="181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D7" s="182" t="s">
         <v>3</v>
@@ -4272,13 +4273,13 @@
       <c r="O7" s="176"/>
       <c r="P7" s="176"/>
       <c r="S7" s="180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="2:19" s="172" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="173"/>
       <c r="C8" s="181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" s="182" t="s">
         <v>3</v>
@@ -4304,7 +4305,7 @@
       <c r="O8" s="176"/>
       <c r="P8" s="176"/>
       <c r="S8" s="180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="2:19">
@@ -4389,7 +4390,7 @@
         <v>0.28313100000000002</v>
       </c>
       <c r="S12" s="190" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="17" thickBot="1">
@@ -4423,7 +4424,7 @@
       <c r="P13" s="84"/>
       <c r="Q13" s="84"/>
       <c r="S13" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="17" thickBot="1">
@@ -4457,7 +4458,7 @@
       <c r="P14" s="84"/>
       <c r="Q14" s="84"/>
       <c r="S14" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:19">
@@ -4482,7 +4483,7 @@
     <row r="16" spans="2:19" ht="17" thickBot="1">
       <c r="B16" s="57"/>
       <c r="C16" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4503,7 +4504,7 @@
     <row r="17" spans="2:19" ht="17" thickBot="1">
       <c r="B17" s="57"/>
       <c r="C17" s="136" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
@@ -4525,18 +4526,18 @@
       <c r="P17" s="97"/>
       <c r="Q17" s="97"/>
       <c r="S17" s="157" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="17" thickBot="1">
       <c r="B18" s="57"/>
       <c r="C18" s="136" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" s="103"/>
       <c r="E18" s="103"/>
       <c r="F18" s="126" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="189">
         <f>I18</f>
@@ -4560,12 +4561,12 @@
     <row r="19" spans="2:19" ht="17" thickBot="1">
       <c r="B19" s="57"/>
       <c r="C19" s="136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" s="46"/>
       <c r="E19" s="46"/>
       <c r="F19" s="128" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="192">
         <f>I19</f>
@@ -4589,12 +4590,12 @@
     <row r="20" spans="2:19" ht="17" thickBot="1">
       <c r="B20" s="57"/>
       <c r="C20" s="136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="46"/>
       <c r="E20" s="46"/>
       <c r="F20" s="128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="105">
         <f>G19/(G6*1000)</f>
@@ -4615,12 +4616,12 @@
     <row r="21" spans="2:19" ht="17" thickBot="1">
       <c r="B21" s="57"/>
       <c r="C21" s="148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="107"/>
       <c r="E21" s="107"/>
       <c r="F21" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="102">
         <f>ROUND((G22/G24),2)</f>
@@ -4641,12 +4642,12 @@
     <row r="22" spans="2:19" ht="17" thickBot="1">
       <c r="B22" s="57"/>
       <c r="C22" s="136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
       <c r="F22" s="87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="189">
         <f>I22</f>
@@ -4670,12 +4671,12 @@
     <row r="23" spans="2:19" ht="17" thickBot="1">
       <c r="B23" s="57"/>
       <c r="C23" s="136" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="106"/>
       <c r="E23" s="106"/>
       <c r="F23" s="126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="102">
         <f>ROUND((G21/G6),2)</f>
@@ -4696,12 +4697,12 @@
     <row r="24" spans="2:19" ht="17" thickBot="1">
       <c r="B24" s="57"/>
       <c r="C24" s="136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="85"/>
       <c r="E24" s="85"/>
       <c r="F24" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="188">
         <f>I24</f>
@@ -4725,12 +4726,12 @@
     <row r="25" spans="2:19" ht="17" thickBot="1">
       <c r="B25" s="57"/>
       <c r="C25" s="136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="85"/>
       <c r="E25" s="85"/>
       <c r="F25" s="129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G25" s="108">
         <f>G24*G6</f>
@@ -4843,13 +4844,13 @@
         <v>34</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J5" s="70" t="s">
         <v>17</v>
@@ -4870,29 +4871,29 @@
       <c r="B7" s="152"/>
       <c r="C7" s="159"/>
       <c r="D7" s="160" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="161" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="162" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="162"/>
       <c r="I7" s="170" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J7" s="160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="2:10" s="149" customFormat="1">
       <c r="B8" s="152"/>
       <c r="C8" s="164" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="160"/>
       <c r="E8" s="153"/>
@@ -4905,7 +4906,7 @@
     <row r="9" spans="2:10" s="149" customFormat="1">
       <c r="B9" s="152"/>
       <c r="C9" s="164" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="160"/>
       <c r="E9" s="153"/>
@@ -4936,17 +4937,17 @@
         <v>24</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="168">
         <v>2010</v>
       </c>
       <c r="H11" s="77"/>
       <c r="I11" s="78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J11" s="79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -4979,27 +4980,27 @@
       <c r="B14" s="64"/>
       <c r="C14" s="72"/>
       <c r="D14" s="72" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="67" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J14" s="79"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="64"/>
       <c r="C15" s="193" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="67"/>
@@ -5012,7 +5013,7 @@
     <row r="16" spans="2:10">
       <c r="B16" s="64"/>
       <c r="C16" s="136" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="67"/>
@@ -5025,7 +5026,7 @@
     <row r="17" spans="2:10">
       <c r="B17" s="64"/>
       <c r="C17" s="148" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="67"/>
@@ -5038,7 +5039,7 @@
     <row r="18" spans="2:10">
       <c r="B18" s="64"/>
       <c r="C18" s="193" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="67"/>
@@ -5064,7 +5065,7 @@
     <row r="20" spans="2:10">
       <c r="B20" s="64"/>
       <c r="C20" s="181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="72"/>
       <c r="E20" s="67"/>
@@ -5077,7 +5078,7 @@
     <row r="21" spans="2:10">
       <c r="B21" s="64"/>
       <c r="C21" s="181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D21" s="72"/>
       <c r="E21" s="67"/>
@@ -5091,25 +5092,25 @@
       <c r="B22" s="64"/>
       <c r="C22" s="72"/>
       <c r="D22" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="67"/>
       <c r="F22" s="68">
         <v>2013</v>
       </c>
       <c r="G22" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="64"/>
       <c r="C23" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="72"/>
       <c r="E23" s="67"/>
@@ -5122,7 +5123,7 @@
     <row r="24" spans="2:10">
       <c r="B24" s="64"/>
       <c r="C24" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="67"/>
@@ -5135,7 +5136,7 @@
     <row r="25" spans="2:10">
       <c r="B25" s="64"/>
       <c r="C25" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="72"/>
@@ -5148,7 +5149,7 @@
     <row r="26" spans="2:10">
       <c r="B26" s="64"/>
       <c r="C26" s="194" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="67"/>
       <c r="E26" s="72"/>
@@ -5157,14 +5158,14 @@
       <c r="H26" s="72"/>
       <c r="I26" s="80"/>
       <c r="J26" s="171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="64"/>
       <c r="C27" s="72"/>
       <c r="D27" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="72" t="s">
         <v>10</v>
@@ -5172,20 +5173,20 @@
       <c r="F27" s="72"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="80"/>
       <c r="J27" s="72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="64"/>
       <c r="C28" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" s="72"/>
       <c r="F28" s="72"/>
@@ -5209,7 +5210,7 @@
       <c r="B30" s="64"/>
       <c r="C30" s="72"/>
       <c r="D30" s="67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="72" t="s">
         <v>10</v>
@@ -5217,20 +5218,20 @@
       <c r="F30" s="72"/>
       <c r="G30" s="72"/>
       <c r="H30" s="72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I30" s="80"/>
       <c r="J30" s="72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="64"/>
       <c r="C31" s="75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="72"/>
       <c r="F31" s="72"/>
@@ -5288,11 +5289,11 @@
     <row r="3" spans="2:16" s="38" customFormat="1">
       <c r="B3" s="137"/>
       <c r="C3" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
@@ -5308,7 +5309,7 @@
     <row r="4" spans="2:16" s="172" customFormat="1">
       <c r="B4" s="173"/>
       <c r="C4" s="171" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="171"/>
       <c r="E4" s="171"/>
@@ -5327,7 +5328,7 @@
     <row r="5" spans="2:16" s="172" customFormat="1">
       <c r="B5" s="173"/>
       <c r="C5" s="171" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="171"/>
       <c r="E5" s="171"/>
@@ -5470,7 +5471,7 @@
         <v>600000</v>
       </c>
       <c r="F13" s="171" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="171"/>
       <c r="H13" s="171"/>
@@ -5491,7 +5492,7 @@
         <v>600</v>
       </c>
       <c r="F14" s="172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="171"/>
       <c r="H14" s="171"/>
@@ -5511,7 +5512,7 @@
         <v>1400</v>
       </c>
       <c r="F15" s="171" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G15" s="171"/>
       <c r="H15" s="171"/>
@@ -5528,7 +5529,7 @@
       <c r="B16" s="173"/>
       <c r="C16" s="171"/>
       <c r="D16" s="172" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="171">
         <v>40</v>
@@ -5551,7 +5552,7 @@
       <c r="B17" s="173"/>
       <c r="C17" s="171"/>
       <c r="D17" s="172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="171">
         <v>15</v>
@@ -5574,13 +5575,13 @@
       <c r="B18" s="173"/>
       <c r="C18" s="171"/>
       <c r="D18" s="172" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="171">
         <v>4500</v>
       </c>
       <c r="F18" s="171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G18" s="171"/>
       <c r="H18" s="171"/>
@@ -5707,7 +5708,7 @@
     <row r="26" spans="2:16" s="172" customFormat="1">
       <c r="B26" s="173"/>
       <c r="C26" s="171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="171"/>
       <c r="F26" s="171"/>
@@ -5725,12 +5726,12 @@
     <row r="27" spans="2:16" s="172" customFormat="1">
       <c r="B27" s="173"/>
       <c r="C27" s="171" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="171"/>
       <c r="F27" s="171"/>
       <c r="G27" s="171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H27" s="171"/>
       <c r="I27" s="171"/>
@@ -5748,7 +5749,7 @@
       <c r="E28" s="171"/>
       <c r="F28" s="171"/>
       <c r="G28" s="171" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H28" s="171"/>
       <c r="I28" s="171"/>
@@ -5766,7 +5767,7 @@
       <c r="E29" s="171"/>
       <c r="F29" s="171"/>
       <c r="G29" s="171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="171"/>
       <c r="I29" s="171"/>
@@ -5800,7 +5801,7 @@
       <c r="E31" s="171"/>
       <c r="F31" s="171"/>
       <c r="G31" s="171" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H31" s="171"/>
       <c r="I31" s="171"/>
@@ -5816,7 +5817,7 @@
       <c r="B32" s="173"/>
       <c r="C32" s="171"/>
       <c r="D32" s="171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="171">
         <v>40</v>
@@ -5825,7 +5826,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="175" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H32" s="171"/>
       <c r="I32" s="171"/>
@@ -5841,7 +5842,7 @@
       <c r="B33" s="173"/>
       <c r="C33" s="171"/>
       <c r="D33" s="171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E33" s="171">
         <v>15</v>
@@ -5850,7 +5851,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="171"/>
       <c r="I33" s="171"/>
@@ -5867,7 +5868,7 @@
       <c r="C34" s="171"/>
       <c r="E34" s="171"/>
       <c r="G34" s="175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H34" s="171"/>
       <c r="I34" s="171"/>
@@ -5885,7 +5886,7 @@
       <c r="E35" s="171"/>
       <c r="F35" s="171"/>
       <c r="G35" s="175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H35" s="171"/>
       <c r="I35" s="171"/>
@@ -5903,7 +5904,7 @@
       <c r="E36" s="171"/>
       <c r="F36" s="171"/>
       <c r="G36" s="171" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H36" s="171"/>
       <c r="I36" s="171"/>
@@ -5982,7 +5983,7 @@
     <row r="41" spans="2:16" s="172" customFormat="1">
       <c r="B41" s="173"/>
       <c r="C41" s="171" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" s="171"/>
       <c r="F41" s="171"/>
@@ -6113,13 +6114,13 @@
       <c r="B49" s="173"/>
       <c r="C49" s="171"/>
       <c r="D49" s="171" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E49" s="171">
         <v>38400000</v>
       </c>
       <c r="F49" s="171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G49" s="171"/>
       <c r="H49" s="171"/>
@@ -6136,14 +6137,14 @@
       <c r="B50" s="173"/>
       <c r="C50" s="171"/>
       <c r="D50" s="171" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E50" s="191">
         <f>E49*E64</f>
         <v>25600000</v>
       </c>
       <c r="F50" s="171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="171"/>
       <c r="H50" s="171"/>
@@ -6160,14 +6161,14 @@
       <c r="B51" s="173"/>
       <c r="C51" s="171"/>
       <c r="D51" s="172" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51" s="191">
         <f>E49*E65</f>
         <v>12800000.000000002</v>
       </c>
       <c r="F51" s="171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="171"/>
       <c r="H51" s="171"/>
@@ -6311,7 +6312,7 @@
     <row r="60" spans="2:16" s="172" customFormat="1">
       <c r="B60" s="173"/>
       <c r="C60" s="171" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="171"/>
       <c r="F60" s="171"/>
@@ -6329,12 +6330,12 @@
     <row r="61" spans="2:16" s="172" customFormat="1">
       <c r="B61" s="173"/>
       <c r="C61" s="171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E61" s="171"/>
       <c r="F61" s="171"/>
       <c r="G61" s="171" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H61" s="171"/>
       <c r="I61" s="171"/>
@@ -6352,7 +6353,7 @@
       <c r="E62" s="171"/>
       <c r="F62" s="171"/>
       <c r="G62" s="171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H62" s="171"/>
       <c r="I62" s="171"/>
@@ -6384,7 +6385,7 @@
       <c r="B64" s="173"/>
       <c r="C64" s="171"/>
       <c r="D64" s="172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E64" s="177">
         <f>2/3</f>
@@ -6392,7 +6393,7 @@
       </c>
       <c r="F64" s="171"/>
       <c r="G64" s="172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H64" s="171"/>
       <c r="I64" s="171"/>
@@ -6408,7 +6409,7 @@
       <c r="B65" s="173"/>
       <c r="C65" s="171"/>
       <c r="D65" s="172" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E65" s="177">
         <f>1-E64</f>
@@ -6416,7 +6417,7 @@
       </c>
       <c r="F65" s="171"/>
       <c r="G65" s="172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H65" s="171"/>
       <c r="I65" s="171"/>
@@ -6434,7 +6435,7 @@
       <c r="E66" s="171"/>
       <c r="F66" s="171"/>
       <c r="G66" s="178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H66" s="171"/>
       <c r="I66" s="171"/>
@@ -6453,7 +6454,7 @@
       <c r="E67" s="171"/>
       <c r="F67" s="171"/>
       <c r="G67" s="178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H67" s="171"/>
       <c r="I67" s="171"/>
@@ -6472,7 +6473,7 @@
       <c r="E68" s="171"/>
       <c r="F68" s="171"/>
       <c r="G68" s="178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H68" s="171"/>
       <c r="I68" s="171"/>
@@ -6491,7 +6492,7 @@
       <c r="E69" s="171"/>
       <c r="F69" s="171"/>
       <c r="G69" s="179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H69" s="171"/>
       <c r="I69" s="171"/>
@@ -6510,7 +6511,7 @@
       <c r="E70" s="171"/>
       <c r="F70" s="171"/>
       <c r="G70" s="171" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H70" s="171"/>
       <c r="I70" s="171"/>
@@ -6557,7 +6558,7 @@
     <row r="73" spans="2:17">
       <c r="B73" s="152"/>
       <c r="C73" s="153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" s="153"/>
       <c r="E73" s="153"/>
@@ -6591,7 +6592,7 @@
     <row r="75" spans="2:17">
       <c r="B75" s="152"/>
       <c r="C75" s="153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D75" s="153"/>
       <c r="E75" s="153"/>
@@ -6679,7 +6680,7 @@
         <v>4</v>
       </c>
       <c r="E80" s="153" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G80" s="153"/>
       <c r="H80" s="153"/>
@@ -6694,13 +6695,13 @@
     <row r="81" spans="2:15">
       <c r="B81" s="152"/>
       <c r="C81" s="153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" s="153">
         <v>40</v>
       </c>
       <c r="E81" s="153" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G81" s="153"/>
       <c r="H81" s="153"/>
@@ -6909,7 +6910,7 @@
     <row r="94" spans="2:15">
       <c r="B94" s="152"/>
       <c r="C94" s="153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="153"/>
       <c r="E94" s="153"/>
@@ -7039,13 +7040,13 @@
     <row r="102" spans="2:15">
       <c r="B102" s="152"/>
       <c r="C102" s="153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D102" s="156">
         <v>40</v>
       </c>
       <c r="E102" s="156" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F102" s="153"/>
       <c r="G102" s="153"/>
@@ -7125,7 +7126,7 @@
     <row r="107" spans="2:15">
       <c r="B107" s="152"/>
       <c r="C107" s="153" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D107" s="153"/>
       <c r="E107" s="153"/>
@@ -7229,7 +7230,7 @@
         <v>4</v>
       </c>
       <c r="E113" s="153" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G113" s="153"/>
       <c r="H113" s="153"/>

--- a/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
+++ b/nodes_source_analyses/industry/industry_chp_ultra_supercritical_coal.central_producer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/industry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/industry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E223B3B1-C283-1B44-98C1-5F326C632F51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1005F345-4FA7-2A4D-B323-34F3C8EED4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="191">
   <si>
     <t>Source</t>
   </si>
@@ -872,6 +872,9 @@
   <si>
     <t>input.torrefied_biomass_pellets</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -882,12 +885,19 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1085,6 +1095,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1395,612 +1411,613 @@
   </borders>
   <cellStyleXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="233">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2913,12 +2930,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="30" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="30"/>
+    <col min="1" max="1" width="4.85546875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="30" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="41" customFormat="1">
@@ -3092,23 +3109,23 @@
   </sheetPr>
   <dimension ref="B1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="62.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="45" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="49.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -3122,42 +3139,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="196" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="200"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="201"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="201"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
-      <c r="E5" s="203"/>
+      <c r="B5" s="202"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="204"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="15"/>
@@ -3576,15 +3593,15 @@
         <v>3</v>
       </c>
       <c r="E28" s="53">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F28" s="28"/>
       <c r="G28" s="51" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="28"/>
-      <c r="I28" s="31" t="s">
-        <v>64</v>
+      <c r="I28" s="205" t="s">
+        <v>190</v>
       </c>
       <c r="J28" s="143"/>
     </row>
@@ -3832,7 +3849,7 @@
     </row>
     <row r="42" spans="2:10" ht="17" thickBot="1">
       <c r="B42" s="32"/>
-      <c r="C42" s="204" t="s">
+      <c r="C42" s="195" t="s">
         <v>189</v>
       </c>
       <c r="D42" s="33" t="s">
@@ -4093,28 +4110,28 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="54" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="54" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="54" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="54" customWidth="1"/>
-    <col min="8" max="8" width="2.83203125" style="54" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="81" customWidth="1"/>
-    <col min="10" max="10" width="2.5" style="81" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="81" customWidth="1"/>
-    <col min="12" max="12" width="2.83203125" style="81" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="81" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" style="54" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="54" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="81" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="81" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="81" customWidth="1"/>
+    <col min="12" max="12" width="2.85546875" style="81" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="81" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" style="54" customWidth="1"/>
     <col min="15" max="15" width="10" style="81" customWidth="1"/>
-    <col min="16" max="16" width="3.5" style="81" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" style="81" customWidth="1"/>
     <col min="17" max="17" width="10" style="81" customWidth="1"/>
-    <col min="18" max="18" width="2.83203125" style="54" customWidth="1"/>
-    <col min="19" max="19" width="73.83203125" style="54" customWidth="1"/>
-    <col min="20" max="16384" width="10.6640625" style="54"/>
+    <col min="18" max="18" width="2.85546875" style="54" customWidth="1"/>
+    <col min="19" max="19" width="73.85546875" style="54" customWidth="1"/>
+    <col min="20" max="16384" width="10.7109375" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1"/>
@@ -4780,17 +4797,17 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" style="59" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="59" customWidth="1"/>
-    <col min="6" max="8" width="12.1640625" style="59" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="60" customWidth="1"/>
-    <col min="10" max="10" width="105.5" style="59" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="59"/>
+    <col min="1" max="1" width="10.140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="59" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="59" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="59" customWidth="1"/>
+    <col min="6" max="8" width="12.140625" style="59" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="60" customWidth="1"/>
+    <col min="10" max="10" width="105.42578125" style="59" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -5260,13 +5277,13 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="149" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="149" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="149" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="149" customWidth="1"/>
-    <col min="5" max="16384" width="10.6640625" style="149"/>
+    <col min="2" max="2" width="4.85546875" style="149" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="149" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="149" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="149"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="17" thickBot="1"/>
